--- a/2012 08 29 зняті жести.xlsx
+++ b/2012 08 29 зняті жести.xlsx
@@ -22,7 +22,7 @@
     <author>dizcza</author>
   </authors>
   <commentList>
-    <comment ref="G91" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-мабуть Н7 поєданий з Н6</t>
+що це за колонка?</t>
         </r>
       </text>
     </comment>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="259">
   <si>
     <t>Здраствуй (те)</t>
   </si>
@@ -738,9 +738,6 @@
     <t>S8</t>
   </si>
   <si>
-    <t>S9: missed</t>
-  </si>
-  <si>
     <t>H1</t>
   </si>
   <si>
@@ -780,9 +777,6 @@
     <t>H7: missed</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Н6_1</t>
   </si>
   <si>
@@ -822,8 +816,20 @@
     <t>примітки</t>
   </si>
   <si>
+    <t>статус</t>
+  </si>
+  <si>
+    <t>ОК</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>треба перевірити на наявність помилок</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Глухий чи </t>
+      <t xml:space="preserve">Глухий / </t>
     </r>
     <r>
       <rPr>
@@ -836,19 +842,16 @@
     </r>
   </si>
   <si>
-    <t>статус</t>
-  </si>
-  <si>
-    <t>ОК</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>треба перевірити на наявність помилок</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>мабуть Н7 поєданий з Н6</t>
+  </si>
+  <si>
+    <t>треба пояснити що це за жести</t>
   </si>
 </sst>
 </file>
@@ -1313,10 +1316,70 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1327,10 +1390,23 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1340,9 +1416,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1351,13 +1440,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1367,10 +1456,8 @@
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1379,131 +1466,35 @@
       <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1514,7 +1505,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1639,19 +1630,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1662,45 +1641,109 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1724,44 +1767,38 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2134,8 +2171,8 @@
   <dimension ref="A1:O241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54:H56"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2152,13 +2189,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1">
       <c r="A1" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="77" t="s">
-        <v>245</v>
+      <c r="C1" s="73" t="s">
+        <v>243</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>129</v>
@@ -2173,556 +2210,556 @@
         <v>210</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="J1" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="113" t="s">
+        <v>249</v>
+      </c>
+      <c r="K1" s="114"/>
+    </row>
+    <row r="2" spans="1:11" ht="18">
+      <c r="A2" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="121" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="121">
+        <v>4</v>
+      </c>
+      <c r="H2" s="120" t="s">
         <v>251</v>
       </c>
-      <c r="K1" s="96"/>
-    </row>
-    <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="103" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <v>1</v>
-      </c>
-      <c r="F2" s="110" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="110">
-        <v>4</v>
-      </c>
-      <c r="H2" s="102" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="104"/>
+      <c r="A3" s="107"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="16">
         <v>2</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="71" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="105"/>
     </row>
     <row r="4" spans="1:11" ht="18">
-      <c r="A4" s="104"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="16">
         <v>3</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="71" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" thickBot="1">
-      <c r="A5" s="104"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="16">
         <v>4</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="70" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="13">
         <v>1</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="105"/>
     </row>
     <row r="6" spans="1:11" ht="18">
-      <c r="A6" s="104"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="16">
         <v>5</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="13">
         <v>2</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="95">
         <v>4</v>
       </c>
-      <c r="H6" s="87" t="s">
-        <v>255</v>
+      <c r="H6" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18.75" thickBot="1">
-      <c r="A7" s="104"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="16">
         <v>6</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="70" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="13">
         <v>2</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="105"/>
     </row>
     <row r="8" spans="1:11" ht="18">
-      <c r="A8" s="104"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="16">
         <v>7</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="69" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="13">
         <v>1</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="95" t="s">
         <v>202</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="95">
         <v>4</v>
       </c>
-      <c r="H8" s="87" t="s">
-        <v>255</v>
+      <c r="H8" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18">
-      <c r="A9" s="104"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="16">
         <v>8</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="71" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="13">
         <v>1</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="87"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="105"/>
     </row>
     <row r="10" spans="1:11" ht="18">
-      <c r="A10" s="104"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="71" t="s">
         <v>131</v>
       </c>
       <c r="E10" s="13">
         <v>1</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="105"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" thickBot="1">
-      <c r="A11" s="104"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="16">
         <v>9</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="70" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="13">
         <v>1</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="105"/>
     </row>
     <row r="12" spans="1:11" ht="18">
-      <c r="A12" s="104"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="16">
         <v>10</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="69" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="13">
         <v>1</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="95">
         <v>4</v>
       </c>
-      <c r="H12" s="87" t="s">
-        <v>255</v>
+      <c r="H12" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18">
-      <c r="A13" s="104"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="16">
         <v>11</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="71" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="105"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" thickBot="1">
-      <c r="A14" s="104"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="16">
         <v>12</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="70" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="13">
         <v>2</v>
       </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="105"/>
     </row>
     <row r="15" spans="1:11" ht="18">
-      <c r="A15" s="104"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="16">
         <v>13</v>
       </c>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="69" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="13">
         <v>1</v>
       </c>
-      <c r="F15" s="86" t="s">
+      <c r="F15" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="95">
         <v>4</v>
       </c>
-      <c r="H15" s="87" t="s">
-        <v>255</v>
+      <c r="H15" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18">
-      <c r="A16" s="104"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="16">
         <v>14</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="71" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="13">
         <v>1</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="105"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A17" s="104"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="16">
         <v>15</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="74" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="52">
         <v>2</v>
       </c>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="105"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" thickTop="1">
-      <c r="A18" s="104"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="64">
         <v>17</v>
       </c>
       <c r="C18" s="65">
         <v>16</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="76" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="63">
         <v>2</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="G18" s="100">
+      <c r="G18" s="118">
         <v>5</v>
       </c>
-      <c r="H18" s="92" t="s">
-        <v>257</v>
+      <c r="H18" s="122" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18">
-      <c r="A19" s="104"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="64">
         <v>18</v>
       </c>
       <c r="C19" s="65">
         <v>17</v>
       </c>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="77" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="63">
         <v>2</v>
       </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="92"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="122"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A20" s="104"/>
+      <c r="A20" s="107"/>
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="16">
         <v>18</v>
       </c>
-      <c r="D20" s="82" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20" s="83">
-        <v>1</v>
-      </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="93"/>
+      <c r="D20" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" s="79">
+        <v>1</v>
+      </c>
+      <c r="F20" s="116"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="123"/>
       <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:9" ht="18.75" thickTop="1">
-      <c r="A21" s="104"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="16">
         <v>19</v>
       </c>
-      <c r="D21" s="79" t="s">
+      <c r="D21" s="75" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="66">
         <v>1</v>
       </c>
-      <c r="F21" s="99" t="s">
+      <c r="F21" s="117" t="s">
         <v>206</v>
       </c>
-      <c r="G21" s="99">
+      <c r="G21" s="117">
         <v>3</v>
       </c>
-      <c r="H21" s="94" t="s">
-        <v>255</v>
+      <c r="H21" s="124" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="104"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="16">
         <v>20</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="71" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="66">
         <v>1</v>
       </c>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="94"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="124"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A23" s="104"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="16">
         <v>21</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="66">
         <v>1</v>
       </c>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="94"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="124"/>
     </row>
     <row r="24" spans="1:9" ht="18">
-      <c r="A24" s="104"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="16">
         <v>22</v>
       </c>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="70">
-        <v>1</v>
-      </c>
-      <c r="F24" s="86" t="s">
+      <c r="E24" s="68">
+        <v>1</v>
+      </c>
+      <c r="F24" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="G24" s="86">
+      <c r="G24" s="95">
         <v>3</v>
       </c>
-      <c r="H24" s="87" t="s">
-        <v>255</v>
+      <c r="H24" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18">
-      <c r="A25" s="104"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25" s="16">
         <v>23</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="71" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="13">
         <v>1</v>
       </c>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="105"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A26" s="104"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26" s="16">
         <v>24</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="70" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="13">
         <v>1</v>
       </c>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="87"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="105"/>
     </row>
     <row r="27" spans="1:9" ht="18">
-      <c r="A27" s="104"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="1">
         <v>26</v>
       </c>
       <c r="C27" s="16">
         <v>25</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="13">
         <v>2</v>
       </c>
-      <c r="F27" s="86" t="s">
+      <c r="F27" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="G27" s="86">
+      <c r="G27" s="95">
         <v>3</v>
       </c>
-      <c r="H27" s="87" t="s">
-        <v>255</v>
+      <c r="H27" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A28" s="105"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="1">
         <v>27</v>
       </c>
       <c r="C28" s="16">
         <v>26</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="70" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="13">
         <v>1</v>
       </c>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="87"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="105"/>
     </row>
     <row r="29" spans="1:9" ht="18">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="106" t="s">
         <v>140</v>
       </c>
       <c r="B29" s="1">
@@ -2737,18 +2774,18 @@
       <c r="E29" s="13">
         <v>1</v>
       </c>
-      <c r="F29" s="86" t="s">
+      <c r="F29" s="95" t="s">
         <v>211</v>
       </c>
-      <c r="G29" s="86">
+      <c r="G29" s="95">
         <v>4</v>
       </c>
-      <c r="H29" s="87" t="s">
-        <v>255</v>
+      <c r="H29" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="A30" s="104"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="1">
         <v>29</v>
       </c>
@@ -2761,12 +2798,12 @@
       <c r="E30" s="13">
         <v>1</v>
       </c>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="87"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="105"/>
     </row>
     <row r="31" spans="1:9" ht="18">
-      <c r="A31" s="104"/>
+      <c r="A31" s="107"/>
       <c r="B31" s="1">
         <v>30</v>
       </c>
@@ -2779,12 +2816,12 @@
       <c r="E31" s="13">
         <v>1</v>
       </c>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="87"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="105"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A32" s="104"/>
+      <c r="A32" s="107"/>
       <c r="B32" s="1">
         <v>31</v>
       </c>
@@ -2797,12 +2834,12 @@
       <c r="E32" s="13">
         <v>1</v>
       </c>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="87"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="105"/>
     </row>
     <row r="33" spans="1:9" ht="18">
-      <c r="A33" s="104"/>
+      <c r="A33" s="107"/>
       <c r="B33" s="1">
         <v>32</v>
       </c>
@@ -2815,18 +2852,18 @@
       <c r="E33" s="13">
         <v>1</v>
       </c>
-      <c r="F33" s="86" t="s">
+      <c r="F33" s="95" t="s">
         <v>212</v>
       </c>
-      <c r="G33" s="86">
+      <c r="G33" s="95">
         <v>4</v>
       </c>
-      <c r="H33" s="87" t="s">
-        <v>255</v>
+      <c r="H33" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18">
-      <c r="A34" s="104"/>
+      <c r="A34" s="107"/>
       <c r="B34" s="1">
         <v>33</v>
       </c>
@@ -2839,12 +2876,12 @@
       <c r="E34" s="13">
         <v>1</v>
       </c>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="87"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="105"/>
     </row>
     <row r="35" spans="1:9" ht="18">
-      <c r="A35" s="104"/>
+      <c r="A35" s="107"/>
       <c r="B35" s="1">
         <v>34</v>
       </c>
@@ -2857,12 +2894,12 @@
       <c r="E35" s="13">
         <v>1</v>
       </c>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="87"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="105"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A36" s="104"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="1">
         <v>35</v>
       </c>
@@ -2875,12 +2912,12 @@
       <c r="E36" s="13">
         <v>1</v>
       </c>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="87"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="105"/>
     </row>
     <row r="37" spans="1:9" ht="18">
-      <c r="A37" s="104"/>
+      <c r="A37" s="107"/>
       <c r="B37" s="1">
         <v>36</v>
       </c>
@@ -2893,18 +2930,18 @@
       <c r="E37" s="13">
         <v>1</v>
       </c>
-      <c r="F37" s="86" t="s">
+      <c r="F37" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="G37" s="86">
+      <c r="G37" s="95">
         <v>4</v>
       </c>
-      <c r="H37" s="87" t="s">
-        <v>255</v>
+      <c r="H37" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18">
-      <c r="A38" s="104"/>
+      <c r="A38" s="107"/>
       <c r="B38" s="1">
         <v>37</v>
       </c>
@@ -2917,12 +2954,12 @@
       <c r="E38" s="13">
         <v>1</v>
       </c>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="87"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="105"/>
     </row>
     <row r="39" spans="1:9" ht="18">
-      <c r="A39" s="104"/>
+      <c r="A39" s="107"/>
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -2935,12 +2972,12 @@
       <c r="E39" s="13">
         <v>1</v>
       </c>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="87"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="105"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A40" s="104"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="1">
         <v>39</v>
       </c>
@@ -2953,12 +2990,12 @@
       <c r="E40" s="13">
         <v>1</v>
       </c>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="87"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="105"/>
     </row>
     <row r="41" spans="1:9" ht="18">
-      <c r="A41" s="104"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="1">
         <v>40</v>
       </c>
@@ -2971,18 +3008,18 @@
       <c r="E41" s="13">
         <v>2</v>
       </c>
-      <c r="F41" s="86" t="s">
+      <c r="F41" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="G41" s="86">
+      <c r="G41" s="95">
         <v>4</v>
       </c>
-      <c r="H41" s="87" t="s">
-        <v>255</v>
+      <c r="H41" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A42" s="104"/>
+      <c r="A42" s="107"/>
       <c r="B42" s="1">
         <v>41</v>
       </c>
@@ -2995,12 +3032,12 @@
       <c r="E42" s="13">
         <v>2</v>
       </c>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="87"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="105"/>
     </row>
     <row r="43" spans="1:9" ht="18">
-      <c r="A43" s="104"/>
+      <c r="A43" s="107"/>
       <c r="B43" s="1">
         <v>42</v>
       </c>
@@ -3013,19 +3050,19 @@
       <c r="E43" s="13">
         <v>1</v>
       </c>
-      <c r="F43" s="86" t="s">
+      <c r="F43" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="G43" s="86">
+      <c r="G43" s="95">
         <v>4</v>
       </c>
-      <c r="H43" s="87" t="s">
-        <v>255</v>
+      <c r="H43" s="105" t="s">
+        <v>252</v>
       </c>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" ht="18">
-      <c r="A44" s="104"/>
+      <c r="A44" s="107"/>
       <c r="B44" s="1">
         <v>43</v>
       </c>
@@ -3038,13 +3075,13 @@
       <c r="E44" s="13">
         <v>1</v>
       </c>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="87"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="105"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" ht="18">
-      <c r="A45" s="104"/>
+      <c r="A45" s="107"/>
       <c r="B45" s="1">
         <v>44</v>
       </c>
@@ -3055,13 +3092,13 @@
       <c r="E45" s="13">
         <v>1</v>
       </c>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="87"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="105"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A46" s="105"/>
+      <c r="A46" s="108"/>
       <c r="B46" s="1">
         <v>45</v>
       </c>
@@ -3072,13 +3109,13 @@
       <c r="E46" s="13">
         <v>1</v>
       </c>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="87"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="105"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" ht="18">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="109" t="s">
         <v>141</v>
       </c>
       <c r="B47" s="1">
@@ -3093,19 +3130,19 @@
       <c r="E47" s="13">
         <v>1</v>
       </c>
-      <c r="F47" s="86" t="s">
+      <c r="F47" s="95" t="s">
         <v>216</v>
       </c>
-      <c r="G47" s="86">
+      <c r="G47" s="95">
         <v>4</v>
       </c>
-      <c r="H47" s="87" t="s">
-        <v>255</v>
+      <c r="H47" s="105" t="s">
+        <v>252</v>
       </c>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" ht="18">
-      <c r="A48" s="107"/>
+      <c r="A48" s="110"/>
       <c r="B48" s="1">
         <v>47</v>
       </c>
@@ -3118,12 +3155,12 @@
       <c r="E48" s="13">
         <v>1</v>
       </c>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="87"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="105"/>
     </row>
     <row r="49" spans="1:8" ht="18">
-      <c r="A49" s="107"/>
+      <c r="A49" s="110"/>
       <c r="B49" s="1">
         <v>48</v>
       </c>
@@ -3136,12 +3173,12 @@
       <c r="E49" s="13">
         <v>1</v>
       </c>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="87"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="105"/>
     </row>
     <row r="50" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A50" s="107"/>
+      <c r="A50" s="110"/>
       <c r="B50" s="1">
         <v>49</v>
       </c>
@@ -3152,12 +3189,12 @@
       <c r="E50" s="13">
         <v>1</v>
       </c>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="87"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="105"/>
     </row>
     <row r="51" spans="1:8" ht="18">
-      <c r="A51" s="107"/>
+      <c r="A51" s="110"/>
       <c r="B51" s="1">
         <v>50</v>
       </c>
@@ -3165,21 +3202,21 @@
       <c r="D51" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="68">
-        <v>1</v>
-      </c>
-      <c r="F51" s="89" t="s">
+      <c r="E51" s="66">
+        <v>1</v>
+      </c>
+      <c r="F51" s="100" t="s">
         <v>217</v>
       </c>
-      <c r="G51" s="89">
-        <v>4</v>
-      </c>
-      <c r="H51" s="89" t="s">
-        <v>256</v>
+      <c r="G51" s="100">
+        <v>3</v>
+      </c>
+      <c r="H51" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18">
-      <c r="A52" s="107"/>
+      <c r="A52" s="110"/>
       <c r="B52" s="1">
         <v>51</v>
       </c>
@@ -3189,15 +3226,15 @@
       <c r="D52" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="E52" s="68">
-        <v>1</v>
-      </c>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
+      <c r="E52" s="66">
+        <v>1</v>
+      </c>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="105"/>
     </row>
     <row r="53" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A53" s="107"/>
+      <c r="A53" s="110"/>
       <c r="B53" s="1">
         <v>52</v>
       </c>
@@ -3207,15 +3244,15 @@
       <c r="D53" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="E53" s="68">
-        <v>1</v>
-      </c>
-      <c r="F53" s="89"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="89"/>
+      <c r="E53" s="66">
+        <v>1</v>
+      </c>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="105"/>
     </row>
     <row r="54" spans="1:8" ht="18">
-      <c r="A54" s="107"/>
+      <c r="A54" s="110"/>
       <c r="B54" s="1">
         <v>53</v>
       </c>
@@ -3226,18 +3263,18 @@
       <c r="E54" s="13">
         <v>2</v>
       </c>
-      <c r="F54" s="86" t="s">
+      <c r="F54" s="95" t="s">
         <v>218</v>
       </c>
-      <c r="G54" s="86">
+      <c r="G54" s="95">
         <v>5</v>
       </c>
-      <c r="H54" s="87" t="s">
-        <v>255</v>
+      <c r="H54" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18">
-      <c r="A55" s="107"/>
+      <c r="A55" s="110"/>
       <c r="B55" s="1">
         <v>54</v>
       </c>
@@ -3248,12 +3285,12 @@
       <c r="E55" s="13">
         <v>1</v>
       </c>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="87"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="105"/>
     </row>
     <row r="56" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A56" s="107"/>
+      <c r="A56" s="110"/>
       <c r="B56" s="1">
         <v>55</v>
       </c>
@@ -3266,12 +3303,12 @@
       <c r="E56" s="13">
         <v>2</v>
       </c>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="87"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="105"/>
     </row>
     <row r="57" spans="1:8" ht="18">
-      <c r="A57" s="107"/>
+      <c r="A57" s="110"/>
       <c r="B57" s="1">
         <v>56</v>
       </c>
@@ -3284,18 +3321,18 @@
       <c r="E57" s="13">
         <v>2</v>
       </c>
-      <c r="F57" s="86" t="s">
+      <c r="F57" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="G57" s="86">
+      <c r="G57" s="95">
         <v>3</v>
       </c>
-      <c r="H57" s="87" t="s">
-        <v>255</v>
+      <c r="H57" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A58" s="107"/>
+      <c r="A58" s="110"/>
       <c r="B58" s="1">
         <v>57</v>
       </c>
@@ -3308,12 +3345,12 @@
       <c r="E58" s="13">
         <v>1</v>
       </c>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="87"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="105"/>
     </row>
     <row r="59" spans="1:8" ht="18">
-      <c r="A59" s="107"/>
+      <c r="A59" s="110"/>
       <c r="B59" s="1">
         <v>58</v>
       </c>
@@ -3326,18 +3363,18 @@
       <c r="E59" s="13">
         <v>1</v>
       </c>
-      <c r="F59" s="86" t="s">
+      <c r="F59" s="95" t="s">
         <v>220</v>
       </c>
-      <c r="G59" s="86">
+      <c r="G59" s="95">
         <v>4</v>
       </c>
-      <c r="H59" s="87" t="s">
-        <v>255</v>
+      <c r="H59" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18">
-      <c r="A60" s="107"/>
+      <c r="A60" s="110"/>
       <c r="B60" s="1">
         <v>59</v>
       </c>
@@ -3350,12 +3387,12 @@
       <c r="E60" s="13">
         <v>1</v>
       </c>
-      <c r="F60" s="86"/>
-      <c r="G60" s="86"/>
-      <c r="H60" s="87"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="95"/>
+      <c r="H60" s="105"/>
     </row>
     <row r="61" spans="1:8" ht="18">
-      <c r="A61" s="107"/>
+      <c r="A61" s="110"/>
       <c r="B61" s="1">
         <v>60</v>
       </c>
@@ -3368,12 +3405,12 @@
       <c r="E61" s="13">
         <v>1</v>
       </c>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="87"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="105"/>
     </row>
     <row r="62" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A62" s="107"/>
+      <c r="A62" s="110"/>
       <c r="B62" s="1">
         <v>61</v>
       </c>
@@ -3386,12 +3423,12 @@
       <c r="E62" s="52">
         <v>1</v>
       </c>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="87"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="95"/>
+      <c r="H62" s="105"/>
     </row>
     <row r="63" spans="1:8" ht="18">
-      <c r="A63" s="107"/>
+      <c r="A63" s="110"/>
       <c r="B63" s="1">
         <v>62</v>
       </c>
@@ -3399,21 +3436,21 @@
       <c r="D63" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="E63" s="71">
-        <v>1</v>
-      </c>
-      <c r="F63" s="112" t="s">
+      <c r="E63" s="80">
+        <v>1</v>
+      </c>
+      <c r="F63" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="G63" s="90">
+      <c r="G63" s="95">
         <v>4</v>
       </c>
-      <c r="H63" s="90" t="s">
-        <v>256</v>
+      <c r="H63" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A64" s="107"/>
+      <c r="A64" s="110"/>
       <c r="B64" s="1">
         <v>63</v>
       </c>
@@ -3423,15 +3460,15 @@
       <c r="D64" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="72">
-        <v>1</v>
-      </c>
-      <c r="F64" s="113"/>
-      <c r="G64" s="91"/>
-      <c r="H64" s="91"/>
+      <c r="E64" s="81">
+        <v>1</v>
+      </c>
+      <c r="F64" s="102"/>
+      <c r="G64" s="95"/>
+      <c r="H64" s="105"/>
     </row>
     <row r="65" spans="1:10" ht="18">
-      <c r="A65" s="107"/>
+      <c r="A65" s="110"/>
       <c r="B65" s="1">
         <v>64</v>
       </c>
@@ -3441,21 +3478,15 @@
       <c r="D65" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="71">
-        <v>1</v>
-      </c>
-      <c r="F65" s="112" t="s">
-        <v>222</v>
-      </c>
-      <c r="G65" s="90">
-        <v>4</v>
-      </c>
-      <c r="H65" s="90" t="s">
-        <v>256</v>
-      </c>
+      <c r="E65" s="80">
+        <v>1</v>
+      </c>
+      <c r="F65" s="102"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="105"/>
     </row>
     <row r="66" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A66" s="107"/>
+      <c r="A66" s="110"/>
       <c r="B66" s="1">
         <v>65</v>
       </c>
@@ -3465,15 +3496,15 @@
       <c r="D66" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="72">
-        <v>1</v>
-      </c>
-      <c r="F66" s="113"/>
-      <c r="G66" s="91"/>
-      <c r="H66" s="91"/>
+      <c r="E66" s="81">
+        <v>1</v>
+      </c>
+      <c r="F66" s="103"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="105"/>
     </row>
     <row r="67" spans="1:10" ht="18">
-      <c r="A67" s="107"/>
+      <c r="A67" s="110"/>
       <c r="B67" s="1">
         <v>66</v>
       </c>
@@ -3483,23 +3514,23 @@
       <c r="D67" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="70">
-        <v>1</v>
-      </c>
-      <c r="F67" s="86" t="s">
-        <v>223</v>
-      </c>
-      <c r="G67" s="86">
+      <c r="E67" s="68">
+        <v>1</v>
+      </c>
+      <c r="F67" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="G67" s="95">
         <v>4</v>
       </c>
-      <c r="H67" s="87" t="s">
-        <v>255</v>
+      <c r="H67" s="105" t="s">
+        <v>252</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" ht="18">
-      <c r="A68" s="107"/>
+      <c r="A68" s="110"/>
       <c r="B68" s="1">
         <v>67</v>
       </c>
@@ -3510,14 +3541,14 @@
       <c r="E68" s="13">
         <v>1</v>
       </c>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="87"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="105"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:10" ht="18">
-      <c r="A69" s="107"/>
+      <c r="A69" s="110"/>
       <c r="B69" s="1">
         <v>68</v>
       </c>
@@ -3528,14 +3559,14 @@
       <c r="E69" s="13">
         <v>1</v>
       </c>
-      <c r="F69" s="86"/>
-      <c r="G69" s="86"/>
-      <c r="H69" s="87"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="105"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A70" s="107"/>
+      <c r="A70" s="110"/>
       <c r="B70" s="1">
         <v>69</v>
       </c>
@@ -3548,14 +3579,14 @@
       <c r="E70" s="13">
         <v>1</v>
       </c>
-      <c r="F70" s="86"/>
-      <c r="G70" s="86"/>
-      <c r="H70" s="87"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="95"/>
+      <c r="H70" s="105"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="1:10" ht="18">
-      <c r="A71" s="107"/>
+      <c r="A71" s="110"/>
       <c r="B71" s="1">
         <v>70</v>
       </c>
@@ -3568,20 +3599,20 @@
       <c r="E71" s="13">
         <v>1</v>
       </c>
-      <c r="F71" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="G71" s="86" t="s">
-        <v>238</v>
-      </c>
-      <c r="H71" s="87" t="s">
-        <v>238</v>
+      <c r="F71" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="G71" s="95">
+        <v>4</v>
+      </c>
+      <c r="H71" s="105" t="s">
+        <v>252</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" ht="18">
-      <c r="A72" s="107"/>
+      <c r="A72" s="110"/>
       <c r="B72" s="1">
         <v>71</v>
       </c>
@@ -3594,14 +3625,14 @@
       <c r="E72" s="13">
         <v>1</v>
       </c>
-      <c r="F72" s="86"/>
-      <c r="G72" s="86"/>
-      <c r="H72" s="87"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="95"/>
+      <c r="H72" s="105"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="18">
-      <c r="A73" s="107"/>
+      <c r="A73" s="110"/>
       <c r="B73" s="1">
         <v>72</v>
       </c>
@@ -3612,14 +3643,14 @@
       <c r="E73" s="13">
         <v>1</v>
       </c>
-      <c r="F73" s="86"/>
-      <c r="G73" s="86"/>
-      <c r="H73" s="87"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="95"/>
+      <c r="H73" s="105"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A74" s="109"/>
+      <c r="A74" s="112"/>
       <c r="B74" s="1">
         <v>73</v>
       </c>
@@ -3632,14 +3663,14 @@
       <c r="E74" s="13">
         <v>1</v>
       </c>
-      <c r="F74" s="86"/>
-      <c r="G74" s="86"/>
-      <c r="H74" s="87"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="105"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="1:10" ht="18">
-      <c r="A75" s="106" t="s">
+      <c r="A75" s="109" t="s">
         <v>142</v>
       </c>
       <c r="B75" s="1">
@@ -3654,20 +3685,20 @@
       <c r="E75" s="13">
         <v>1</v>
       </c>
-      <c r="F75" s="86" t="s">
-        <v>225</v>
-      </c>
-      <c r="G75" s="86">
+      <c r="F75" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="G75" s="95">
         <v>4</v>
       </c>
-      <c r="H75" s="87" t="s">
-        <v>255</v>
+      <c r="H75" s="105" t="s">
+        <v>252</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="1:10" ht="18">
-      <c r="A76" s="107"/>
+      <c r="A76" s="110"/>
       <c r="B76" s="1">
         <v>75</v>
       </c>
@@ -3678,12 +3709,12 @@
       <c r="E76" s="13">
         <v>1</v>
       </c>
-      <c r="F76" s="86"/>
-      <c r="G76" s="86"/>
-      <c r="H76" s="87"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="95"/>
+      <c r="H76" s="105"/>
     </row>
     <row r="77" spans="1:10" ht="18">
-      <c r="A77" s="107"/>
+      <c r="A77" s="110"/>
       <c r="B77" s="1">
         <v>76</v>
       </c>
@@ -3696,12 +3727,12 @@
       <c r="E77" s="13">
         <v>1</v>
       </c>
-      <c r="F77" s="86"/>
-      <c r="G77" s="86"/>
-      <c r="H77" s="87"/>
+      <c r="F77" s="95"/>
+      <c r="G77" s="95"/>
+      <c r="H77" s="105"/>
     </row>
     <row r="78" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A78" s="107"/>
+      <c r="A78" s="110"/>
       <c r="B78" s="1">
         <v>77</v>
       </c>
@@ -3712,12 +3743,12 @@
       <c r="E78" s="13">
         <v>1</v>
       </c>
-      <c r="F78" s="86"/>
-      <c r="G78" s="86"/>
-      <c r="H78" s="87"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="105"/>
     </row>
     <row r="79" spans="1:10" ht="18">
-      <c r="A79" s="107"/>
+      <c r="A79" s="110"/>
       <c r="B79" s="1">
         <v>78</v>
       </c>
@@ -3730,18 +3761,18 @@
       <c r="E79" s="13">
         <v>2</v>
       </c>
-      <c r="F79" s="86" t="s">
-        <v>226</v>
-      </c>
-      <c r="G79" s="86">
+      <c r="F79" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="G79" s="95">
         <v>4</v>
       </c>
-      <c r="H79" s="87" t="s">
-        <v>255</v>
+      <c r="H79" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="18">
-      <c r="A80" s="107"/>
+      <c r="A80" s="110"/>
       <c r="B80" s="1">
         <v>79</v>
       </c>
@@ -3754,12 +3785,12 @@
       <c r="E80" s="13">
         <v>1</v>
       </c>
-      <c r="F80" s="86"/>
-      <c r="G80" s="86"/>
-      <c r="H80" s="87"/>
+      <c r="F80" s="95"/>
+      <c r="G80" s="95"/>
+      <c r="H80" s="105"/>
     </row>
     <row r="81" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A81" s="107"/>
+      <c r="A81" s="110"/>
       <c r="B81" s="1">
         <v>80</v>
       </c>
@@ -3772,12 +3803,12 @@
       <c r="E81" s="13">
         <v>1</v>
       </c>
-      <c r="F81" s="86"/>
-      <c r="G81" s="86"/>
-      <c r="H81" s="87"/>
+      <c r="F81" s="95"/>
+      <c r="G81" s="95"/>
+      <c r="H81" s="105"/>
     </row>
     <row r="82" spans="1:15" ht="18">
-      <c r="A82" s="107"/>
+      <c r="A82" s="110"/>
       <c r="B82" s="1">
         <v>81</v>
       </c>
@@ -3790,18 +3821,18 @@
       <c r="E82" s="13">
         <v>2</v>
       </c>
-      <c r="F82" s="86" t="s">
-        <v>227</v>
-      </c>
-      <c r="G82" s="86">
+      <c r="F82" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="G82" s="95">
         <v>4</v>
       </c>
-      <c r="H82" s="87" t="s">
-        <v>255</v>
+      <c r="H82" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A83" s="107"/>
+      <c r="A83" s="110"/>
       <c r="B83" s="1">
         <v>82</v>
       </c>
@@ -3814,12 +3845,12 @@
       <c r="E83" s="13">
         <v>2</v>
       </c>
-      <c r="F83" s="86"/>
-      <c r="G83" s="86"/>
-      <c r="H83" s="87"/>
+      <c r="F83" s="95"/>
+      <c r="G83" s="95"/>
+      <c r="H83" s="105"/>
     </row>
     <row r="84" spans="1:15" ht="18">
-      <c r="A84" s="107"/>
+      <c r="A84" s="110"/>
       <c r="B84" s="1">
         <v>83</v>
       </c>
@@ -3832,18 +3863,18 @@
       <c r="E84" s="13">
         <v>1</v>
       </c>
-      <c r="F84" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="G84" s="86">
+      <c r="F84" s="95" t="s">
+        <v>227</v>
+      </c>
+      <c r="G84" s="95">
         <v>4</v>
       </c>
-      <c r="H84" s="87" t="s">
-        <v>255</v>
+      <c r="H84" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="18">
-      <c r="A85" s="107"/>
+      <c r="A85" s="110"/>
       <c r="B85" s="1">
         <v>84</v>
       </c>
@@ -3854,12 +3885,12 @@
       <c r="E85" s="13">
         <v>2</v>
       </c>
-      <c r="F85" s="86"/>
-      <c r="G85" s="86"/>
-      <c r="H85" s="87"/>
+      <c r="F85" s="95"/>
+      <c r="G85" s="95"/>
+      <c r="H85" s="105"/>
     </row>
     <row r="86" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A86" s="107"/>
+      <c r="A86" s="110"/>
       <c r="B86" s="1">
         <v>85</v>
       </c>
@@ -3872,12 +3903,12 @@
       <c r="E86" s="13">
         <v>1</v>
       </c>
-      <c r="F86" s="86"/>
-      <c r="G86" s="86"/>
-      <c r="H86" s="87"/>
+      <c r="F86" s="95"/>
+      <c r="G86" s="95"/>
+      <c r="H86" s="105"/>
     </row>
     <row r="87" spans="1:15" ht="18">
-      <c r="A87" s="107"/>
+      <c r="A87" s="110"/>
       <c r="B87" s="1">
         <v>86</v>
       </c>
@@ -3890,18 +3921,18 @@
       <c r="E87" s="13">
         <v>1</v>
       </c>
-      <c r="F87" s="86" t="s">
-        <v>229</v>
-      </c>
-      <c r="G87" s="86">
+      <c r="F87" s="95" t="s">
+        <v>228</v>
+      </c>
+      <c r="G87" s="95">
         <v>4</v>
       </c>
-      <c r="H87" s="87" t="s">
-        <v>255</v>
+      <c r="H87" s="105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="18">
-      <c r="A88" s="107"/>
+      <c r="A88" s="110"/>
       <c r="B88" s="1">
         <v>87</v>
       </c>
@@ -3914,12 +3945,12 @@
       <c r="E88" s="13">
         <v>1</v>
       </c>
-      <c r="F88" s="86"/>
-      <c r="G88" s="86"/>
-      <c r="H88" s="87"/>
+      <c r="F88" s="95"/>
+      <c r="G88" s="95"/>
+      <c r="H88" s="105"/>
     </row>
     <row r="89" spans="1:15" ht="18">
-      <c r="A89" s="107"/>
+      <c r="A89" s="110"/>
       <c r="B89" s="1">
         <v>88</v>
       </c>
@@ -3932,12 +3963,12 @@
       <c r="E89" s="13">
         <v>1</v>
       </c>
-      <c r="F89" s="86"/>
-      <c r="G89" s="86"/>
-      <c r="H89" s="87"/>
+      <c r="F89" s="95"/>
+      <c r="G89" s="95"/>
+      <c r="H89" s="105"/>
     </row>
     <row r="90" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A90" s="107"/>
+      <c r="A90" s="110"/>
       <c r="B90" s="1">
         <v>89</v>
       </c>
@@ -3950,12 +3981,12 @@
       <c r="E90" s="13">
         <v>1</v>
       </c>
-      <c r="F90" s="86"/>
-      <c r="G90" s="86"/>
-      <c r="H90" s="87"/>
+      <c r="F90" s="95"/>
+      <c r="G90" s="95"/>
+      <c r="H90" s="105"/>
     </row>
     <row r="91" spans="1:15" ht="18">
-      <c r="A91" s="107"/>
+      <c r="A91" s="110"/>
       <c r="B91" s="1">
         <v>90</v>
       </c>
@@ -3968,24 +3999,24 @@
       <c r="E91" s="13">
         <v>2</v>
       </c>
-      <c r="F91" s="89" t="s">
-        <v>230</v>
-      </c>
-      <c r="G91" s="89">
+      <c r="F91" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="G91" s="96">
         <v>6</v>
       </c>
-      <c r="H91" s="89" t="s">
-        <v>256</v>
+      <c r="H91" s="127" t="s">
+        <v>257</v>
       </c>
       <c r="J91" t="s">
-        <v>246</v>
-      </c>
-      <c r="K91" s="76" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="K91" s="72" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="18">
-      <c r="A92" s="107"/>
+      <c r="A92" s="110"/>
       <c r="B92" s="1">
         <v>91</v>
       </c>
@@ -3998,18 +4029,18 @@
       <c r="E92" s="13">
         <v>1</v>
       </c>
-      <c r="F92" s="89"/>
-      <c r="G92" s="89"/>
-      <c r="H92" s="89"/>
+      <c r="F92" s="104"/>
+      <c r="G92" s="96"/>
+      <c r="H92" s="127"/>
       <c r="J92" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K92" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A93" s="107"/>
+      <c r="A93" s="110"/>
       <c r="B93" s="1">
         <v>92</v>
       </c>
@@ -4022,18 +4053,18 @@
       <c r="E93" s="13">
         <v>1</v>
       </c>
-      <c r="F93" s="89"/>
-      <c r="G93" s="89"/>
-      <c r="H93" s="89"/>
+      <c r="F93" s="104"/>
+      <c r="G93" s="96"/>
+      <c r="H93" s="127"/>
       <c r="J93" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K93" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="18">
-      <c r="A94" s="107"/>
+      <c r="A94" s="110"/>
       <c r="B94" s="1">
         <v>93</v>
       </c>
@@ -4046,21 +4077,17 @@
       <c r="E94" s="13">
         <v>1</v>
       </c>
-      <c r="F94" s="86" t="s">
-        <v>237</v>
-      </c>
-      <c r="G94" s="86" t="s">
-        <v>238</v>
-      </c>
-      <c r="H94" s="86" t="s">
-        <v>238</v>
-      </c>
+      <c r="F94" s="95" t="s">
+        <v>236</v>
+      </c>
+      <c r="G94" s="97"/>
+      <c r="H94" s="128"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
@@ -4068,7 +4095,7 @@
       <c r="O94" s="5"/>
     </row>
     <row r="95" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A95" s="109"/>
+      <c r="A95" s="112"/>
       <c r="B95" s="1">
         <v>94</v>
       </c>
@@ -4079,15 +4106,15 @@
       <c r="E95" s="13">
         <v>1</v>
       </c>
-      <c r="F95" s="86"/>
-      <c r="G95" s="86"/>
-      <c r="H95" s="86"/>
+      <c r="F95" s="95"/>
+      <c r="G95" s="97"/>
+      <c r="H95" s="128"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K95" s="57" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
@@ -4095,7 +4122,7 @@
       <c r="O95" s="5"/>
     </row>
     <row r="96" spans="1:15" ht="18">
-      <c r="A96" s="106" t="s">
+      <c r="A96" s="109" t="s">
         <v>143</v>
       </c>
       <c r="B96" s="1">
@@ -4110,21 +4137,21 @@
       <c r="E96" s="13">
         <v>1</v>
       </c>
-      <c r="F96" s="86" t="s">
-        <v>231</v>
-      </c>
-      <c r="G96" s="86">
+      <c r="F96" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="G96" s="95">
         <v>4</v>
       </c>
-      <c r="H96" s="87" t="s">
-        <v>255</v>
+      <c r="H96" s="105" t="s">
+        <v>252</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K96" s="57" t="s">
         <v>243</v>
-      </c>
-      <c r="K96" s="57" t="s">
-        <v>245</v>
       </c>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
@@ -4132,7 +4159,7 @@
       <c r="O96" s="5"/>
     </row>
     <row r="97" spans="1:15" ht="18">
-      <c r="A97" s="107"/>
+      <c r="A97" s="110"/>
       <c r="B97" s="1">
         <v>96</v>
       </c>
@@ -4145,9 +4172,9 @@
       <c r="E97" s="13">
         <v>1</v>
       </c>
-      <c r="F97" s="86"/>
-      <c r="G97" s="86"/>
-      <c r="H97" s="87"/>
+      <c r="F97" s="95"/>
+      <c r="G97" s="95"/>
+      <c r="H97" s="105"/>
       <c r="I97" s="5"/>
       <c r="J97" s="4"/>
       <c r="K97" s="57"/>
@@ -4157,7 +4184,7 @@
       <c r="O97" s="5"/>
     </row>
     <row r="98" spans="1:15" ht="18">
-      <c r="A98" s="107"/>
+      <c r="A98" s="110"/>
       <c r="B98" s="1">
         <v>97</v>
       </c>
@@ -4170,9 +4197,9 @@
       <c r="E98" s="13">
         <v>1</v>
       </c>
-      <c r="F98" s="86"/>
-      <c r="G98" s="86"/>
-      <c r="H98" s="87"/>
+      <c r="F98" s="95"/>
+      <c r="G98" s="95"/>
+      <c r="H98" s="105"/>
       <c r="I98" s="5"/>
       <c r="J98" s="4"/>
       <c r="K98" s="57"/>
@@ -4182,7 +4209,7 @@
       <c r="O98" s="5"/>
     </row>
     <row r="99" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A99" s="107"/>
+      <c r="A99" s="110"/>
       <c r="B99" s="1">
         <v>98</v>
       </c>
@@ -4195,9 +4222,9 @@
       <c r="E99" s="13">
         <v>1</v>
       </c>
-      <c r="F99" s="86"/>
-      <c r="G99" s="86"/>
-      <c r="H99" s="87"/>
+      <c r="F99" s="95"/>
+      <c r="G99" s="95"/>
+      <c r="H99" s="105"/>
       <c r="I99" s="5"/>
       <c r="J99" s="4"/>
       <c r="K99" s="57"/>
@@ -4207,7 +4234,7 @@
       <c r="O99" s="5"/>
     </row>
     <row r="100" spans="1:15" ht="18">
-      <c r="A100" s="107"/>
+      <c r="A100" s="110"/>
       <c r="B100" s="1">
         <v>99</v>
       </c>
@@ -4220,14 +4247,14 @@
       <c r="E100" s="13">
         <v>1</v>
       </c>
-      <c r="F100" s="86" t="s">
-        <v>232</v>
-      </c>
-      <c r="G100" s="86">
+      <c r="F100" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="G100" s="95">
         <v>4</v>
       </c>
-      <c r="H100" s="87" t="s">
-        <v>255</v>
+      <c r="H100" s="105" t="s">
+        <v>252</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="4"/>
@@ -4238,7 +4265,7 @@
       <c r="O100" s="5"/>
     </row>
     <row r="101" spans="1:15" ht="18">
-      <c r="A101" s="107"/>
+      <c r="A101" s="110"/>
       <c r="B101" s="1">
         <v>100</v>
       </c>
@@ -4251,9 +4278,9 @@
       <c r="E101" s="13">
         <v>1</v>
       </c>
-      <c r="F101" s="86"/>
-      <c r="G101" s="86"/>
-      <c r="H101" s="87"/>
+      <c r="F101" s="95"/>
+      <c r="G101" s="95"/>
+      <c r="H101" s="105"/>
       <c r="I101" s="5"/>
       <c r="J101" s="4"/>
       <c r="K101" s="57"/>
@@ -4263,7 +4290,7 @@
       <c r="O101" s="5"/>
     </row>
     <row r="102" spans="1:15" ht="18">
-      <c r="A102" s="107"/>
+      <c r="A102" s="110"/>
       <c r="B102" s="1">
         <v>101</v>
       </c>
@@ -4276,9 +4303,9 @@
       <c r="E102" s="13">
         <v>1</v>
       </c>
-      <c r="F102" s="86"/>
-      <c r="G102" s="86"/>
-      <c r="H102" s="87"/>
+      <c r="F102" s="95"/>
+      <c r="G102" s="95"/>
+      <c r="H102" s="105"/>
       <c r="I102" s="4"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -4288,7 +4315,7 @@
       <c r="O102" s="5"/>
     </row>
     <row r="103" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A103" s="107"/>
+      <c r="A103" s="110"/>
       <c r="B103" s="1">
         <v>102</v>
       </c>
@@ -4301,9 +4328,9 @@
       <c r="E103" s="13">
         <v>1</v>
       </c>
-      <c r="F103" s="86"/>
-      <c r="G103" s="86"/>
-      <c r="H103" s="87"/>
+      <c r="F103" s="95"/>
+      <c r="G103" s="95"/>
+      <c r="H103" s="105"/>
       <c r="I103" s="4"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -4313,7 +4340,7 @@
       <c r="O103" s="5"/>
     </row>
     <row r="104" spans="1:15" ht="18">
-      <c r="A104" s="107"/>
+      <c r="A104" s="110"/>
       <c r="B104" s="1">
         <v>103</v>
       </c>
@@ -4326,14 +4353,14 @@
       <c r="E104" s="13">
         <v>1</v>
       </c>
-      <c r="F104" s="86" t="s">
-        <v>233</v>
-      </c>
-      <c r="G104" s="86">
+      <c r="F104" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="G104" s="95">
         <v>5</v>
       </c>
-      <c r="H104" s="87" t="s">
-        <v>255</v>
+      <c r="H104" s="105" t="s">
+        <v>252</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="5"/>
@@ -4344,7 +4371,7 @@
       <c r="O104" s="5"/>
     </row>
     <row r="105" spans="1:15" ht="18">
-      <c r="A105" s="107"/>
+      <c r="A105" s="110"/>
       <c r="B105" s="1">
         <v>104</v>
       </c>
@@ -4355,9 +4382,9 @@
       <c r="E105" s="13">
         <v>1</v>
       </c>
-      <c r="F105" s="86"/>
-      <c r="G105" s="86"/>
-      <c r="H105" s="87"/>
+      <c r="F105" s="95"/>
+      <c r="G105" s="95"/>
+      <c r="H105" s="105"/>
       <c r="I105" s="4"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
@@ -4367,7 +4394,7 @@
       <c r="O105" s="5"/>
     </row>
     <row r="106" spans="1:15" ht="18">
-      <c r="A106" s="107"/>
+      <c r="A106" s="110"/>
       <c r="B106" s="1">
         <v>105</v>
       </c>
@@ -4380,9 +4407,9 @@
       <c r="E106" s="13">
         <v>2</v>
       </c>
-      <c r="F106" s="86"/>
-      <c r="G106" s="86"/>
-      <c r="H106" s="87"/>
+      <c r="F106" s="95"/>
+      <c r="G106" s="95"/>
+      <c r="H106" s="105"/>
       <c r="I106" s="4"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
@@ -4392,7 +4419,7 @@
       <c r="O106" s="5"/>
     </row>
     <row r="107" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A107" s="109"/>
+      <c r="A107" s="112"/>
       <c r="B107" s="1">
         <v>106</v>
       </c>
@@ -4405,9 +4432,9 @@
       <c r="E107" s="13">
         <v>1</v>
       </c>
-      <c r="F107" s="86"/>
-      <c r="G107" s="86"/>
-      <c r="H107" s="87"/>
+      <c r="F107" s="95"/>
+      <c r="G107" s="95"/>
+      <c r="H107" s="105"/>
       <c r="I107" s="4"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
@@ -4417,7 +4444,7 @@
       <c r="O107" s="5"/>
     </row>
     <row r="108" spans="1:15" ht="18">
-      <c r="A108" s="106" t="s">
+      <c r="A108" s="109" t="s">
         <v>144</v>
       </c>
       <c r="B108" s="1">
@@ -4445,7 +4472,7 @@
       <c r="O108" s="5"/>
     </row>
     <row r="109" spans="1:15" ht="18" customHeight="1">
-      <c r="A109" s="107"/>
+      <c r="A109" s="110"/>
       <c r="B109" s="1">
         <v>108</v>
       </c>
@@ -4471,7 +4498,7 @@
       <c r="O109" s="5"/>
     </row>
     <row r="110" spans="1:15" ht="18">
-      <c r="A110" s="107"/>
+      <c r="A110" s="110"/>
       <c r="B110" s="1">
         <v>109</v>
       </c>
@@ -4490,7 +4517,7 @@
       <c r="H110" s="59"/>
     </row>
     <row r="111" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A111" s="107"/>
+      <c r="A111" s="110"/>
       <c r="B111" s="1">
         <v>110</v>
       </c>
@@ -4509,7 +4536,7 @@
       <c r="H111" s="59"/>
     </row>
     <row r="112" spans="1:15" ht="18">
-      <c r="A112" s="107"/>
+      <c r="A112" s="110"/>
       <c r="B112" s="1">
         <v>111</v>
       </c>
@@ -4528,7 +4555,7 @@
       <c r="H112" s="59"/>
     </row>
     <row r="113" spans="1:8" ht="18">
-      <c r="A113" s="107"/>
+      <c r="A113" s="110"/>
       <c r="B113" s="1">
         <v>112</v>
       </c>
@@ -4547,7 +4574,7 @@
       <c r="H113" s="59"/>
     </row>
     <row r="114" spans="1:8" ht="18">
-      <c r="A114" s="107"/>
+      <c r="A114" s="110"/>
       <c r="B114" s="1">
         <v>113</v>
       </c>
@@ -4566,7 +4593,7 @@
       <c r="H114" s="59"/>
     </row>
     <row r="115" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A115" s="107"/>
+      <c r="A115" s="110"/>
       <c r="B115" s="1">
         <v>114</v>
       </c>
@@ -4593,8 +4620,8 @@
       </c>
       <c r="H116" s="59"/>
     </row>
-    <row r="117" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A117" s="103" t="s">
+    <row r="117" spans="1:8" ht="18">
+      <c r="A117" s="106" t="s">
         <v>145</v>
       </c>
       <c r="B117" s="1">
@@ -4606,21 +4633,21 @@
       <c r="D117" s="42">
         <v>0</v>
       </c>
-      <c r="E117" s="68">
-        <v>1</v>
-      </c>
-      <c r="F117" s="114" t="s">
-        <v>234</v>
-      </c>
-      <c r="G117" s="88">
+      <c r="E117" s="66">
+        <v>1</v>
+      </c>
+      <c r="F117" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="G117" s="98">
         <v>6</v>
       </c>
-      <c r="H117" s="88" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A118" s="104"/>
+      <c r="H117" s="125" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="18" customHeight="1">
+      <c r="A118" s="107"/>
       <c r="B118" s="1">
         <v>109</v>
       </c>
@@ -4630,15 +4657,15 @@
       <c r="D118" s="43">
         <v>1</v>
       </c>
-      <c r="E118" s="68">
-        <v>1</v>
-      </c>
-      <c r="F118" s="111"/>
-      <c r="G118" s="84"/>
-      <c r="H118" s="84"/>
-    </row>
-    <row r="119" spans="1:8" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A119" s="104"/>
+      <c r="E118" s="66">
+        <v>1</v>
+      </c>
+      <c r="F118" s="87"/>
+      <c r="G118" s="87"/>
+      <c r="H118" s="90"/>
+    </row>
+    <row r="119" spans="1:8" ht="18">
+      <c r="A119" s="107"/>
       <c r="B119" s="1">
         <v>110</v>
       </c>
@@ -4648,135 +4675,129 @@
       <c r="D119" s="43">
         <v>2</v>
       </c>
-      <c r="E119" s="68">
-        <v>1</v>
-      </c>
-      <c r="F119" s="111"/>
-      <c r="G119" s="84"/>
-      <c r="H119" s="84"/>
-    </row>
-    <row r="120" spans="1:8" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A120" s="104"/>
+      <c r="E119" s="66">
+        <v>1</v>
+      </c>
+      <c r="F119" s="87"/>
+      <c r="G119" s="87"/>
+      <c r="H119" s="90"/>
+    </row>
+    <row r="120" spans="1:8" ht="18">
+      <c r="A120" s="107"/>
       <c r="B120" s="1">
         <v>111</v>
       </c>
       <c r="C120" s="3">
         <v>4</v>
       </c>
-      <c r="D120" s="44">
+      <c r="D120" s="43">
         <v>3</v>
       </c>
-      <c r="E120" s="68">
-        <v>1</v>
-      </c>
-      <c r="F120" s="111"/>
-      <c r="G120" s="84"/>
-      <c r="H120" s="84"/>
-    </row>
-    <row r="121" spans="1:8" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A121" s="104"/>
+      <c r="E120" s="66">
+        <v>1</v>
+      </c>
+      <c r="F120" s="87"/>
+      <c r="G120" s="87"/>
+      <c r="H120" s="90"/>
+    </row>
+    <row r="121" spans="1:8" ht="18">
+      <c r="A121" s="107"/>
       <c r="B121" s="1">
         <v>112</v>
       </c>
       <c r="C121" s="3">
         <v>5</v>
       </c>
-      <c r="D121" s="42">
+      <c r="D121" s="43">
         <v>4</v>
       </c>
-      <c r="E121" s="68">
-        <v>1</v>
-      </c>
-      <c r="F121" s="111" t="s">
-        <v>235</v>
-      </c>
-      <c r="G121" s="84">
-        <v>5</v>
-      </c>
-      <c r="H121" s="84" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A122" s="104"/>
+      <c r="E121" s="66">
+        <v>1</v>
+      </c>
+      <c r="F121" s="87"/>
+      <c r="G121" s="87"/>
+      <c r="H121" s="90"/>
+    </row>
+    <row r="122" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A122" s="107"/>
       <c r="B122" s="1">
         <v>113</v>
       </c>
       <c r="C122" s="3">
         <v>6</v>
       </c>
-      <c r="D122" s="43">
+      <c r="D122" s="51">
         <v>5</v>
       </c>
-      <c r="E122" s="68">
-        <v>1</v>
-      </c>
-      <c r="F122" s="111"/>
-      <c r="G122" s="84"/>
-      <c r="H122" s="84"/>
-    </row>
-    <row r="123" spans="1:8" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A123" s="104"/>
+      <c r="E122" s="66">
+        <v>1</v>
+      </c>
+      <c r="F122" s="99"/>
+      <c r="G122" s="99"/>
+      <c r="H122" s="126"/>
+    </row>
+    <row r="123" spans="1:8" ht="18.75" thickTop="1">
+      <c r="A123" s="107"/>
       <c r="B123" s="1">
         <v>114</v>
       </c>
       <c r="C123" s="3">
         <v>7</v>
       </c>
-      <c r="D123" s="43">
+      <c r="D123" s="42">
         <v>6</v>
       </c>
-      <c r="E123" s="68">
-        <v>1</v>
-      </c>
-      <c r="F123" s="111"/>
-      <c r="G123" s="84"/>
-      <c r="H123" s="84"/>
-    </row>
-    <row r="124" spans="1:8" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A124" s="104"/>
+      <c r="E123" s="66">
+        <v>1</v>
+      </c>
+      <c r="F123" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="G123" s="86">
+        <v>5</v>
+      </c>
+      <c r="H123" s="89" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="18">
+      <c r="A124" s="107"/>
       <c r="B124" s="1">
         <v>115</v>
       </c>
       <c r="C124" s="3">
         <v>8</v>
       </c>
-      <c r="D124" s="44">
+      <c r="D124" s="43">
         <v>7</v>
       </c>
-      <c r="E124" s="68">
-        <v>1</v>
-      </c>
-      <c r="F124" s="111"/>
-      <c r="G124" s="84"/>
-      <c r="H124" s="84"/>
-    </row>
-    <row r="125" spans="1:8" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A125" s="104"/>
+      <c r="E124" s="66">
+        <v>1</v>
+      </c>
+      <c r="F124" s="87"/>
+      <c r="G124" s="87"/>
+      <c r="H124" s="90"/>
+    </row>
+    <row r="125" spans="1:8" ht="18">
+      <c r="A125" s="107"/>
       <c r="B125" s="1">
         <v>116</v>
       </c>
       <c r="C125" s="3">
         <v>9</v>
       </c>
-      <c r="D125" s="42">
+      <c r="D125" s="43">
         <v>8</v>
       </c>
-      <c r="E125" s="68">
-        <v>1</v>
-      </c>
-      <c r="F125" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="G125" s="84">
-        <v>5</v>
-      </c>
-      <c r="H125" s="84" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="19.5" thickTop="1" thickBot="1">
-      <c r="A126" s="104"/>
+      <c r="E125" s="66">
+        <v>1</v>
+      </c>
+      <c r="F125" s="87"/>
+      <c r="G125" s="87"/>
+      <c r="H125" s="90"/>
+    </row>
+    <row r="126" spans="1:8" ht="18">
+      <c r="A126" s="107"/>
       <c r="B126" s="1">
         <v>117</v>
       </c>
@@ -4786,75 +4807,116 @@
       <c r="D126" s="43">
         <v>9</v>
       </c>
-      <c r="E126" s="68">
-        <v>1</v>
-      </c>
-      <c r="F126" s="111"/>
-      <c r="G126" s="84"/>
-      <c r="H126" s="84"/>
-    </row>
-    <row r="127" spans="1:8" ht="18.75" thickTop="1">
-      <c r="A127" s="104"/>
+      <c r="E126" s="66">
+        <v>1</v>
+      </c>
+      <c r="F126" s="87"/>
+      <c r="G126" s="87"/>
+      <c r="H126" s="90"/>
+    </row>
+    <row r="127" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A127" s="107"/>
       <c r="B127" s="1">
         <v>118</v>
       </c>
       <c r="C127" s="3">
         <v>11</v>
       </c>
-      <c r="D127" s="51">
+      <c r="D127" s="44">
         <v>10</v>
       </c>
-      <c r="E127" s="69">
-        <v>1</v>
-      </c>
-      <c r="F127" s="115"/>
-      <c r="G127" s="85"/>
-      <c r="H127" s="85"/>
-    </row>
-    <row r="128" spans="1:8" ht="18">
+      <c r="E127" s="82">
+        <v>1</v>
+      </c>
+      <c r="F127" s="88"/>
+      <c r="G127" s="88"/>
+      <c r="H127" s="91"/>
+    </row>
+    <row r="128" spans="1:8" ht="18.75" thickTop="1">
       <c r="A128" s="55"/>
       <c r="B128" s="1"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="53"/>
-      <c r="E128" s="49"/>
-      <c r="H128" s="59"/>
+      <c r="C128" s="83">
+        <v>12</v>
+      </c>
+      <c r="D128" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="E128" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="F128" s="92" t="s">
+        <v>235</v>
+      </c>
+      <c r="G128" s="92">
+        <v>5</v>
+      </c>
+      <c r="H128" s="129" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="129" spans="1:8" ht="18">
       <c r="A129" s="55"/>
       <c r="B129" s="1"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="53"/>
-      <c r="E129" s="49"/>
-      <c r="F129" s="60"/>
-      <c r="H129" s="59"/>
+      <c r="C129" s="83">
+        <v>13</v>
+      </c>
+      <c r="D129" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="E129" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="F129" s="93"/>
+      <c r="G129" s="93"/>
+      <c r="H129" s="130"/>
     </row>
     <row r="130" spans="1:8" ht="18">
       <c r="A130" s="55"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="53"/>
-      <c r="E130" s="49"/>
-      <c r="F130" s="60"/>
-      <c r="H130" s="59"/>
+      <c r="C130" s="83">
+        <v>14</v>
+      </c>
+      <c r="D130" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="E130" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="F130" s="93"/>
+      <c r="G130" s="93"/>
+      <c r="H130" s="130"/>
     </row>
     <row r="131" spans="1:8" ht="18">
       <c r="A131" s="55"/>
       <c r="B131" s="1"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="53"/>
-      <c r="E131" s="49"/>
-      <c r="F131" s="60"/>
-      <c r="H131" s="59"/>
+      <c r="C131" s="83">
+        <v>15</v>
+      </c>
+      <c r="D131" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="E131" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="F131" s="93"/>
+      <c r="G131" s="93"/>
+      <c r="H131" s="130"/>
     </row>
     <row r="132" spans="1:8" ht="18">
       <c r="A132" s="55"/>
       <c r="B132" s="1"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="53"/>
-      <c r="E132" s="49"/>
-      <c r="F132" s="60"/>
-      <c r="G132" s="60"/>
-      <c r="H132" s="60"/>
+      <c r="C132" s="83">
+        <v>16</v>
+      </c>
+      <c r="D132" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="E132" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="F132" s="94"/>
+      <c r="G132" s="94"/>
+      <c r="H132" s="131"/>
     </row>
     <row r="133" spans="1:8" ht="18">
       <c r="A133" s="55"/>
@@ -5500,7 +5562,7 @@
       <c r="H196" s="7"/>
     </row>
     <row r="197" spans="1:8" ht="18">
-      <c r="A197" s="108"/>
+      <c r="A197" s="111"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="4"/>
@@ -5510,7 +5572,7 @@
       <c r="H197" s="7"/>
     </row>
     <row r="198" spans="1:8" ht="18">
-      <c r="A198" s="108"/>
+      <c r="A198" s="111"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="4"/>
@@ -5518,7 +5580,7 @@
       <c r="F198" s="61"/>
     </row>
     <row r="199" spans="1:8" ht="18">
-      <c r="A199" s="108"/>
+      <c r="A199" s="111"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
@@ -5526,7 +5588,7 @@
       <c r="F199" s="61"/>
     </row>
     <row r="200" spans="1:8" ht="18">
-      <c r="A200" s="108"/>
+      <c r="A200" s="111"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="4"/>
@@ -5534,7 +5596,7 @@
       <c r="F200" s="61"/>
     </row>
     <row r="201" spans="1:8" ht="18">
-      <c r="A201" s="108"/>
+      <c r="A201" s="111"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="4"/>
@@ -5542,7 +5604,7 @@
       <c r="F201" s="61"/>
     </row>
     <row r="202" spans="1:8" ht="18">
-      <c r="A202" s="108"/>
+      <c r="A202" s="111"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="4"/>
@@ -5550,7 +5612,7 @@
       <c r="F202" s="61"/>
     </row>
     <row r="203" spans="1:8" ht="18">
-      <c r="A203" s="108"/>
+      <c r="A203" s="111"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="4"/>
@@ -5558,7 +5620,7 @@
       <c r="F203" s="61"/>
     </row>
     <row r="204" spans="1:8" ht="18">
-      <c r="A204" s="108"/>
+      <c r="A204" s="111"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="4"/>
@@ -5566,7 +5628,7 @@
       <c r="F204" s="61"/>
     </row>
     <row r="205" spans="1:8" ht="18">
-      <c r="A205" s="108"/>
+      <c r="A205" s="111"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
@@ -5574,7 +5636,7 @@
       <c r="F205" s="61"/>
     </row>
     <row r="206" spans="1:8" ht="18">
-      <c r="A206" s="108"/>
+      <c r="A206" s="111"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="4"/>
@@ -5582,7 +5644,7 @@
       <c r="F206" s="61"/>
     </row>
     <row r="207" spans="1:8" ht="18">
-      <c r="A207" s="108"/>
+      <c r="A207" s="111"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="4"/>
@@ -5590,7 +5652,7 @@
       <c r="F207" s="61"/>
     </row>
     <row r="208" spans="1:8" ht="18">
-      <c r="A208" s="108"/>
+      <c r="A208" s="111"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="4"/>
@@ -5598,7 +5660,7 @@
       <c r="F208" s="61"/>
     </row>
     <row r="209" spans="1:6" ht="18">
-      <c r="A209" s="108"/>
+      <c r="A209" s="111"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="4"/>
@@ -5614,7 +5676,7 @@
       <c r="F210" s="61"/>
     </row>
     <row r="211" spans="1:6" ht="18">
-      <c r="A211" s="108"/>
+      <c r="A211" s="111"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="4"/>
@@ -5622,7 +5684,7 @@
       <c r="F211" s="61"/>
     </row>
     <row r="212" spans="1:6" ht="18">
-      <c r="A212" s="108"/>
+      <c r="A212" s="111"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="4"/>
@@ -5630,7 +5692,7 @@
       <c r="F212" s="61"/>
     </row>
     <row r="213" spans="1:6" ht="18">
-      <c r="A213" s="108"/>
+      <c r="A213" s="111"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="4"/>
@@ -5638,7 +5700,7 @@
       <c r="F213" s="61"/>
     </row>
     <row r="214" spans="1:6" ht="18">
-      <c r="A214" s="108"/>
+      <c r="A214" s="111"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="4"/>
@@ -5646,7 +5708,7 @@
       <c r="F214" s="61"/>
     </row>
     <row r="215" spans="1:6" ht="18">
-      <c r="A215" s="108"/>
+      <c r="A215" s="111"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="4"/>
@@ -5654,7 +5716,7 @@
       <c r="F215" s="61"/>
     </row>
     <row r="216" spans="1:6" ht="18">
-      <c r="A216" s="108"/>
+      <c r="A216" s="111"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="4"/>
@@ -5662,7 +5724,7 @@
       <c r="F216" s="61"/>
     </row>
     <row r="217" spans="1:6" ht="18">
-      <c r="A217" s="108"/>
+      <c r="A217" s="111"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="4"/>
@@ -5670,7 +5732,7 @@
       <c r="F217" s="61"/>
     </row>
     <row r="218" spans="1:6" ht="18">
-      <c r="A218" s="108"/>
+      <c r="A218" s="111"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="4"/>
@@ -5678,7 +5740,7 @@
       <c r="F218" s="61"/>
     </row>
     <row r="219" spans="1:6" ht="18">
-      <c r="A219" s="108"/>
+      <c r="A219" s="111"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="4"/>
@@ -5686,7 +5748,7 @@
       <c r="F219" s="61"/>
     </row>
     <row r="220" spans="1:6" ht="18">
-      <c r="A220" s="108"/>
+      <c r="A220" s="111"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="4"/>
@@ -5694,7 +5756,7 @@
       <c r="F220" s="61"/>
     </row>
     <row r="221" spans="1:6" ht="18">
-      <c r="A221" s="108"/>
+      <c r="A221" s="111"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="4"/>
@@ -5702,7 +5764,7 @@
       <c r="F221" s="61"/>
     </row>
     <row r="222" spans="1:6" ht="18">
-      <c r="A222" s="108"/>
+      <c r="A222" s="111"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="4"/>
@@ -5710,7 +5772,7 @@
       <c r="F222" s="61"/>
     </row>
     <row r="223" spans="1:6" ht="18">
-      <c r="A223" s="108"/>
+      <c r="A223" s="111"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="4"/>
@@ -5718,7 +5780,7 @@
       <c r="F223" s="61"/>
     </row>
     <row r="224" spans="1:6" ht="18">
-      <c r="A224" s="108"/>
+      <c r="A224" s="111"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="4"/>
@@ -5726,7 +5788,7 @@
       <c r="F224" s="61"/>
     </row>
     <row r="225" spans="1:6" ht="18">
-      <c r="A225" s="108"/>
+      <c r="A225" s="111"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="4"/>
@@ -5734,7 +5796,7 @@
       <c r="F225" s="61"/>
     </row>
     <row r="226" spans="1:6" ht="18">
-      <c r="A226" s="108"/>
+      <c r="A226" s="111"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="4"/>
@@ -5742,7 +5804,7 @@
       <c r="F226" s="61"/>
     </row>
     <row r="227" spans="1:6" ht="18">
-      <c r="A227" s="108"/>
+      <c r="A227" s="111"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="4"/>
@@ -5750,7 +5812,7 @@
       <c r="F227" s="61"/>
     </row>
     <row r="228" spans="1:6" ht="18">
-      <c r="A228" s="108"/>
+      <c r="A228" s="111"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="4"/>
@@ -5758,7 +5820,7 @@
       <c r="F228" s="61"/>
     </row>
     <row r="229" spans="1:6" ht="18">
-      <c r="A229" s="108"/>
+      <c r="A229" s="111"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="4"/>
@@ -5766,7 +5828,7 @@
       <c r="F229" s="61"/>
     </row>
     <row r="230" spans="1:6" ht="18">
-      <c r="A230" s="108"/>
+      <c r="A230" s="111"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="4"/>
@@ -5774,7 +5836,7 @@
       <c r="F230" s="61"/>
     </row>
     <row r="231" spans="1:6" ht="18">
-      <c r="A231" s="108"/>
+      <c r="A231" s="111"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="4"/>
@@ -5782,7 +5844,7 @@
       <c r="F231" s="61"/>
     </row>
     <row r="232" spans="1:6" ht="18">
-      <c r="A232" s="108"/>
+      <c r="A232" s="111"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="4"/>
@@ -5790,7 +5852,7 @@
       <c r="F232" s="61"/>
     </row>
     <row r="233" spans="1:6" ht="18">
-      <c r="A233" s="108"/>
+      <c r="A233" s="111"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="4"/>
@@ -5798,7 +5860,7 @@
       <c r="F233" s="61"/>
     </row>
     <row r="234" spans="1:6" ht="18">
-      <c r="A234" s="108"/>
+      <c r="A234" s="111"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="4"/>
@@ -5806,7 +5868,7 @@
       <c r="F234" s="61"/>
     </row>
     <row r="235" spans="1:6" ht="18">
-      <c r="A235" s="108"/>
+      <c r="A235" s="111"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="4"/>
@@ -5857,82 +5919,23 @@
       <c r="F241" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="118">
-    <mergeCell ref="G104:G107"/>
-    <mergeCell ref="G117:G120"/>
-    <mergeCell ref="G121:G124"/>
-    <mergeCell ref="G125:G127"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="G91:G93"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="F125:F127"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="G79:G81"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="G87:G90"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="F121:F124"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F87:F90"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="F104:F107"/>
-    <mergeCell ref="F117:F120"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="A29:A46"/>
-    <mergeCell ref="A108:A115"/>
-    <mergeCell ref="A197:A209"/>
-    <mergeCell ref="A211:A235"/>
-    <mergeCell ref="A117:A127"/>
-    <mergeCell ref="A96:A107"/>
-    <mergeCell ref="A47:A74"/>
-    <mergeCell ref="A75:A95"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="H33:H36"/>
+  <mergeCells count="113">
+    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="H87:H90"/>
+    <mergeCell ref="H91:H95"/>
+    <mergeCell ref="H117:H122"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="H37:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H56"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="F21:F23"/>
@@ -5951,31 +5954,85 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G8:G11"/>
     <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H125:H127"/>
-    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="A29:A46"/>
+    <mergeCell ref="A108:A115"/>
+    <mergeCell ref="A197:A209"/>
+    <mergeCell ref="A211:A235"/>
+    <mergeCell ref="A117:A127"/>
+    <mergeCell ref="A96:A107"/>
+    <mergeCell ref="A47:A74"/>
+    <mergeCell ref="A75:A95"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="G79:G81"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="F123:F127"/>
+    <mergeCell ref="G123:G127"/>
+    <mergeCell ref="H123:H127"/>
+    <mergeCell ref="F128:F132"/>
+    <mergeCell ref="G128:G132"/>
+    <mergeCell ref="H128:H132"/>
+    <mergeCell ref="G104:G107"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="G91:G95"/>
+    <mergeCell ref="G117:G122"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="F104:F107"/>
+    <mergeCell ref="F117:F122"/>
+    <mergeCell ref="G87:G90"/>
+    <mergeCell ref="G96:G99"/>
     <mergeCell ref="H96:H99"/>
     <mergeCell ref="H100:H103"/>
     <mergeCell ref="H104:H107"/>
-    <mergeCell ref="H117:H120"/>
-    <mergeCell ref="H121:H124"/>
     <mergeCell ref="H75:H78"/>
-    <mergeCell ref="H79:H81"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="H87:H90"/>
-    <mergeCell ref="H91:H93"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2012 08 29 зняті жести.xlsx
+++ b/2012 08 29 зняті жести.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="13470"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="13470" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="жести" sheetId="2" r:id="rId1"/>
     <sheet name="дактиль" sheetId="3" r:id="rId2"/>
     <sheet name="Речення" sheetId="4" r:id="rId3"/>
     <sheet name="Міміка" sheetId="7" r:id="rId4"/>
+    <sheet name="corrupted_frames" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="282">
   <si>
     <t>Здраствуй (те)</t>
   </si>
@@ -518,9 +519,6 @@
   </si>
   <si>
     <t>Мені цікаво читати про історію України</t>
-  </si>
-  <si>
-    <t>Dactyl, D1, D2</t>
   </si>
   <si>
     <t>далеко</t>
@@ -853,12 +851,84 @@
   <si>
     <t>треба пояснити що це за жести</t>
   </si>
+  <si>
+    <t># gesture ID</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>corrupted_files</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>M5_01</t>
+  </si>
+  <si>
+    <t>RMDL3 and RRNG3 are missed</t>
+  </si>
+  <si>
+    <t>H4_mcraw</t>
+  </si>
+  <si>
+    <t>cropped from 269 up to end</t>
+  </si>
+  <si>
+    <t>M5_01_gest1_sample0</t>
+  </si>
+  <si>
+    <t>M5_01_gest1_sample1</t>
+  </si>
+  <si>
+    <t>M5_01_gest2_sample0</t>
+  </si>
+  <si>
+    <t>M5_01_gest2_sample1</t>
+  </si>
+  <si>
+    <t>M5_01_gest3_sample0</t>
+  </si>
+  <si>
+    <t>M5_01_gest3_sample1</t>
+  </si>
+  <si>
+    <t>RMDL3 and RRNG3 are missed    + RIDX3 is off</t>
+  </si>
+  <si>
+    <t>F4_mcraw</t>
+  </si>
+  <si>
+    <t>frames[1882 --&gt; end]: STRN is off</t>
+  </si>
+  <si>
+    <t>F4_mcraw_gest2_sample0</t>
+  </si>
+  <si>
+    <t>F4_mcraw_gest2_sample1</t>
+  </si>
+  <si>
+    <t>F4_mcraw_gest3_sample0</t>
+  </si>
+  <si>
+    <t>F4_mcraw_gest3_sample1</t>
+  </si>
+  <si>
+    <t>STRN is off</t>
+  </si>
+  <si>
+    <t>M5_01_gest0_sample0</t>
+  </si>
+  <si>
+    <t>M5_01_gest0_sample1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -936,6 +1006,15 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1011,7 +1090,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1499,13 +1578,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1664,6 +1753,16 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1691,6 +1790,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1706,6 +1814,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1718,32 +1829,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1770,14 +1887,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1785,23 +1899,29 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_Лист3" xfId="1"/>
     <cellStyle name="Обычный_Речення" xfId="2"/>
@@ -2170,9 +2290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G134" sqref="G134"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2189,13 +2309,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1">
       <c r="A1" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>129</v>
@@ -2207,18 +2327,18 @@
         <v>126</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="J1" s="113" t="s">
         <v>249</v>
       </c>
-      <c r="K1" s="114"/>
+      <c r="J1" s="123" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" s="124"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="115" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="1">
@@ -2233,18 +2353,18 @@
       <c r="E2" s="13">
         <v>1</v>
       </c>
-      <c r="F2" s="121" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="121">
+      <c r="F2" s="131" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="131">
         <v>4</v>
       </c>
-      <c r="H2" s="120" t="s">
-        <v>251</v>
+      <c r="H2" s="130" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="107"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -2257,12 +2377,12 @@
       <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="105"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="107"/>
     </row>
     <row r="4" spans="1:11" ht="18">
-      <c r="A4" s="107"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -2275,12 +2395,12 @@
       <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="105"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" thickBot="1">
-      <c r="A5" s="107"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -2293,12 +2413,12 @@
       <c r="E5" s="13">
         <v>1</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="105"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="107"/>
     </row>
     <row r="6" spans="1:11" ht="18">
-      <c r="A6" s="107"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -2311,18 +2431,18 @@
       <c r="E6" s="13">
         <v>2</v>
       </c>
-      <c r="F6" s="95" t="s">
-        <v>201</v>
-      </c>
-      <c r="G6" s="95">
+      <c r="F6" s="102" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="102">
         <v>4</v>
       </c>
-      <c r="H6" s="105" t="s">
-        <v>252</v>
+      <c r="H6" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18.75" thickBot="1">
-      <c r="A7" s="107"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -2335,12 +2455,12 @@
       <c r="E7" s="13">
         <v>2</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="105"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:11" ht="18">
-      <c r="A8" s="107"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -2353,18 +2473,18 @@
       <c r="E8" s="13">
         <v>1</v>
       </c>
-      <c r="F8" s="95" t="s">
-        <v>202</v>
-      </c>
-      <c r="G8" s="95">
+      <c r="F8" s="102" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="102">
         <v>4</v>
       </c>
-      <c r="H8" s="105" t="s">
-        <v>252</v>
+      <c r="H8" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18">
-      <c r="A9" s="107"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -2377,12 +2497,12 @@
       <c r="E9" s="13">
         <v>1</v>
       </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="105"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:11" ht="18">
-      <c r="A10" s="107"/>
+      <c r="A10" s="116"/>
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -2393,12 +2513,12 @@
       <c r="E10" s="13">
         <v>1</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="105"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="107"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" thickBot="1">
-      <c r="A11" s="107"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="1">
         <v>10</v>
       </c>
@@ -2411,12 +2531,12 @@
       <c r="E11" s="13">
         <v>1</v>
       </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="105"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="107"/>
     </row>
     <row r="12" spans="1:11" ht="18">
-      <c r="A12" s="107"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="1">
         <v>11</v>
       </c>
@@ -2429,18 +2549,18 @@
       <c r="E12" s="13">
         <v>1</v>
       </c>
-      <c r="F12" s="95" t="s">
-        <v>203</v>
-      </c>
-      <c r="G12" s="95">
+      <c r="F12" s="102" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="102">
         <v>4</v>
       </c>
-      <c r="H12" s="105" t="s">
-        <v>252</v>
+      <c r="H12" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18">
-      <c r="A13" s="107"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="1">
         <v>12</v>
       </c>
@@ -2453,12 +2573,12 @@
       <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="105"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="107"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" thickBot="1">
-      <c r="A14" s="107"/>
+      <c r="A14" s="116"/>
       <c r="B14" s="1">
         <v>13</v>
       </c>
@@ -2471,12 +2591,12 @@
       <c r="E14" s="13">
         <v>2</v>
       </c>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="105"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="107"/>
     </row>
     <row r="15" spans="1:11" ht="18">
-      <c r="A15" s="107"/>
+      <c r="A15" s="116"/>
       <c r="B15" s="1">
         <v>14</v>
       </c>
@@ -2489,18 +2609,18 @@
       <c r="E15" s="13">
         <v>1</v>
       </c>
-      <c r="F15" s="95" t="s">
-        <v>204</v>
-      </c>
-      <c r="G15" s="95">
+      <c r="F15" s="102" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="102">
         <v>4</v>
       </c>
-      <c r="H15" s="105" t="s">
-        <v>252</v>
+      <c r="H15" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18">
-      <c r="A16" s="107"/>
+      <c r="A16" s="116"/>
       <c r="B16" s="1">
         <v>15</v>
       </c>
@@ -2513,12 +2633,12 @@
       <c r="E16" s="13">
         <v>1</v>
       </c>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="105"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="107"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A17" s="107"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -2531,12 +2651,12 @@
       <c r="E17" s="52">
         <v>2</v>
       </c>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="105"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="107"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" thickTop="1">
-      <c r="A18" s="107"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="64">
         <v>17</v>
       </c>
@@ -2549,18 +2669,18 @@
       <c r="E18" s="63">
         <v>2</v>
       </c>
-      <c r="F18" s="115" t="s">
-        <v>205</v>
-      </c>
-      <c r="G18" s="118">
+      <c r="F18" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="128">
         <v>5</v>
       </c>
-      <c r="H18" s="122" t="s">
-        <v>253</v>
+      <c r="H18" s="120" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18">
-      <c r="A19" s="107"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="64">
         <v>18</v>
       </c>
@@ -2573,12 +2693,12 @@
       <c r="E19" s="63">
         <v>2</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="122"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="120"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A20" s="107"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="1">
         <v>19</v>
       </c>
@@ -2586,18 +2706,18 @@
         <v>18</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E20" s="79">
         <v>1</v>
       </c>
-      <c r="F20" s="116"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="123"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="121"/>
       <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:9" ht="18.75" thickTop="1">
-      <c r="A21" s="107"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="1">
         <v>20</v>
       </c>
@@ -2610,18 +2730,18 @@
       <c r="E21" s="66">
         <v>1</v>
       </c>
-      <c r="F21" s="117" t="s">
-        <v>206</v>
-      </c>
-      <c r="G21" s="117">
+      <c r="F21" s="127" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" s="127">
         <v>3</v>
       </c>
-      <c r="H21" s="124" t="s">
-        <v>252</v>
+      <c r="H21" s="122" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="107"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="1">
         <v>21</v>
       </c>
@@ -2634,12 +2754,12 @@
       <c r="E22" s="66">
         <v>1</v>
       </c>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="124"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="122"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A23" s="107"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="1">
         <v>22</v>
       </c>
@@ -2652,12 +2772,12 @@
       <c r="E23" s="66">
         <v>1</v>
       </c>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="124"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="122"/>
     </row>
     <row r="24" spans="1:9" ht="18">
-      <c r="A24" s="107"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="1">
         <v>23</v>
       </c>
@@ -2670,18 +2790,18 @@
       <c r="E24" s="68">
         <v>1</v>
       </c>
-      <c r="F24" s="95" t="s">
-        <v>207</v>
-      </c>
-      <c r="G24" s="95">
+      <c r="F24" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" s="102">
         <v>3</v>
       </c>
-      <c r="H24" s="105" t="s">
-        <v>252</v>
+      <c r="H24" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18">
-      <c r="A25" s="107"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="1">
         <v>24</v>
       </c>
@@ -2694,12 +2814,12 @@
       <c r="E25" s="13">
         <v>1</v>
       </c>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="105"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="107"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A26" s="107"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="1">
         <v>25</v>
       </c>
@@ -2712,12 +2832,12 @@
       <c r="E26" s="13">
         <v>1</v>
       </c>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="105"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="107"/>
     </row>
     <row r="27" spans="1:9" ht="18">
-      <c r="A27" s="107"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="1">
         <v>26</v>
       </c>
@@ -2730,18 +2850,18 @@
       <c r="E27" s="13">
         <v>2</v>
       </c>
-      <c r="F27" s="95" t="s">
-        <v>208</v>
-      </c>
-      <c r="G27" s="95">
+      <c r="F27" s="102" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="102">
         <v>3</v>
       </c>
-      <c r="H27" s="105" t="s">
-        <v>252</v>
+      <c r="H27" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A28" s="108"/>
+      <c r="A28" s="118"/>
       <c r="B28" s="1">
         <v>27</v>
       </c>
@@ -2754,12 +2874,12 @@
       <c r="E28" s="13">
         <v>1</v>
       </c>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="105"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="107"/>
     </row>
     <row r="29" spans="1:9" ht="18">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="115" t="s">
         <v>140</v>
       </c>
       <c r="B29" s="1">
@@ -2774,18 +2894,18 @@
       <c r="E29" s="13">
         <v>1</v>
       </c>
-      <c r="F29" s="95" t="s">
-        <v>211</v>
-      </c>
-      <c r="G29" s="95">
+      <c r="F29" s="102" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" s="102">
         <v>4</v>
       </c>
-      <c r="H29" s="105" t="s">
-        <v>252</v>
+      <c r="H29" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="A30" s="107"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="1">
         <v>29</v>
       </c>
@@ -2798,12 +2918,12 @@
       <c r="E30" s="13">
         <v>1</v>
       </c>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="105"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="107"/>
     </row>
     <row r="31" spans="1:9" ht="18">
-      <c r="A31" s="107"/>
+      <c r="A31" s="116"/>
       <c r="B31" s="1">
         <v>30</v>
       </c>
@@ -2816,12 +2936,12 @@
       <c r="E31" s="13">
         <v>1</v>
       </c>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="105"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="107"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A32" s="107"/>
+      <c r="A32" s="116"/>
       <c r="B32" s="1">
         <v>31</v>
       </c>
@@ -2834,12 +2954,12 @@
       <c r="E32" s="13">
         <v>1</v>
       </c>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="105"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="107"/>
     </row>
     <row r="33" spans="1:9" ht="18">
-      <c r="A33" s="107"/>
+      <c r="A33" s="116"/>
       <c r="B33" s="1">
         <v>32</v>
       </c>
@@ -2852,18 +2972,18 @@
       <c r="E33" s="13">
         <v>1</v>
       </c>
-      <c r="F33" s="95" t="s">
-        <v>212</v>
-      </c>
-      <c r="G33" s="95">
+      <c r="F33" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="G33" s="102">
         <v>4</v>
       </c>
-      <c r="H33" s="105" t="s">
-        <v>252</v>
+      <c r="H33" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18">
-      <c r="A34" s="107"/>
+      <c r="A34" s="116"/>
       <c r="B34" s="1">
         <v>33</v>
       </c>
@@ -2876,12 +2996,12 @@
       <c r="E34" s="13">
         <v>1</v>
       </c>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="105"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="107"/>
     </row>
     <row r="35" spans="1:9" ht="18">
-      <c r="A35" s="107"/>
+      <c r="A35" s="116"/>
       <c r="B35" s="1">
         <v>34</v>
       </c>
@@ -2894,12 +3014,12 @@
       <c r="E35" s="13">
         <v>1</v>
       </c>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="105"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="107"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A36" s="107"/>
+      <c r="A36" s="116"/>
       <c r="B36" s="1">
         <v>35</v>
       </c>
@@ -2912,12 +3032,12 @@
       <c r="E36" s="13">
         <v>1</v>
       </c>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="105"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="107"/>
     </row>
     <row r="37" spans="1:9" ht="18">
-      <c r="A37" s="107"/>
+      <c r="A37" s="116"/>
       <c r="B37" s="1">
         <v>36</v>
       </c>
@@ -2930,18 +3050,18 @@
       <c r="E37" s="13">
         <v>1</v>
       </c>
-      <c r="F37" s="95" t="s">
-        <v>213</v>
-      </c>
-      <c r="G37" s="95">
+      <c r="F37" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" s="102">
         <v>4</v>
       </c>
-      <c r="H37" s="105" t="s">
-        <v>252</v>
+      <c r="H37" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18">
-      <c r="A38" s="107"/>
+      <c r="A38" s="116"/>
       <c r="B38" s="1">
         <v>37</v>
       </c>
@@ -2954,12 +3074,12 @@
       <c r="E38" s="13">
         <v>1</v>
       </c>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="105"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="107"/>
     </row>
     <row r="39" spans="1:9" ht="18">
-      <c r="A39" s="107"/>
+      <c r="A39" s="116"/>
       <c r="B39" s="1">
         <v>38</v>
       </c>
@@ -2972,12 +3092,12 @@
       <c r="E39" s="13">
         <v>1</v>
       </c>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="105"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="107"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A40" s="107"/>
+      <c r="A40" s="116"/>
       <c r="B40" s="1">
         <v>39</v>
       </c>
@@ -2990,12 +3110,12 @@
       <c r="E40" s="13">
         <v>1</v>
       </c>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="105"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="107"/>
     </row>
     <row r="41" spans="1:9" ht="18">
-      <c r="A41" s="107"/>
+      <c r="A41" s="116"/>
       <c r="B41" s="1">
         <v>40</v>
       </c>
@@ -3008,18 +3128,18 @@
       <c r="E41" s="13">
         <v>2</v>
       </c>
-      <c r="F41" s="95" t="s">
-        <v>214</v>
-      </c>
-      <c r="G41" s="95">
+      <c r="F41" s="102" t="s">
+        <v>213</v>
+      </c>
+      <c r="G41" s="102">
         <v>4</v>
       </c>
-      <c r="H41" s="105" t="s">
-        <v>252</v>
+      <c r="H41" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A42" s="107"/>
+      <c r="A42" s="116"/>
       <c r="B42" s="1">
         <v>41</v>
       </c>
@@ -3032,12 +3152,12 @@
       <c r="E42" s="13">
         <v>2</v>
       </c>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="105"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="107"/>
     </row>
     <row r="43" spans="1:9" ht="18">
-      <c r="A43" s="107"/>
+      <c r="A43" s="116"/>
       <c r="B43" s="1">
         <v>42</v>
       </c>
@@ -3050,19 +3170,19 @@
       <c r="E43" s="13">
         <v>1</v>
       </c>
-      <c r="F43" s="95" t="s">
-        <v>215</v>
-      </c>
-      <c r="G43" s="95">
+      <c r="F43" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43" s="102">
         <v>4</v>
       </c>
-      <c r="H43" s="105" t="s">
-        <v>252</v>
+      <c r="H43" s="107" t="s">
+        <v>251</v>
       </c>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9" ht="18">
-      <c r="A44" s="107"/>
+      <c r="A44" s="116"/>
       <c r="B44" s="1">
         <v>43</v>
       </c>
@@ -3075,47 +3195,47 @@
       <c r="E44" s="13">
         <v>1</v>
       </c>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="105"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="107"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" ht="18">
-      <c r="A45" s="107"/>
+      <c r="A45" s="116"/>
       <c r="B45" s="1">
         <v>44</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E45" s="13">
         <v>1</v>
       </c>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="105"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="107"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A46" s="108"/>
+      <c r="A46" s="118"/>
       <c r="B46" s="1">
         <v>45</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E46" s="13">
         <v>1</v>
       </c>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="105"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="107"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" ht="18">
-      <c r="A47" s="109" t="s">
+      <c r="A47" s="112" t="s">
         <v>141</v>
       </c>
       <c r="B47" s="1">
@@ -3130,19 +3250,19 @@
       <c r="E47" s="13">
         <v>1</v>
       </c>
-      <c r="F47" s="95" t="s">
-        <v>216</v>
-      </c>
-      <c r="G47" s="95">
+      <c r="F47" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="G47" s="102">
         <v>4</v>
       </c>
-      <c r="H47" s="105" t="s">
-        <v>252</v>
+      <c r="H47" s="107" t="s">
+        <v>251</v>
       </c>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" ht="18">
-      <c r="A48" s="110"/>
+      <c r="A48" s="113"/>
       <c r="B48" s="1">
         <v>47</v>
       </c>
@@ -3155,12 +3275,12 @@
       <c r="E48" s="13">
         <v>1</v>
       </c>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="105"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="107"/>
     </row>
     <row r="49" spans="1:8" ht="18">
-      <c r="A49" s="110"/>
+      <c r="A49" s="113"/>
       <c r="B49" s="1">
         <v>48</v>
       </c>
@@ -3173,12 +3293,12 @@
       <c r="E49" s="13">
         <v>1</v>
       </c>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="105"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="107"/>
     </row>
     <row r="50" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A50" s="110"/>
+      <c r="A50" s="113"/>
       <c r="B50" s="1">
         <v>49</v>
       </c>
@@ -3189,12 +3309,12 @@
       <c r="E50" s="13">
         <v>1</v>
       </c>
-      <c r="F50" s="95"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="105"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="107"/>
     </row>
     <row r="51" spans="1:8" ht="18">
-      <c r="A51" s="110"/>
+      <c r="A51" s="113"/>
       <c r="B51" s="1">
         <v>50</v>
       </c>
@@ -3205,18 +3325,18 @@
       <c r="E51" s="66">
         <v>1</v>
       </c>
-      <c r="F51" s="100" t="s">
-        <v>217</v>
-      </c>
-      <c r="G51" s="100">
+      <c r="F51" s="108" t="s">
+        <v>216</v>
+      </c>
+      <c r="G51" s="108">
         <v>3</v>
       </c>
-      <c r="H51" s="105" t="s">
-        <v>252</v>
+      <c r="H51" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18">
-      <c r="A52" s="110"/>
+      <c r="A52" s="113"/>
       <c r="B52" s="1">
         <v>51</v>
       </c>
@@ -3224,17 +3344,17 @@
         <v>4</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E52" s="66">
         <v>1</v>
       </c>
-      <c r="F52" s="100"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="105"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="107"/>
     </row>
     <row r="53" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A53" s="110"/>
+      <c r="A53" s="113"/>
       <c r="B53" s="1">
         <v>52</v>
       </c>
@@ -3242,17 +3362,17 @@
         <v>5</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E53" s="66">
         <v>1</v>
       </c>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="105"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="107"/>
     </row>
     <row r="54" spans="1:8" ht="18">
-      <c r="A54" s="110"/>
+      <c r="A54" s="113"/>
       <c r="B54" s="1">
         <v>53</v>
       </c>
@@ -3263,18 +3383,18 @@
       <c r="E54" s="13">
         <v>2</v>
       </c>
-      <c r="F54" s="95" t="s">
-        <v>218</v>
-      </c>
-      <c r="G54" s="95">
+      <c r="F54" s="102" t="s">
+        <v>217</v>
+      </c>
+      <c r="G54" s="102">
         <v>5</v>
       </c>
-      <c r="H54" s="105" t="s">
-        <v>252</v>
+      <c r="H54" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18">
-      <c r="A55" s="110"/>
+      <c r="A55" s="113"/>
       <c r="B55" s="1">
         <v>54</v>
       </c>
@@ -3285,12 +3405,12 @@
       <c r="E55" s="13">
         <v>1</v>
       </c>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="105"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="107"/>
     </row>
     <row r="56" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A56" s="110"/>
+      <c r="A56" s="113"/>
       <c r="B56" s="1">
         <v>55</v>
       </c>
@@ -3303,12 +3423,12 @@
       <c r="E56" s="13">
         <v>2</v>
       </c>
-      <c r="F56" s="95"/>
-      <c r="G56" s="95"/>
-      <c r="H56" s="105"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="107"/>
     </row>
     <row r="57" spans="1:8" ht="18">
-      <c r="A57" s="110"/>
+      <c r="A57" s="113"/>
       <c r="B57" s="1">
         <v>56</v>
       </c>
@@ -3321,18 +3441,18 @@
       <c r="E57" s="13">
         <v>2</v>
       </c>
-      <c r="F57" s="95" t="s">
-        <v>219</v>
-      </c>
-      <c r="G57" s="95">
+      <c r="F57" s="102" t="s">
+        <v>218</v>
+      </c>
+      <c r="G57" s="102">
         <v>3</v>
       </c>
-      <c r="H57" s="105" t="s">
-        <v>252</v>
+      <c r="H57" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A58" s="110"/>
+      <c r="A58" s="113"/>
       <c r="B58" s="1">
         <v>57</v>
       </c>
@@ -3345,12 +3465,12 @@
       <c r="E58" s="13">
         <v>1</v>
       </c>
-      <c r="F58" s="95"/>
-      <c r="G58" s="95"/>
-      <c r="H58" s="105"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="107"/>
     </row>
     <row r="59" spans="1:8" ht="18">
-      <c r="A59" s="110"/>
+      <c r="A59" s="113"/>
       <c r="B59" s="1">
         <v>58</v>
       </c>
@@ -3363,18 +3483,18 @@
       <c r="E59" s="13">
         <v>1</v>
       </c>
-      <c r="F59" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="G59" s="95">
+      <c r="F59" s="102" t="s">
+        <v>219</v>
+      </c>
+      <c r="G59" s="102">
         <v>4</v>
       </c>
-      <c r="H59" s="105" t="s">
-        <v>252</v>
+      <c r="H59" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18">
-      <c r="A60" s="110"/>
+      <c r="A60" s="113"/>
       <c r="B60" s="1">
         <v>59</v>
       </c>
@@ -3387,12 +3507,12 @@
       <c r="E60" s="13">
         <v>1</v>
       </c>
-      <c r="F60" s="95"/>
-      <c r="G60" s="95"/>
-      <c r="H60" s="105"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="102"/>
+      <c r="H60" s="107"/>
     </row>
     <row r="61" spans="1:8" ht="18">
-      <c r="A61" s="110"/>
+      <c r="A61" s="113"/>
       <c r="B61" s="1">
         <v>60</v>
       </c>
@@ -3405,12 +3525,12 @@
       <c r="E61" s="13">
         <v>1</v>
       </c>
-      <c r="F61" s="95"/>
-      <c r="G61" s="95"/>
-      <c r="H61" s="105"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="107"/>
     </row>
     <row r="62" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A62" s="110"/>
+      <c r="A62" s="113"/>
       <c r="B62" s="1">
         <v>61</v>
       </c>
@@ -3423,34 +3543,34 @@
       <c r="E62" s="52">
         <v>1</v>
       </c>
-      <c r="F62" s="95"/>
-      <c r="G62" s="95"/>
-      <c r="H62" s="105"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="107"/>
     </row>
     <row r="63" spans="1:8" ht="18">
-      <c r="A63" s="110"/>
+      <c r="A63" s="113"/>
       <c r="B63" s="1">
         <v>62</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E63" s="80">
         <v>1</v>
       </c>
-      <c r="F63" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="G63" s="95">
+      <c r="F63" s="109" t="s">
+        <v>220</v>
+      </c>
+      <c r="G63" s="102">
         <v>4</v>
       </c>
-      <c r="H63" s="105" t="s">
-        <v>252</v>
+      <c r="H63" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A64" s="110"/>
+      <c r="A64" s="113"/>
       <c r="B64" s="1">
         <v>63</v>
       </c>
@@ -3463,12 +3583,12 @@
       <c r="E64" s="81">
         <v>1</v>
       </c>
-      <c r="F64" s="102"/>
-      <c r="G64" s="95"/>
-      <c r="H64" s="105"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="107"/>
     </row>
     <row r="65" spans="1:10" ht="18">
-      <c r="A65" s="110"/>
+      <c r="A65" s="113"/>
       <c r="B65" s="1">
         <v>64</v>
       </c>
@@ -3481,12 +3601,12 @@
       <c r="E65" s="80">
         <v>1</v>
       </c>
-      <c r="F65" s="102"/>
-      <c r="G65" s="95"/>
-      <c r="H65" s="105"/>
+      <c r="F65" s="110"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="107"/>
     </row>
     <row r="66" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A66" s="110"/>
+      <c r="A66" s="113"/>
       <c r="B66" s="1">
         <v>65</v>
       </c>
@@ -3499,12 +3619,12 @@
       <c r="E66" s="81">
         <v>1</v>
       </c>
-      <c r="F66" s="103"/>
-      <c r="G66" s="95"/>
-      <c r="H66" s="105"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="107"/>
     </row>
     <row r="67" spans="1:10" ht="18">
-      <c r="A67" s="110"/>
+      <c r="A67" s="113"/>
       <c r="B67" s="1">
         <v>66</v>
       </c>
@@ -3517,56 +3637,56 @@
       <c r="E67" s="68">
         <v>1</v>
       </c>
-      <c r="F67" s="95" t="s">
-        <v>222</v>
-      </c>
-      <c r="G67" s="95">
+      <c r="F67" s="102" t="s">
+        <v>221</v>
+      </c>
+      <c r="G67" s="102">
         <v>4</v>
       </c>
-      <c r="H67" s="105" t="s">
-        <v>252</v>
+      <c r="H67" s="107" t="s">
+        <v>251</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="1:10" ht="18">
-      <c r="A68" s="110"/>
+      <c r="A68" s="113"/>
       <c r="B68" s="1">
         <v>67</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E68" s="13">
         <v>1</v>
       </c>
-      <c r="F68" s="95"/>
-      <c r="G68" s="95"/>
-      <c r="H68" s="105"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="107"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:10" ht="18">
-      <c r="A69" s="110"/>
+      <c r="A69" s="113"/>
       <c r="B69" s="1">
         <v>68</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E69" s="13">
         <v>1</v>
       </c>
-      <c r="F69" s="95"/>
-      <c r="G69" s="95"/>
-      <c r="H69" s="105"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="102"/>
+      <c r="H69" s="107"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A70" s="110"/>
+      <c r="A70" s="113"/>
       <c r="B70" s="1">
         <v>69</v>
       </c>
@@ -3579,14 +3699,14 @@
       <c r="E70" s="13">
         <v>1</v>
       </c>
-      <c r="F70" s="95"/>
-      <c r="G70" s="95"/>
-      <c r="H70" s="105"/>
+      <c r="F70" s="102"/>
+      <c r="G70" s="102"/>
+      <c r="H70" s="107"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="1:10" ht="18">
-      <c r="A71" s="110"/>
+      <c r="A71" s="113"/>
       <c r="B71" s="1">
         <v>70</v>
       </c>
@@ -3599,20 +3719,20 @@
       <c r="E71" s="13">
         <v>1</v>
       </c>
-      <c r="F71" s="95" t="s">
-        <v>223</v>
-      </c>
-      <c r="G71" s="95">
+      <c r="F71" s="102" t="s">
+        <v>222</v>
+      </c>
+      <c r="G71" s="102">
         <v>4</v>
       </c>
-      <c r="H71" s="105" t="s">
-        <v>252</v>
+      <c r="H71" s="107" t="s">
+        <v>251</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" ht="18">
-      <c r="A72" s="110"/>
+      <c r="A72" s="113"/>
       <c r="B72" s="1">
         <v>71</v>
       </c>
@@ -3625,14 +3745,14 @@
       <c r="E72" s="13">
         <v>1</v>
       </c>
-      <c r="F72" s="95"/>
-      <c r="G72" s="95"/>
-      <c r="H72" s="105"/>
+      <c r="F72" s="102"/>
+      <c r="G72" s="102"/>
+      <c r="H72" s="107"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="18">
-      <c r="A73" s="110"/>
+      <c r="A73" s="113"/>
       <c r="B73" s="1">
         <v>72</v>
       </c>
@@ -3643,14 +3763,14 @@
       <c r="E73" s="13">
         <v>1</v>
       </c>
-      <c r="F73" s="95"/>
-      <c r="G73" s="95"/>
-      <c r="H73" s="105"/>
+      <c r="F73" s="102"/>
+      <c r="G73" s="102"/>
+      <c r="H73" s="107"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A74" s="112"/>
+      <c r="A74" s="117"/>
       <c r="B74" s="1">
         <v>73</v>
       </c>
@@ -3663,14 +3783,14 @@
       <c r="E74" s="13">
         <v>1</v>
       </c>
-      <c r="F74" s="95"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="105"/>
+      <c r="F74" s="102"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="107"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="1:10" ht="18">
-      <c r="A75" s="109" t="s">
+      <c r="A75" s="112" t="s">
         <v>142</v>
       </c>
       <c r="B75" s="1">
@@ -3685,20 +3805,20 @@
       <c r="E75" s="13">
         <v>1</v>
       </c>
-      <c r="F75" s="95" t="s">
-        <v>224</v>
-      </c>
-      <c r="G75" s="95">
+      <c r="F75" s="102" t="s">
+        <v>223</v>
+      </c>
+      <c r="G75" s="102">
         <v>4</v>
       </c>
-      <c r="H75" s="105" t="s">
-        <v>252</v>
+      <c r="H75" s="107" t="s">
+        <v>251</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="1:10" ht="18">
-      <c r="A76" s="110"/>
+      <c r="A76" s="113"/>
       <c r="B76" s="1">
         <v>75</v>
       </c>
@@ -3709,12 +3829,12 @@
       <c r="E76" s="13">
         <v>1</v>
       </c>
-      <c r="F76" s="95"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="105"/>
+      <c r="F76" s="102"/>
+      <c r="G76" s="102"/>
+      <c r="H76" s="107"/>
     </row>
     <row r="77" spans="1:10" ht="18">
-      <c r="A77" s="110"/>
+      <c r="A77" s="113"/>
       <c r="B77" s="1">
         <v>76</v>
       </c>
@@ -3727,28 +3847,28 @@
       <c r="E77" s="13">
         <v>1</v>
       </c>
-      <c r="F77" s="95"/>
-      <c r="G77" s="95"/>
-      <c r="H77" s="105"/>
+      <c r="F77" s="102"/>
+      <c r="G77" s="102"/>
+      <c r="H77" s="107"/>
     </row>
     <row r="78" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A78" s="110"/>
+      <c r="A78" s="113"/>
       <c r="B78" s="1">
         <v>77</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
-      <c r="F78" s="95"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="105"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="107"/>
     </row>
     <row r="79" spans="1:10" ht="18">
-      <c r="A79" s="110"/>
+      <c r="A79" s="113"/>
       <c r="B79" s="1">
         <v>78</v>
       </c>
@@ -3761,18 +3881,18 @@
       <c r="E79" s="13">
         <v>2</v>
       </c>
-      <c r="F79" s="95" t="s">
-        <v>225</v>
-      </c>
-      <c r="G79" s="95">
+      <c r="F79" s="102" t="s">
+        <v>224</v>
+      </c>
+      <c r="G79" s="102">
         <v>4</v>
       </c>
-      <c r="H79" s="105" t="s">
-        <v>252</v>
+      <c r="H79" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="18">
-      <c r="A80" s="110"/>
+      <c r="A80" s="113"/>
       <c r="B80" s="1">
         <v>79</v>
       </c>
@@ -3785,12 +3905,12 @@
       <c r="E80" s="13">
         <v>1</v>
       </c>
-      <c r="F80" s="95"/>
-      <c r="G80" s="95"/>
-      <c r="H80" s="105"/>
+      <c r="F80" s="102"/>
+      <c r="G80" s="102"/>
+      <c r="H80" s="107"/>
     </row>
     <row r="81" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A81" s="110"/>
+      <c r="A81" s="113"/>
       <c r="B81" s="1">
         <v>80</v>
       </c>
@@ -3803,12 +3923,12 @@
       <c r="E81" s="13">
         <v>1</v>
       </c>
-      <c r="F81" s="95"/>
-      <c r="G81" s="95"/>
-      <c r="H81" s="105"/>
+      <c r="F81" s="102"/>
+      <c r="G81" s="102"/>
+      <c r="H81" s="107"/>
     </row>
     <row r="82" spans="1:15" ht="18">
-      <c r="A82" s="110"/>
+      <c r="A82" s="113"/>
       <c r="B82" s="1">
         <v>81</v>
       </c>
@@ -3821,18 +3941,18 @@
       <c r="E82" s="13">
         <v>2</v>
       </c>
-      <c r="F82" s="95" t="s">
-        <v>226</v>
-      </c>
-      <c r="G82" s="95">
+      <c r="F82" s="102" t="s">
+        <v>225</v>
+      </c>
+      <c r="G82" s="102">
         <v>4</v>
       </c>
-      <c r="H82" s="105" t="s">
-        <v>252</v>
+      <c r="H82" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A83" s="110"/>
+      <c r="A83" s="113"/>
       <c r="B83" s="1">
         <v>82</v>
       </c>
@@ -3845,12 +3965,12 @@
       <c r="E83" s="13">
         <v>2</v>
       </c>
-      <c r="F83" s="95"/>
-      <c r="G83" s="95"/>
-      <c r="H83" s="105"/>
+      <c r="F83" s="102"/>
+      <c r="G83" s="102"/>
+      <c r="H83" s="107"/>
     </row>
     <row r="84" spans="1:15" ht="18">
-      <c r="A84" s="110"/>
+      <c r="A84" s="113"/>
       <c r="B84" s="1">
         <v>83</v>
       </c>
@@ -3858,39 +3978,39 @@
         <v>8</v>
       </c>
       <c r="D84" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E84" s="13">
         <v>1</v>
       </c>
-      <c r="F84" s="95" t="s">
-        <v>227</v>
-      </c>
-      <c r="G84" s="95">
+      <c r="F84" s="102" t="s">
+        <v>226</v>
+      </c>
+      <c r="G84" s="102">
         <v>4</v>
       </c>
-      <c r="H84" s="105" t="s">
-        <v>252</v>
+      <c r="H84" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="18">
-      <c r="A85" s="110"/>
+      <c r="A85" s="113"/>
       <c r="B85" s="1">
         <v>84</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E85" s="13">
         <v>2</v>
       </c>
-      <c r="F85" s="95"/>
-      <c r="G85" s="95"/>
-      <c r="H85" s="105"/>
+      <c r="F85" s="102"/>
+      <c r="G85" s="102"/>
+      <c r="H85" s="107"/>
     </row>
     <row r="86" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A86" s="110"/>
+      <c r="A86" s="113"/>
       <c r="B86" s="1">
         <v>85</v>
       </c>
@@ -3903,12 +4023,12 @@
       <c r="E86" s="13">
         <v>1</v>
       </c>
-      <c r="F86" s="95"/>
-      <c r="G86" s="95"/>
-      <c r="H86" s="105"/>
+      <c r="F86" s="102"/>
+      <c r="G86" s="102"/>
+      <c r="H86" s="107"/>
     </row>
     <row r="87" spans="1:15" ht="18">
-      <c r="A87" s="110"/>
+      <c r="A87" s="113"/>
       <c r="B87" s="1">
         <v>86</v>
       </c>
@@ -3921,18 +4041,18 @@
       <c r="E87" s="13">
         <v>1</v>
       </c>
-      <c r="F87" s="95" t="s">
-        <v>228</v>
-      </c>
-      <c r="G87" s="95">
+      <c r="F87" s="102" t="s">
+        <v>227</v>
+      </c>
+      <c r="G87" s="102">
         <v>4</v>
       </c>
-      <c r="H87" s="105" t="s">
-        <v>252</v>
+      <c r="H87" s="107" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="18">
-      <c r="A88" s="110"/>
+      <c r="A88" s="113"/>
       <c r="B88" s="1">
         <v>87</v>
       </c>
@@ -3945,12 +4065,12 @@
       <c r="E88" s="13">
         <v>1</v>
       </c>
-      <c r="F88" s="95"/>
-      <c r="G88" s="95"/>
-      <c r="H88" s="105"/>
+      <c r="F88" s="102"/>
+      <c r="G88" s="102"/>
+      <c r="H88" s="107"/>
     </row>
     <row r="89" spans="1:15" ht="18">
-      <c r="A89" s="110"/>
+      <c r="A89" s="113"/>
       <c r="B89" s="1">
         <v>88</v>
       </c>
@@ -3963,12 +4083,12 @@
       <c r="E89" s="13">
         <v>1</v>
       </c>
-      <c r="F89" s="95"/>
-      <c r="G89" s="95"/>
-      <c r="H89" s="105"/>
+      <c r="F89" s="102"/>
+      <c r="G89" s="102"/>
+      <c r="H89" s="107"/>
     </row>
     <row r="90" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A90" s="110"/>
+      <c r="A90" s="113"/>
       <c r="B90" s="1">
         <v>89</v>
       </c>
@@ -3981,12 +4101,12 @@
       <c r="E90" s="13">
         <v>1</v>
       </c>
-      <c r="F90" s="95"/>
-      <c r="G90" s="95"/>
-      <c r="H90" s="105"/>
+      <c r="F90" s="102"/>
+      <c r="G90" s="102"/>
+      <c r="H90" s="107"/>
     </row>
     <row r="91" spans="1:15" ht="18">
-      <c r="A91" s="110"/>
+      <c r="A91" s="113"/>
       <c r="B91" s="1">
         <v>90</v>
       </c>
@@ -3999,24 +4119,24 @@
       <c r="E91" s="13">
         <v>2</v>
       </c>
-      <c r="F91" s="104" t="s">
-        <v>229</v>
-      </c>
-      <c r="G91" s="96">
+      <c r="F91" s="119" t="s">
+        <v>228</v>
+      </c>
+      <c r="G91" s="103">
         <v>6</v>
       </c>
-      <c r="H91" s="127" t="s">
-        <v>257</v>
+      <c r="H91" s="132" t="s">
+        <v>256</v>
       </c>
       <c r="J91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K91" s="72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="18">
-      <c r="A92" s="110"/>
+      <c r="A92" s="113"/>
       <c r="B92" s="1">
         <v>91</v>
       </c>
@@ -4024,23 +4144,23 @@
         <v>15</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E92" s="13">
         <v>1</v>
       </c>
-      <c r="F92" s="104"/>
-      <c r="G92" s="96"/>
-      <c r="H92" s="127"/>
+      <c r="F92" s="119"/>
+      <c r="G92" s="103"/>
+      <c r="H92" s="132"/>
       <c r="J92" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K92" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A93" s="110"/>
+      <c r="A93" s="113"/>
       <c r="B93" s="1">
         <v>92</v>
       </c>
@@ -4053,18 +4173,18 @@
       <c r="E93" s="13">
         <v>1</v>
       </c>
-      <c r="F93" s="104"/>
-      <c r="G93" s="96"/>
-      <c r="H93" s="127"/>
+      <c r="F93" s="119"/>
+      <c r="G93" s="103"/>
+      <c r="H93" s="132"/>
       <c r="J93" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K93" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="18">
-      <c r="A94" s="110"/>
+      <c r="A94" s="113"/>
       <c r="B94" s="1">
         <v>93</v>
       </c>
@@ -4077,17 +4197,17 @@
       <c r="E94" s="13">
         <v>1</v>
       </c>
-      <c r="F94" s="95" t="s">
-        <v>236</v>
-      </c>
-      <c r="G94" s="97"/>
-      <c r="H94" s="128"/>
+      <c r="F94" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="G94" s="104"/>
+      <c r="H94" s="133"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
@@ -4095,7 +4215,7 @@
       <c r="O94" s="5"/>
     </row>
     <row r="95" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A95" s="112"/>
+      <c r="A95" s="117"/>
       <c r="B95" s="1">
         <v>94</v>
       </c>
@@ -4106,15 +4226,15 @@
       <c r="E95" s="13">
         <v>1</v>
       </c>
-      <c r="F95" s="95"/>
-      <c r="G95" s="97"/>
-      <c r="H95" s="128"/>
+      <c r="F95" s="102"/>
+      <c r="G95" s="104"/>
+      <c r="H95" s="133"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K95" s="57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
@@ -4122,7 +4242,7 @@
       <c r="O95" s="5"/>
     </row>
     <row r="96" spans="1:15" ht="18">
-      <c r="A96" s="109" t="s">
+      <c r="A96" s="112" t="s">
         <v>143</v>
       </c>
       <c r="B96" s="1">
@@ -4137,21 +4257,21 @@
       <c r="E96" s="13">
         <v>1</v>
       </c>
-      <c r="F96" s="95" t="s">
-        <v>230</v>
-      </c>
-      <c r="G96" s="95">
+      <c r="F96" s="102" t="s">
+        <v>229</v>
+      </c>
+      <c r="G96" s="102">
         <v>4</v>
       </c>
-      <c r="H96" s="105" t="s">
-        <v>252</v>
+      <c r="H96" s="107" t="s">
+        <v>251</v>
       </c>
       <c r="I96" s="5"/>
       <c r="J96" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K96" s="57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
@@ -4159,7 +4279,7 @@
       <c r="O96" s="5"/>
     </row>
     <row r="97" spans="1:15" ht="18">
-      <c r="A97" s="110"/>
+      <c r="A97" s="113"/>
       <c r="B97" s="1">
         <v>96</v>
       </c>
@@ -4172,9 +4292,9 @@
       <c r="E97" s="13">
         <v>1</v>
       </c>
-      <c r="F97" s="95"/>
-      <c r="G97" s="95"/>
-      <c r="H97" s="105"/>
+      <c r="F97" s="102"/>
+      <c r="G97" s="102"/>
+      <c r="H97" s="107"/>
       <c r="I97" s="5"/>
       <c r="J97" s="4"/>
       <c r="K97" s="57"/>
@@ -4184,7 +4304,7 @@
       <c r="O97" s="5"/>
     </row>
     <row r="98" spans="1:15" ht="18">
-      <c r="A98" s="110"/>
+      <c r="A98" s="113"/>
       <c r="B98" s="1">
         <v>97</v>
       </c>
@@ -4197,9 +4317,9 @@
       <c r="E98" s="13">
         <v>1</v>
       </c>
-      <c r="F98" s="95"/>
-      <c r="G98" s="95"/>
-      <c r="H98" s="105"/>
+      <c r="F98" s="102"/>
+      <c r="G98" s="102"/>
+      <c r="H98" s="107"/>
       <c r="I98" s="5"/>
       <c r="J98" s="4"/>
       <c r="K98" s="57"/>
@@ -4209,7 +4329,7 @@
       <c r="O98" s="5"/>
     </row>
     <row r="99" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A99" s="110"/>
+      <c r="A99" s="113"/>
       <c r="B99" s="1">
         <v>98</v>
       </c>
@@ -4222,9 +4342,9 @@
       <c r="E99" s="13">
         <v>1</v>
       </c>
-      <c r="F99" s="95"/>
-      <c r="G99" s="95"/>
-      <c r="H99" s="105"/>
+      <c r="F99" s="102"/>
+      <c r="G99" s="102"/>
+      <c r="H99" s="107"/>
       <c r="I99" s="5"/>
       <c r="J99" s="4"/>
       <c r="K99" s="57"/>
@@ -4234,7 +4354,7 @@
       <c r="O99" s="5"/>
     </row>
     <row r="100" spans="1:15" ht="18">
-      <c r="A100" s="110"/>
+      <c r="A100" s="113"/>
       <c r="B100" s="1">
         <v>99</v>
       </c>
@@ -4247,14 +4367,14 @@
       <c r="E100" s="13">
         <v>1</v>
       </c>
-      <c r="F100" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="G100" s="95">
+      <c r="F100" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="G100" s="102">
         <v>4</v>
       </c>
-      <c r="H100" s="105" t="s">
-        <v>252</v>
+      <c r="H100" s="107" t="s">
+        <v>251</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="4"/>
@@ -4265,7 +4385,7 @@
       <c r="O100" s="5"/>
     </row>
     <row r="101" spans="1:15" ht="18">
-      <c r="A101" s="110"/>
+      <c r="A101" s="113"/>
       <c r="B101" s="1">
         <v>100</v>
       </c>
@@ -4278,9 +4398,9 @@
       <c r="E101" s="13">
         <v>1</v>
       </c>
-      <c r="F101" s="95"/>
-      <c r="G101" s="95"/>
-      <c r="H101" s="105"/>
+      <c r="F101" s="102"/>
+      <c r="G101" s="102"/>
+      <c r="H101" s="107"/>
       <c r="I101" s="5"/>
       <c r="J101" s="4"/>
       <c r="K101" s="57"/>
@@ -4290,7 +4410,7 @@
       <c r="O101" s="5"/>
     </row>
     <row r="102" spans="1:15" ht="18">
-      <c r="A102" s="110"/>
+      <c r="A102" s="113"/>
       <c r="B102" s="1">
         <v>101</v>
       </c>
@@ -4303,9 +4423,9 @@
       <c r="E102" s="13">
         <v>1</v>
       </c>
-      <c r="F102" s="95"/>
-      <c r="G102" s="95"/>
-      <c r="H102" s="105"/>
+      <c r="F102" s="102"/>
+      <c r="G102" s="102"/>
+      <c r="H102" s="107"/>
       <c r="I102" s="4"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -4315,7 +4435,7 @@
       <c r="O102" s="5"/>
     </row>
     <row r="103" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A103" s="110"/>
+      <c r="A103" s="113"/>
       <c r="B103" s="1">
         <v>102</v>
       </c>
@@ -4328,9 +4448,9 @@
       <c r="E103" s="13">
         <v>1</v>
       </c>
-      <c r="F103" s="95"/>
-      <c r="G103" s="95"/>
-      <c r="H103" s="105"/>
+      <c r="F103" s="102"/>
+      <c r="G103" s="102"/>
+      <c r="H103" s="107"/>
       <c r="I103" s="4"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -4340,7 +4460,7 @@
       <c r="O103" s="5"/>
     </row>
     <row r="104" spans="1:15" ht="18">
-      <c r="A104" s="110"/>
+      <c r="A104" s="113"/>
       <c r="B104" s="1">
         <v>103</v>
       </c>
@@ -4353,14 +4473,14 @@
       <c r="E104" s="13">
         <v>1</v>
       </c>
-      <c r="F104" s="95" t="s">
-        <v>232</v>
-      </c>
-      <c r="G104" s="95">
+      <c r="F104" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="G104" s="102">
         <v>5</v>
       </c>
-      <c r="H104" s="105" t="s">
-        <v>252</v>
+      <c r="H104" s="107" t="s">
+        <v>251</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="5"/>
@@ -4371,20 +4491,20 @@
       <c r="O104" s="5"/>
     </row>
     <row r="105" spans="1:15" ht="18">
-      <c r="A105" s="110"/>
+      <c r="A105" s="113"/>
       <c r="B105" s="1">
         <v>104</v>
       </c>
       <c r="C105" s="16"/>
       <c r="D105" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E105" s="13">
         <v>1</v>
       </c>
-      <c r="F105" s="95"/>
-      <c r="G105" s="95"/>
-      <c r="H105" s="105"/>
+      <c r="F105" s="102"/>
+      <c r="G105" s="102"/>
+      <c r="H105" s="107"/>
       <c r="I105" s="4"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
@@ -4394,7 +4514,7 @@
       <c r="O105" s="5"/>
     </row>
     <row r="106" spans="1:15" ht="18">
-      <c r="A106" s="110"/>
+      <c r="A106" s="113"/>
       <c r="B106" s="1">
         <v>105</v>
       </c>
@@ -4407,9 +4527,9 @@
       <c r="E106" s="13">
         <v>2</v>
       </c>
-      <c r="F106" s="95"/>
-      <c r="G106" s="95"/>
-      <c r="H106" s="105"/>
+      <c r="F106" s="102"/>
+      <c r="G106" s="102"/>
+      <c r="H106" s="107"/>
       <c r="I106" s="4"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
@@ -4419,7 +4539,7 @@
       <c r="O106" s="5"/>
     </row>
     <row r="107" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A107" s="112"/>
+      <c r="A107" s="117"/>
       <c r="B107" s="1">
         <v>106</v>
       </c>
@@ -4432,9 +4552,9 @@
       <c r="E107" s="13">
         <v>1</v>
       </c>
-      <c r="F107" s="95"/>
-      <c r="G107" s="95"/>
-      <c r="H107" s="105"/>
+      <c r="F107" s="102"/>
+      <c r="G107" s="102"/>
+      <c r="H107" s="107"/>
       <c r="I107" s="4"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
@@ -4444,7 +4564,7 @@
       <c r="O107" s="5"/>
     </row>
     <row r="108" spans="1:15" ht="18">
-      <c r="A108" s="109" t="s">
+      <c r="A108" s="112" t="s">
         <v>144</v>
       </c>
       <c r="B108" s="1">
@@ -4460,7 +4580,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H108" s="59"/>
       <c r="I108" s="4"/>
@@ -4472,7 +4592,7 @@
       <c r="O108" s="5"/>
     </row>
     <row r="109" spans="1:15" ht="18" customHeight="1">
-      <c r="A109" s="110"/>
+      <c r="A109" s="113"/>
       <c r="B109" s="1">
         <v>108</v>
       </c>
@@ -4486,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H109" s="59"/>
       <c r="I109" s="5"/>
@@ -4498,7 +4618,7 @@
       <c r="O109" s="5"/>
     </row>
     <row r="110" spans="1:15" ht="18">
-      <c r="A110" s="110"/>
+      <c r="A110" s="113"/>
       <c r="B110" s="1">
         <v>109</v>
       </c>
@@ -4512,12 +4632,12 @@
         <v>1</v>
       </c>
       <c r="F110" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H110" s="59"/>
     </row>
     <row r="111" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A111" s="110"/>
+      <c r="A111" s="113"/>
       <c r="B111" s="1">
         <v>110</v>
       </c>
@@ -4531,12 +4651,12 @@
         <v>2</v>
       </c>
       <c r="F111" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H111" s="59"/>
     </row>
     <row r="112" spans="1:15" ht="18">
-      <c r="A112" s="110"/>
+      <c r="A112" s="113"/>
       <c r="B112" s="1">
         <v>111</v>
       </c>
@@ -4550,12 +4670,12 @@
         <v>1</v>
       </c>
       <c r="F112" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H112" s="59"/>
     </row>
     <row r="113" spans="1:8" ht="18">
-      <c r="A113" s="110"/>
+      <c r="A113" s="113"/>
       <c r="B113" s="1">
         <v>112</v>
       </c>
@@ -4569,12 +4689,12 @@
         <v>1</v>
       </c>
       <c r="F113" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H113" s="59"/>
     </row>
     <row r="114" spans="1:8" ht="18">
-      <c r="A114" s="110"/>
+      <c r="A114" s="113"/>
       <c r="B114" s="1">
         <v>113</v>
       </c>
@@ -4588,12 +4708,12 @@
         <v>1</v>
       </c>
       <c r="F114" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H114" s="59"/>
     </row>
     <row r="115" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A115" s="110"/>
+      <c r="A115" s="113"/>
       <c r="B115" s="1">
         <v>114</v>
       </c>
@@ -4605,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H115" s="59"/>
     </row>
@@ -4621,7 +4741,7 @@
       <c r="H116" s="59"/>
     </row>
     <row r="117" spans="1:8" ht="18">
-      <c r="A117" s="106" t="s">
+      <c r="A117" s="115" t="s">
         <v>145</v>
       </c>
       <c r="B117" s="1">
@@ -4636,18 +4756,18 @@
       <c r="E117" s="66">
         <v>1</v>
       </c>
-      <c r="F117" s="98" t="s">
-        <v>233</v>
-      </c>
-      <c r="G117" s="98">
+      <c r="F117" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="G117" s="105">
         <v>6</v>
       </c>
-      <c r="H117" s="125" t="s">
-        <v>252</v>
+      <c r="H117" s="134" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="18" customHeight="1">
-      <c r="A118" s="107"/>
+      <c r="A118" s="116"/>
       <c r="B118" s="1">
         <v>109</v>
       </c>
@@ -4660,12 +4780,12 @@
       <c r="E118" s="66">
         <v>1</v>
       </c>
-      <c r="F118" s="87"/>
-      <c r="G118" s="87"/>
-      <c r="H118" s="90"/>
+      <c r="F118" s="91"/>
+      <c r="G118" s="91"/>
+      <c r="H118" s="94"/>
     </row>
     <row r="119" spans="1:8" ht="18">
-      <c r="A119" s="107"/>
+      <c r="A119" s="116"/>
       <c r="B119" s="1">
         <v>110</v>
       </c>
@@ -4678,12 +4798,12 @@
       <c r="E119" s="66">
         <v>1</v>
       </c>
-      <c r="F119" s="87"/>
-      <c r="G119" s="87"/>
-      <c r="H119" s="90"/>
+      <c r="F119" s="91"/>
+      <c r="G119" s="91"/>
+      <c r="H119" s="94"/>
     </row>
     <row r="120" spans="1:8" ht="18">
-      <c r="A120" s="107"/>
+      <c r="A120" s="116"/>
       <c r="B120" s="1">
         <v>111</v>
       </c>
@@ -4696,12 +4816,12 @@
       <c r="E120" s="66">
         <v>1</v>
       </c>
-      <c r="F120" s="87"/>
-      <c r="G120" s="87"/>
-      <c r="H120" s="90"/>
+      <c r="F120" s="91"/>
+      <c r="G120" s="91"/>
+      <c r="H120" s="94"/>
     </row>
     <row r="121" spans="1:8" ht="18">
-      <c r="A121" s="107"/>
+      <c r="A121" s="116"/>
       <c r="B121" s="1">
         <v>112</v>
       </c>
@@ -4714,12 +4834,12 @@
       <c r="E121" s="66">
         <v>1</v>
       </c>
-      <c r="F121" s="87"/>
-      <c r="G121" s="87"/>
-      <c r="H121" s="90"/>
+      <c r="F121" s="91"/>
+      <c r="G121" s="91"/>
+      <c r="H121" s="94"/>
     </row>
     <row r="122" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A122" s="107"/>
+      <c r="A122" s="116"/>
       <c r="B122" s="1">
         <v>113</v>
       </c>
@@ -4732,12 +4852,12 @@
       <c r="E122" s="66">
         <v>1</v>
       </c>
-      <c r="F122" s="99"/>
-      <c r="G122" s="99"/>
-      <c r="H122" s="126"/>
+      <c r="F122" s="106"/>
+      <c r="G122" s="106"/>
+      <c r="H122" s="135"/>
     </row>
     <row r="123" spans="1:8" ht="18.75" thickTop="1">
-      <c r="A123" s="107"/>
+      <c r="A123" s="116"/>
       <c r="B123" s="1">
         <v>114</v>
       </c>
@@ -4750,18 +4870,18 @@
       <c r="E123" s="66">
         <v>1</v>
       </c>
-      <c r="F123" s="86" t="s">
-        <v>234</v>
-      </c>
-      <c r="G123" s="86">
+      <c r="F123" s="90" t="s">
+        <v>233</v>
+      </c>
+      <c r="G123" s="90">
         <v>5</v>
       </c>
-      <c r="H123" s="89" t="s">
-        <v>252</v>
+      <c r="H123" s="93" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="18">
-      <c r="A124" s="107"/>
+      <c r="A124" s="116"/>
       <c r="B124" s="1">
         <v>115</v>
       </c>
@@ -4774,12 +4894,12 @@
       <c r="E124" s="66">
         <v>1</v>
       </c>
-      <c r="F124" s="87"/>
-      <c r="G124" s="87"/>
-      <c r="H124" s="90"/>
+      <c r="F124" s="91"/>
+      <c r="G124" s="91"/>
+      <c r="H124" s="94"/>
     </row>
     <row r="125" spans="1:8" ht="18">
-      <c r="A125" s="107"/>
+      <c r="A125" s="116"/>
       <c r="B125" s="1">
         <v>116</v>
       </c>
@@ -4792,12 +4912,12 @@
       <c r="E125" s="66">
         <v>1</v>
       </c>
-      <c r="F125" s="87"/>
-      <c r="G125" s="87"/>
-      <c r="H125" s="90"/>
+      <c r="F125" s="91"/>
+      <c r="G125" s="91"/>
+      <c r="H125" s="94"/>
     </row>
     <row r="126" spans="1:8" ht="18">
-      <c r="A126" s="107"/>
+      <c r="A126" s="116"/>
       <c r="B126" s="1">
         <v>117</v>
       </c>
@@ -4810,12 +4930,12 @@
       <c r="E126" s="66">
         <v>1</v>
       </c>
-      <c r="F126" s="87"/>
-      <c r="G126" s="87"/>
-      <c r="H126" s="90"/>
+      <c r="F126" s="91"/>
+      <c r="G126" s="91"/>
+      <c r="H126" s="94"/>
     </row>
     <row r="127" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A127" s="107"/>
+      <c r="A127" s="116"/>
       <c r="B127" s="1">
         <v>118</v>
       </c>
@@ -4828,9 +4948,9 @@
       <c r="E127" s="82">
         <v>1</v>
       </c>
-      <c r="F127" s="88"/>
-      <c r="G127" s="88"/>
-      <c r="H127" s="91"/>
+      <c r="F127" s="92"/>
+      <c r="G127" s="92"/>
+      <c r="H127" s="95"/>
     </row>
     <row r="128" spans="1:8" ht="18.75" thickTop="1">
       <c r="A128" s="55"/>
@@ -4839,19 +4959,19 @@
         <v>12</v>
       </c>
       <c r="D128" s="84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E128" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="F128" s="92" t="s">
-        <v>235</v>
-      </c>
-      <c r="G128" s="92">
+        <v>254</v>
+      </c>
+      <c r="F128" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="G128" s="96">
         <v>5</v>
       </c>
-      <c r="H128" s="129" t="s">
-        <v>258</v>
+      <c r="H128" s="99" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="18">
@@ -4861,14 +4981,14 @@
         <v>13</v>
       </c>
       <c r="D129" s="84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E129" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="F129" s="93"/>
-      <c r="G129" s="93"/>
-      <c r="H129" s="130"/>
+        <v>254</v>
+      </c>
+      <c r="F129" s="97"/>
+      <c r="G129" s="97"/>
+      <c r="H129" s="100"/>
     </row>
     <row r="130" spans="1:8" ht="18">
       <c r="A130" s="55"/>
@@ -4877,14 +4997,14 @@
         <v>14</v>
       </c>
       <c r="D130" s="84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E130" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="F130" s="93"/>
-      <c r="G130" s="93"/>
-      <c r="H130" s="130"/>
+        <v>254</v>
+      </c>
+      <c r="F130" s="97"/>
+      <c r="G130" s="97"/>
+      <c r="H130" s="100"/>
     </row>
     <row r="131" spans="1:8" ht="18">
       <c r="A131" s="55"/>
@@ -4893,14 +5013,14 @@
         <v>15</v>
       </c>
       <c r="D131" s="84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E131" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="F131" s="93"/>
-      <c r="G131" s="93"/>
-      <c r="H131" s="130"/>
+        <v>254</v>
+      </c>
+      <c r="F131" s="97"/>
+      <c r="G131" s="97"/>
+      <c r="H131" s="100"/>
     </row>
     <row r="132" spans="1:8" ht="18">
       <c r="A132" s="55"/>
@@ -4909,14 +5029,14 @@
         <v>16</v>
       </c>
       <c r="D132" s="84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E132" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="F132" s="94"/>
-      <c r="G132" s="94"/>
-      <c r="H132" s="131"/>
+        <v>254</v>
+      </c>
+      <c r="F132" s="98"/>
+      <c r="G132" s="98"/>
+      <c r="H132" s="101"/>
     </row>
     <row r="133" spans="1:8" ht="18">
       <c r="A133" s="55"/>
@@ -5562,7 +5682,7 @@
       <c r="H196" s="7"/>
     </row>
     <row r="197" spans="1:8" ht="18">
-      <c r="A197" s="111"/>
+      <c r="A197" s="114"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="4"/>
@@ -5572,7 +5692,7 @@
       <c r="H197" s="7"/>
     </row>
     <row r="198" spans="1:8" ht="18">
-      <c r="A198" s="111"/>
+      <c r="A198" s="114"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="4"/>
@@ -5580,7 +5700,7 @@
       <c r="F198" s="61"/>
     </row>
     <row r="199" spans="1:8" ht="18">
-      <c r="A199" s="111"/>
+      <c r="A199" s="114"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
@@ -5588,7 +5708,7 @@
       <c r="F199" s="61"/>
     </row>
     <row r="200" spans="1:8" ht="18">
-      <c r="A200" s="111"/>
+      <c r="A200" s="114"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="4"/>
@@ -5596,7 +5716,7 @@
       <c r="F200" s="61"/>
     </row>
     <row r="201" spans="1:8" ht="18">
-      <c r="A201" s="111"/>
+      <c r="A201" s="114"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="4"/>
@@ -5604,7 +5724,7 @@
       <c r="F201" s="61"/>
     </row>
     <row r="202" spans="1:8" ht="18">
-      <c r="A202" s="111"/>
+      <c r="A202" s="114"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="4"/>
@@ -5612,7 +5732,7 @@
       <c r="F202" s="61"/>
     </row>
     <row r="203" spans="1:8" ht="18">
-      <c r="A203" s="111"/>
+      <c r="A203" s="114"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="4"/>
@@ -5620,7 +5740,7 @@
       <c r="F203" s="61"/>
     </row>
     <row r="204" spans="1:8" ht="18">
-      <c r="A204" s="111"/>
+      <c r="A204" s="114"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="4"/>
@@ -5628,7 +5748,7 @@
       <c r="F204" s="61"/>
     </row>
     <row r="205" spans="1:8" ht="18">
-      <c r="A205" s="111"/>
+      <c r="A205" s="114"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="4"/>
@@ -5636,7 +5756,7 @@
       <c r="F205" s="61"/>
     </row>
     <row r="206" spans="1:8" ht="18">
-      <c r="A206" s="111"/>
+      <c r="A206" s="114"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="4"/>
@@ -5644,7 +5764,7 @@
       <c r="F206" s="61"/>
     </row>
     <row r="207" spans="1:8" ht="18">
-      <c r="A207" s="111"/>
+      <c r="A207" s="114"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="4"/>
@@ -5652,7 +5772,7 @@
       <c r="F207" s="61"/>
     </row>
     <row r="208" spans="1:8" ht="18">
-      <c r="A208" s="111"/>
+      <c r="A208" s="114"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="4"/>
@@ -5660,7 +5780,7 @@
       <c r="F208" s="61"/>
     </row>
     <row r="209" spans="1:6" ht="18">
-      <c r="A209" s="111"/>
+      <c r="A209" s="114"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="4"/>
@@ -5676,7 +5796,7 @@
       <c r="F210" s="61"/>
     </row>
     <row r="211" spans="1:6" ht="18">
-      <c r="A211" s="111"/>
+      <c r="A211" s="114"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="4"/>
@@ -5684,7 +5804,7 @@
       <c r="F211" s="61"/>
     </row>
     <row r="212" spans="1:6" ht="18">
-      <c r="A212" s="111"/>
+      <c r="A212" s="114"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="4"/>
@@ -5692,7 +5812,7 @@
       <c r="F212" s="61"/>
     </row>
     <row r="213" spans="1:6" ht="18">
-      <c r="A213" s="111"/>
+      <c r="A213" s="114"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="4"/>
@@ -5700,7 +5820,7 @@
       <c r="F213" s="61"/>
     </row>
     <row r="214" spans="1:6" ht="18">
-      <c r="A214" s="111"/>
+      <c r="A214" s="114"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="4"/>
@@ -5708,7 +5828,7 @@
       <c r="F214" s="61"/>
     </row>
     <row r="215" spans="1:6" ht="18">
-      <c r="A215" s="111"/>
+      <c r="A215" s="114"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="4"/>
@@ -5716,7 +5836,7 @@
       <c r="F215" s="61"/>
     </row>
     <row r="216" spans="1:6" ht="18">
-      <c r="A216" s="111"/>
+      <c r="A216" s="114"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="4"/>
@@ -5724,7 +5844,7 @@
       <c r="F216" s="61"/>
     </row>
     <row r="217" spans="1:6" ht="18">
-      <c r="A217" s="111"/>
+      <c r="A217" s="114"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="4"/>
@@ -5732,7 +5852,7 @@
       <c r="F217" s="61"/>
     </row>
     <row r="218" spans="1:6" ht="18">
-      <c r="A218" s="111"/>
+      <c r="A218" s="114"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="4"/>
@@ -5740,7 +5860,7 @@
       <c r="F218" s="61"/>
     </row>
     <row r="219" spans="1:6" ht="18">
-      <c r="A219" s="111"/>
+      <c r="A219" s="114"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="4"/>
@@ -5748,7 +5868,7 @@
       <c r="F219" s="61"/>
     </row>
     <row r="220" spans="1:6" ht="18">
-      <c r="A220" s="111"/>
+      <c r="A220" s="114"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="4"/>
@@ -5756,7 +5876,7 @@
       <c r="F220" s="61"/>
     </row>
     <row r="221" spans="1:6" ht="18">
-      <c r="A221" s="111"/>
+      <c r="A221" s="114"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="4"/>
@@ -5764,7 +5884,7 @@
       <c r="F221" s="61"/>
     </row>
     <row r="222" spans="1:6" ht="18">
-      <c r="A222" s="111"/>
+      <c r="A222" s="114"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="4"/>
@@ -5772,7 +5892,7 @@
       <c r="F222" s="61"/>
     </row>
     <row r="223" spans="1:6" ht="18">
-      <c r="A223" s="111"/>
+      <c r="A223" s="114"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="4"/>
@@ -5780,7 +5900,7 @@
       <c r="F223" s="61"/>
     </row>
     <row r="224" spans="1:6" ht="18">
-      <c r="A224" s="111"/>
+      <c r="A224" s="114"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="4"/>
@@ -5788,7 +5908,7 @@
       <c r="F224" s="61"/>
     </row>
     <row r="225" spans="1:6" ht="18">
-      <c r="A225" s="111"/>
+      <c r="A225" s="114"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="4"/>
@@ -5796,7 +5916,7 @@
       <c r="F225" s="61"/>
     </row>
     <row r="226" spans="1:6" ht="18">
-      <c r="A226" s="111"/>
+      <c r="A226" s="114"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="4"/>
@@ -5804,7 +5924,7 @@
       <c r="F226" s="61"/>
     </row>
     <row r="227" spans="1:6" ht="18">
-      <c r="A227" s="111"/>
+      <c r="A227" s="114"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="4"/>
@@ -5812,7 +5932,7 @@
       <c r="F227" s="61"/>
     </row>
     <row r="228" spans="1:6" ht="18">
-      <c r="A228" s="111"/>
+      <c r="A228" s="114"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="4"/>
@@ -5820,7 +5940,7 @@
       <c r="F228" s="61"/>
     </row>
     <row r="229" spans="1:6" ht="18">
-      <c r="A229" s="111"/>
+      <c r="A229" s="114"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="4"/>
@@ -5828,7 +5948,7 @@
       <c r="F229" s="61"/>
     </row>
     <row r="230" spans="1:6" ht="18">
-      <c r="A230" s="111"/>
+      <c r="A230" s="114"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="4"/>
@@ -5836,7 +5956,7 @@
       <c r="F230" s="61"/>
     </row>
     <row r="231" spans="1:6" ht="18">
-      <c r="A231" s="111"/>
+      <c r="A231" s="114"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="4"/>
@@ -5844,7 +5964,7 @@
       <c r="F231" s="61"/>
     </row>
     <row r="232" spans="1:6" ht="18">
-      <c r="A232" s="111"/>
+      <c r="A232" s="114"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="4"/>
@@ -5852,7 +5972,7 @@
       <c r="F232" s="61"/>
     </row>
     <row r="233" spans="1:6" ht="18">
-      <c r="A233" s="111"/>
+      <c r="A233" s="114"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="4"/>
@@ -5860,7 +5980,7 @@
       <c r="F233" s="61"/>
     </row>
     <row r="234" spans="1:6" ht="18">
-      <c r="A234" s="111"/>
+      <c r="A234" s="114"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="4"/>
@@ -5868,7 +5988,7 @@
       <c r="F234" s="61"/>
     </row>
     <row r="235" spans="1:6" ht="18">
-      <c r="A235" s="111"/>
+      <c r="A235" s="114"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="4"/>
@@ -5930,9 +6050,7 @@
     <mergeCell ref="H59:H62"/>
     <mergeCell ref="H67:H70"/>
     <mergeCell ref="H71:H74"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="H63:H66"/>
     <mergeCell ref="H47:H50"/>
     <mergeCell ref="H51:H53"/>
     <mergeCell ref="H54:H56"/>
@@ -5963,6 +6081,17 @@
     <mergeCell ref="G33:G36"/>
     <mergeCell ref="G37:G40"/>
     <mergeCell ref="A29:A46"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H37:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H46"/>
     <mergeCell ref="A108:A115"/>
     <mergeCell ref="A197:A209"/>
     <mergeCell ref="A211:A235"/>
@@ -5979,23 +6108,14 @@
     <mergeCell ref="F79:F81"/>
     <mergeCell ref="F84:F86"/>
     <mergeCell ref="F91:F93"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="H33:H36"/>
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="G75:G78"/>
     <mergeCell ref="G79:G81"/>
     <mergeCell ref="G82:G83"/>
     <mergeCell ref="G84:G86"/>
-    <mergeCell ref="H63:H66"/>
     <mergeCell ref="G24:G26"/>
     <mergeCell ref="G27:G28"/>
     <mergeCell ref="F29:F32"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F41:F42"/>
     <mergeCell ref="F57:F58"/>
     <mergeCell ref="F82:F83"/>
     <mergeCell ref="F94:F95"/>
@@ -6044,170 +6164,267 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:F25"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" thickBot="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18">
-      <c r="A2" s="42" t="s">
+      <c r="C1" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="43" t="s">
+      <c r="C2" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="136">
+        <v>8</v>
+      </c>
+      <c r="E2" s="136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" thickBot="1">
-      <c r="A4" s="43" t="s">
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+    </row>
+    <row r="4" spans="1:5" ht="18">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="53" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" thickBot="1">
-      <c r="A5" s="44" t="s">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+    </row>
+    <row r="5" spans="1:5" ht="18">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+    </row>
+    <row r="6" spans="1:5" ht="18">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+    </row>
+    <row r="7" spans="1:5" ht="18">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+    </row>
+    <row r="8" spans="1:5" ht="18">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+    </row>
+    <row r="9" spans="1:5" ht="18">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+    </row>
+    <row r="10" spans="1:5" ht="18">
+      <c r="B10" s="88" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18">
+      <c r="B11" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18">
+      <c r="B12" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" thickBot="1">
+      <c r="B13" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18">
+      <c r="B14" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18">
+      <c r="B15" s="43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18">
+      <c r="B16" s="43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="18.75" thickBot="1">
+      <c r="B17" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="18">
+      <c r="B18" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="18">
+      <c r="B19" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="18">
+      <c r="B20" s="43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="18.75" thickBot="1">
+      <c r="B21" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="18">
+      <c r="B22" s="42" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18">
-      <c r="A6" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="43" t="s">
+    <row r="23" spans="2:2" ht="18">
+      <c r="B23" s="43" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18">
-      <c r="A7" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="43" t="s">
+    <row r="24" spans="2:2" ht="18">
+      <c r="B24" s="43" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" thickBot="1">
-      <c r="A8" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="44" t="s">
+    <row r="25" spans="2:2" ht="18.75" thickBot="1">
+      <c r="B25" s="44" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" thickBot="1">
-      <c r="A9" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="42" t="s">
+    <row r="26" spans="2:2" ht="18">
+      <c r="B26" s="42" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18">
-      <c r="A10" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="43" t="s">
+    <row r="27" spans="2:2" ht="18">
+      <c r="B27" s="43" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" thickBot="1">
-      <c r="A11" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="44" t="s">
+    <row r="28" spans="2:2" ht="18.75" thickBot="1">
+      <c r="B28" s="44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18">
-      <c r="A12" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="42" t="s">
+    <row r="29" spans="2:2" ht="18">
+      <c r="B29" s="42" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75" thickBot="1">
-      <c r="A13" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="43" t="s">
+    <row r="30" spans="2:2" ht="18">
+      <c r="B30" s="43" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75" thickBot="1">
-      <c r="A14" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="44" t="s">
+    <row r="31" spans="2:2" ht="18.75" thickBot="1">
+      <c r="B31" s="44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18">
-      <c r="A15" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="42" t="s">
+    <row r="32" spans="2:2" ht="18">
+      <c r="B32" s="42" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18">
-      <c r="A16" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="43" t="s">
+    <row r="33" spans="2:2" ht="18">
+      <c r="B33" s="43" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.75" thickBot="1">
-      <c r="A17" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="43" t="s">
+    <row r="34" spans="2:2" ht="18">
+      <c r="B34" s="43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18.75" thickBot="1">
-      <c r="A18" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="47" t="s">
+    <row r="35" spans="2:2" ht="18.75" thickBot="1">
+      <c r="B35" s="47" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18">
-      <c r="A19" s="43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18">
-      <c r="A20" s="43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" thickBot="1">
-      <c r="A21" s="44" t="s">
-        <v>113</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6274,13 +6491,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="9"/>
       <c r="B8" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
@@ -6413,122 +6630,122 @@
     </row>
     <row r="2" spans="1:1" ht="18">
       <c r="A2" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18">
       <c r="A3" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18">
       <c r="A4" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18">
       <c r="A5" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18">
       <c r="A6" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18">
       <c r="A7" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18">
       <c r="A8" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18">
       <c r="A9" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18">
       <c r="A10" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18">
       <c r="A11" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18">
       <c r="A12" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18">
       <c r="A13" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18">
       <c r="A14" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18">
       <c r="A15" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18">
       <c r="A16" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18">
       <c r="A17" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18">
       <c r="A18" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18">
       <c r="A19" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18">
       <c r="A20" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18">
       <c r="A21" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18">
       <c r="A22" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18">
       <c r="A23" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18">
       <c r="A24" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18">
       <c r="A25" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18">
@@ -6551,32 +6768,32 @@
     </row>
     <row r="39" spans="1:1" ht="18">
       <c r="A39" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18">
       <c r="A40" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18">
       <c r="A41" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18">
       <c r="A42" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18">
       <c r="A43" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18">
       <c r="A44" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6586,4 +6803,139 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="89" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" thickBot="1">
+      <c r="A1" s="143" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="143" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.5" thickTop="1">
+      <c r="A2" s="138" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="141" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="141"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="139" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="139"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="139"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="139"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="139"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="139"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="138" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="87" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="139" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="139"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="139"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="139"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="140" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="142" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2012 08 29 зняті жести.xlsx
+++ b/2012 08 29 зняті жести.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="13470" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="13470"/>
   </bookViews>
   <sheets>
     <sheet name="жести" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="288">
   <si>
     <t>Здраствуй (те)</t>
   </si>
@@ -923,12 +923,30 @@
   <si>
     <t>M5_01_gest0_sample1</t>
   </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>Примітки:</t>
+  </si>
+  <si>
+    <t>2. Файл з "У" (останній екземпляр) трохи зарано обрізаний. Але це не суттєво.</t>
+  </si>
+  <si>
+    <t>1. Початкова позиція у всіх файлах дактильної абетки відрізняється від початкої позиції в інших файлах.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -1015,6 +1033,11 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1090,7 +1113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1479,106 +1502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1587,19 +1510,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1663,14 +1775,12 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1743,124 +1853,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1887,38 +1904,190 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Заголовок 2" xfId="3" builtinId="17"/>
@@ -2290,9 +2459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2300,1858 +2469,1858 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="46"/>
-    <col min="6" max="6" width="12" style="59" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="59" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="44"/>
+    <col min="6" max="6" width="12" style="56" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="56" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="K1" s="124"/>
+      <c r="K1" s="90"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="102" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="D2" s="69" t="s">
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13">
-        <v>1</v>
-      </c>
-      <c r="F2" s="131" t="s">
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="97" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="131">
+      <c r="G2" s="97">
         <v>4</v>
       </c>
-      <c r="H2" s="130" t="s">
+      <c r="H2" s="96" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="116"/>
+      <c r="A3" s="103"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>2</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="107"/>
+      <c r="D3" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="86"/>
     </row>
     <row r="4" spans="1:11" ht="18">
-      <c r="A4" s="116"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>3</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="107"/>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" thickBot="1">
-      <c r="A5" s="116"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>4</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="107"/>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="86"/>
     </row>
     <row r="6" spans="1:11" ht="18">
-      <c r="A6" s="116"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>5</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>2</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="98" t="s">
         <v>200</v>
       </c>
-      <c r="G6" s="102">
+      <c r="G6" s="98">
         <v>4</v>
       </c>
-      <c r="H6" s="107" t="s">
+      <c r="H6" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18.75" thickBot="1">
-      <c r="A7" s="116"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>6</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>2</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="107"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="18">
-      <c r="A8" s="116"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>7</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="13">
-        <v>1</v>
-      </c>
-      <c r="F8" s="102" t="s">
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="G8" s="102">
+      <c r="G8" s="98">
         <v>4</v>
       </c>
-      <c r="H8" s="107" t="s">
+      <c r="H8" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18">
-      <c r="A9" s="116"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>8</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="107"/>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="86"/>
     </row>
     <row r="10" spans="1:11" ht="18">
-      <c r="A10" s="116"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="71" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="107"/>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="86"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" thickBot="1">
-      <c r="A11" s="116"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>9</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="107"/>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="86"/>
     </row>
     <row r="12" spans="1:11" ht="18">
-      <c r="A12" s="116"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>10</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="13">
-        <v>1</v>
-      </c>
-      <c r="F12" s="102" t="s">
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="98" t="s">
         <v>202</v>
       </c>
-      <c r="G12" s="102">
+      <c r="G12" s="98">
         <v>4</v>
       </c>
-      <c r="H12" s="107" t="s">
+      <c r="H12" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18">
-      <c r="A13" s="116"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>11</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="107"/>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="86"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" thickBot="1">
-      <c r="A14" s="116"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>12</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>2</v>
       </c>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="107"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="86"/>
     </row>
     <row r="15" spans="1:11" ht="18">
-      <c r="A15" s="116"/>
+      <c r="A15" s="103"/>
       <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>13</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="13">
-        <v>1</v>
-      </c>
-      <c r="F15" s="102" t="s">
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="102">
+      <c r="G15" s="98">
         <v>4</v>
       </c>
-      <c r="H15" s="107" t="s">
+      <c r="H15" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18">
-      <c r="A16" s="116"/>
+      <c r="A16" s="103"/>
       <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>14</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="13">
-        <v>1</v>
-      </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="107"/>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A17" s="116"/>
+      <c r="A17" s="103"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>15</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="49">
         <v>2</v>
       </c>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="107"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="86"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" thickTop="1">
-      <c r="A18" s="116"/>
-      <c r="B18" s="64">
+      <c r="A18" s="103"/>
+      <c r="B18" s="61">
         <v>17</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="62">
         <v>16</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="60">
         <v>2</v>
       </c>
-      <c r="F18" s="125" t="s">
+      <c r="F18" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="G18" s="128">
+      <c r="G18" s="94">
         <v>5</v>
       </c>
-      <c r="H18" s="120" t="s">
+      <c r="H18" s="99" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18">
-      <c r="A19" s="116"/>
-      <c r="B19" s="64">
+      <c r="A19" s="103"/>
+      <c r="B19" s="61">
         <v>18</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="62">
         <v>17</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="60">
         <v>2</v>
       </c>
-      <c r="F19" s="126"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="120"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="99"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A20" s="116"/>
+      <c r="A20" s="103"/>
       <c r="B20" s="1">
         <v>19</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>18</v>
       </c>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="E20" s="79">
-        <v>1</v>
-      </c>
-      <c r="F20" s="126"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="67"/>
+      <c r="E20" s="76">
+        <v>1</v>
+      </c>
+      <c r="F20" s="92"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="64"/>
     </row>
     <row r="21" spans="1:9" ht="18.75" thickTop="1">
-      <c r="A21" s="116"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>19</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="66">
-        <v>1</v>
-      </c>
-      <c r="F21" s="127" t="s">
+      <c r="E21" s="63">
+        <v>1</v>
+      </c>
+      <c r="F21" s="93" t="s">
         <v>205</v>
       </c>
-      <c r="G21" s="127">
+      <c r="G21" s="93">
         <v>3</v>
       </c>
-      <c r="H21" s="122" t="s">
+      <c r="H21" s="101" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="116"/>
+      <c r="A22" s="103"/>
       <c r="B22" s="1">
         <v>21</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>20</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="66">
-        <v>1</v>
-      </c>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="122"/>
+      <c r="E22" s="63">
+        <v>1</v>
+      </c>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="101"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A23" s="116"/>
+      <c r="A23" s="103"/>
       <c r="B23" s="1">
         <v>22</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>21</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="66">
-        <v>1</v>
-      </c>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="122"/>
+      <c r="E23" s="63">
+        <v>1</v>
+      </c>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="101"/>
     </row>
     <row r="24" spans="1:9" ht="18">
-      <c r="A24" s="116"/>
+      <c r="A24" s="103"/>
       <c r="B24" s="1">
         <v>23</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>22</v>
       </c>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="68">
-        <v>1</v>
-      </c>
-      <c r="F24" s="102" t="s">
+      <c r="E24" s="65">
+        <v>1</v>
+      </c>
+      <c r="F24" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="G24" s="102">
+      <c r="G24" s="98">
         <v>3</v>
       </c>
-      <c r="H24" s="107" t="s">
+      <c r="H24" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18">
-      <c r="A25" s="116"/>
+      <c r="A25" s="103"/>
       <c r="B25" s="1">
         <v>24</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>23</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="13">
-        <v>1</v>
-      </c>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="107"/>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="86"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A26" s="116"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="1">
         <v>25</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <v>24</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="13">
-        <v>1</v>
-      </c>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="107"/>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:9" ht="18">
-      <c r="A27" s="116"/>
+      <c r="A27" s="103"/>
       <c r="B27" s="1">
         <v>26</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="15">
         <v>25</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>2</v>
       </c>
-      <c r="F27" s="102" t="s">
+      <c r="F27" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="G27" s="102">
+      <c r="G27" s="98">
         <v>3</v>
       </c>
-      <c r="H27" s="107" t="s">
+      <c r="H27" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A28" s="118"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="1">
         <v>27</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>26</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="13">
-        <v>1</v>
-      </c>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="107"/>
+      <c r="E28" s="12">
+        <v>1</v>
+      </c>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="18">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="102" t="s">
         <v>140</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
       </c>
-      <c r="C29" s="16">
-        <v>1</v>
-      </c>
-      <c r="D29" s="33" t="s">
+      <c r="C29" s="15">
+        <v>1</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="13">
-        <v>1</v>
-      </c>
-      <c r="F29" s="102" t="s">
+      <c r="E29" s="12">
+        <v>1</v>
+      </c>
+      <c r="F29" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="102">
+      <c r="G29" s="98">
         <v>4</v>
       </c>
-      <c r="H29" s="107" t="s">
+      <c r="H29" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="A30" s="116"/>
+      <c r="A30" s="103"/>
       <c r="B30" s="1">
         <v>29</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>2</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="13">
-        <v>1</v>
-      </c>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="107"/>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="86"/>
     </row>
     <row r="31" spans="1:9" ht="18">
-      <c r="A31" s="116"/>
+      <c r="A31" s="103"/>
       <c r="B31" s="1">
         <v>30</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>3</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="13">
-        <v>1</v>
-      </c>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="107"/>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="86"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A32" s="116"/>
+      <c r="A32" s="103"/>
       <c r="B32" s="1">
         <v>31</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="15">
         <v>4</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="13">
-        <v>1</v>
-      </c>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="107"/>
+      <c r="E32" s="12">
+        <v>1</v>
+      </c>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="86"/>
     </row>
     <row r="33" spans="1:9" ht="18">
-      <c r="A33" s="116"/>
+      <c r="A33" s="103"/>
       <c r="B33" s="1">
         <v>32</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="15">
         <v>5</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="13">
-        <v>1</v>
-      </c>
-      <c r="F33" s="102" t="s">
+      <c r="E33" s="12">
+        <v>1</v>
+      </c>
+      <c r="F33" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="G33" s="102">
+      <c r="G33" s="98">
         <v>4</v>
       </c>
-      <c r="H33" s="107" t="s">
+      <c r="H33" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18">
-      <c r="A34" s="116"/>
+      <c r="A34" s="103"/>
       <c r="B34" s="1">
         <v>33</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="15">
         <v>6</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="13">
-        <v>1</v>
-      </c>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="107"/>
+      <c r="E34" s="12">
+        <v>1</v>
+      </c>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="86"/>
     </row>
     <row r="35" spans="1:9" ht="18">
-      <c r="A35" s="116"/>
+      <c r="A35" s="103"/>
       <c r="B35" s="1">
         <v>34</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="15">
         <v>7</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="13">
-        <v>1</v>
-      </c>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="107"/>
+      <c r="E35" s="12">
+        <v>1</v>
+      </c>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="86"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A36" s="116"/>
+      <c r="A36" s="103"/>
       <c r="B36" s="1">
         <v>35</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="15">
         <v>8</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="13">
-        <v>1</v>
-      </c>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="107"/>
+      <c r="E36" s="12">
+        <v>1</v>
+      </c>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="86"/>
     </row>
     <row r="37" spans="1:9" ht="18">
-      <c r="A37" s="116"/>
+      <c r="A37" s="103"/>
       <c r="B37" s="1">
         <v>36</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <v>9</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="13">
-        <v>1</v>
-      </c>
-      <c r="F37" s="102" t="s">
+      <c r="E37" s="12">
+        <v>1</v>
+      </c>
+      <c r="F37" s="98" t="s">
         <v>212</v>
       </c>
-      <c r="G37" s="102">
+      <c r="G37" s="98">
         <v>4</v>
       </c>
-      <c r="H37" s="107" t="s">
+      <c r="H37" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18">
-      <c r="A38" s="116"/>
+      <c r="A38" s="103"/>
       <c r="B38" s="1">
         <v>37</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="15">
         <v>10</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="13">
-        <v>1</v>
-      </c>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="107"/>
+      <c r="E38" s="12">
+        <v>1</v>
+      </c>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="86"/>
     </row>
     <row r="39" spans="1:9" ht="18">
-      <c r="A39" s="116"/>
+      <c r="A39" s="103"/>
       <c r="B39" s="1">
         <v>38</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="15">
         <v>11</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="13">
-        <v>1</v>
-      </c>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="107"/>
+      <c r="E39" s="12">
+        <v>1</v>
+      </c>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="86"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A40" s="116"/>
+      <c r="A40" s="103"/>
       <c r="B40" s="1">
         <v>39</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="15">
         <v>12</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="13">
-        <v>1</v>
-      </c>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="107"/>
+      <c r="E40" s="12">
+        <v>1</v>
+      </c>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="86"/>
     </row>
     <row r="41" spans="1:9" ht="18">
-      <c r="A41" s="116"/>
+      <c r="A41" s="103"/>
       <c r="B41" s="1">
         <v>40</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="15">
         <v>13</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="12">
         <v>2</v>
       </c>
-      <c r="F41" s="102" t="s">
+      <c r="F41" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="G41" s="102">
+      <c r="G41" s="98">
         <v>4</v>
       </c>
-      <c r="H41" s="107" t="s">
+      <c r="H41" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A42" s="116"/>
+      <c r="A42" s="103"/>
       <c r="B42" s="1">
         <v>41</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="15">
         <v>14</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <v>2</v>
       </c>
-      <c r="F42" s="102"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="107"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="86"/>
     </row>
     <row r="43" spans="1:9" ht="18">
-      <c r="A43" s="116"/>
+      <c r="A43" s="103"/>
       <c r="B43" s="1">
         <v>42</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="15">
         <v>15</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="13">
-        <v>1</v>
-      </c>
-      <c r="F43" s="102" t="s">
+      <c r="E43" s="12">
+        <v>1</v>
+      </c>
+      <c r="F43" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="G43" s="102">
+      <c r="G43" s="98">
         <v>4</v>
       </c>
-      <c r="H43" s="107" t="s">
+      <c r="H43" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="I43" s="5"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" ht="18">
-      <c r="A44" s="116"/>
+      <c r="A44" s="103"/>
       <c r="B44" s="1">
         <v>43</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="15">
         <v>16</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="13">
-        <v>1</v>
-      </c>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="5"/>
+      <c r="E44" s="12">
+        <v>1</v>
+      </c>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" ht="18">
-      <c r="A45" s="116"/>
+      <c r="A45" s="103"/>
       <c r="B45" s="1">
         <v>44</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="35" t="s">
+      <c r="C45" s="15"/>
+      <c r="D45" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="13">
-        <v>1</v>
-      </c>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="5"/>
+      <c r="E45" s="12">
+        <v>1</v>
+      </c>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" ht="18.75" thickBot="1">
-      <c r="A46" s="118"/>
+      <c r="A46" s="104"/>
       <c r="B46" s="1">
         <v>45</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="34" t="s">
+      <c r="C46" s="15"/>
+      <c r="D46" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E46" s="13">
-        <v>1</v>
-      </c>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="5"/>
+      <c r="E46" s="12">
+        <v>1</v>
+      </c>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" ht="18">
-      <c r="A47" s="112" t="s">
+      <c r="A47" s="105" t="s">
         <v>141</v>
       </c>
       <c r="B47" s="1">
         <v>46</v>
       </c>
-      <c r="C47" s="16">
-        <v>1</v>
-      </c>
-      <c r="D47" s="36" t="s">
+      <c r="C47" s="15">
+        <v>1</v>
+      </c>
+      <c r="D47" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="13">
-        <v>1</v>
-      </c>
-      <c r="F47" s="102" t="s">
+      <c r="E47" s="12">
+        <v>1</v>
+      </c>
+      <c r="F47" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="G47" s="102">
+      <c r="G47" s="98">
         <v>4</v>
       </c>
-      <c r="H47" s="107" t="s">
+      <c r="H47" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="I47" s="5"/>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" ht="18">
-      <c r="A48" s="113"/>
+      <c r="A48" s="106"/>
       <c r="B48" s="1">
         <v>47</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="15">
         <v>2</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="13">
-        <v>1</v>
-      </c>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="107"/>
+      <c r="E48" s="12">
+        <v>1</v>
+      </c>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="86"/>
     </row>
     <row r="49" spans="1:8" ht="18">
-      <c r="A49" s="113"/>
+      <c r="A49" s="106"/>
       <c r="B49" s="1">
         <v>48</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="15">
         <v>3</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="13">
-        <v>1</v>
-      </c>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="107"/>
+      <c r="E49" s="12">
+        <v>1</v>
+      </c>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="86"/>
     </row>
     <row r="50" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A50" s="113"/>
+      <c r="A50" s="106"/>
       <c r="B50" s="1">
         <v>49</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="38" t="s">
+      <c r="C50" s="15"/>
+      <c r="D50" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="13">
-        <v>1</v>
-      </c>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="107"/>
+      <c r="E50" s="12">
+        <v>1</v>
+      </c>
+      <c r="F50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="86"/>
     </row>
     <row r="51" spans="1:8" ht="18">
-      <c r="A51" s="113"/>
+      <c r="A51" s="106"/>
       <c r="B51" s="1">
         <v>50</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="36" t="s">
+      <c r="C51" s="15"/>
+      <c r="D51" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="66">
-        <v>1</v>
-      </c>
-      <c r="F51" s="108" t="s">
+      <c r="E51" s="63">
+        <v>1</v>
+      </c>
+      <c r="F51" s="109" t="s">
         <v>216</v>
       </c>
-      <c r="G51" s="108">
+      <c r="G51" s="109">
         <v>3</v>
       </c>
-      <c r="H51" s="107" t="s">
+      <c r="H51" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18">
-      <c r="A52" s="113"/>
+      <c r="A52" s="106"/>
       <c r="B52" s="1">
         <v>51</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="15">
         <v>4</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="E52" s="66">
-        <v>1</v>
-      </c>
-      <c r="F52" s="108"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="107"/>
+      <c r="E52" s="63">
+        <v>1</v>
+      </c>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A53" s="113"/>
+      <c r="A53" s="106"/>
       <c r="B53" s="1">
         <v>52</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="15">
         <v>5</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="E53" s="66">
-        <v>1</v>
-      </c>
-      <c r="F53" s="108"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="107"/>
+      <c r="E53" s="63">
+        <v>1</v>
+      </c>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="18">
-      <c r="A54" s="113"/>
+      <c r="A54" s="106"/>
       <c r="B54" s="1">
         <v>53</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="36" t="s">
+      <c r="C54" s="15"/>
+      <c r="D54" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="12">
         <v>2</v>
       </c>
-      <c r="F54" s="102" t="s">
+      <c r="F54" s="98" t="s">
         <v>217</v>
       </c>
-      <c r="G54" s="102">
+      <c r="G54" s="98">
         <v>5</v>
       </c>
-      <c r="H54" s="107" t="s">
+      <c r="H54" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="18">
-      <c r="A55" s="113"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="1">
         <v>54</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="37" t="s">
+      <c r="C55" s="15"/>
+      <c r="D55" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E55" s="13">
-        <v>1</v>
-      </c>
-      <c r="F55" s="102"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="107"/>
+      <c r="E55" s="12">
+        <v>1</v>
+      </c>
+      <c r="F55" s="98"/>
+      <c r="G55" s="98"/>
+      <c r="H55" s="86"/>
     </row>
     <row r="56" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A56" s="113"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="1">
         <v>55</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="15">
         <v>6</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="12">
         <v>2</v>
       </c>
-      <c r="F56" s="102"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="107"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="86"/>
     </row>
     <row r="57" spans="1:8" ht="18">
-      <c r="A57" s="113"/>
+      <c r="A57" s="106"/>
       <c r="B57" s="1">
         <v>56</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="15">
         <v>7</v>
       </c>
-      <c r="D57" s="36" t="s">
+      <c r="D57" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="12">
         <v>2</v>
       </c>
-      <c r="F57" s="102" t="s">
+      <c r="F57" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="G57" s="102">
+      <c r="G57" s="98">
         <v>3</v>
       </c>
-      <c r="H57" s="107" t="s">
+      <c r="H57" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A58" s="113"/>
+      <c r="A58" s="106"/>
       <c r="B58" s="1">
         <v>57</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="15">
         <v>8</v>
       </c>
-      <c r="D58" s="38" t="s">
+      <c r="D58" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E58" s="13">
-        <v>1</v>
-      </c>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="107"/>
+      <c r="E58" s="12">
+        <v>1</v>
+      </c>
+      <c r="F58" s="98"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="86"/>
     </row>
     <row r="59" spans="1:8" ht="18">
-      <c r="A59" s="113"/>
+      <c r="A59" s="106"/>
       <c r="B59" s="1">
         <v>58</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="15">
         <v>9</v>
       </c>
-      <c r="D59" s="36" t="s">
+      <c r="D59" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E59" s="13">
-        <v>1</v>
-      </c>
-      <c r="F59" s="102" t="s">
+      <c r="E59" s="12">
+        <v>1</v>
+      </c>
+      <c r="F59" s="98" t="s">
         <v>219</v>
       </c>
-      <c r="G59" s="102">
+      <c r="G59" s="98">
         <v>4</v>
       </c>
-      <c r="H59" s="107" t="s">
+      <c r="H59" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="18">
-      <c r="A60" s="113"/>
+      <c r="A60" s="106"/>
       <c r="B60" s="1">
         <v>59</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="15">
         <v>10</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E60" s="13">
-        <v>1</v>
-      </c>
-      <c r="F60" s="102"/>
-      <c r="G60" s="102"/>
-      <c r="H60" s="107"/>
+      <c r="E60" s="12">
+        <v>1</v>
+      </c>
+      <c r="F60" s="98"/>
+      <c r="G60" s="98"/>
+      <c r="H60" s="86"/>
     </row>
     <row r="61" spans="1:8" ht="18">
-      <c r="A61" s="113"/>
+      <c r="A61" s="106"/>
       <c r="B61" s="1">
         <v>60</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="15">
         <v>11</v>
       </c>
-      <c r="D61" s="37" t="s">
+      <c r="D61" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E61" s="13">
-        <v>1</v>
-      </c>
-      <c r="F61" s="102"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="107"/>
+      <c r="E61" s="12">
+        <v>1</v>
+      </c>
+      <c r="F61" s="98"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="86"/>
     </row>
     <row r="62" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A62" s="113"/>
+      <c r="A62" s="106"/>
       <c r="B62" s="1">
         <v>61</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="15">
         <v>12</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E62" s="52">
-        <v>1</v>
-      </c>
-      <c r="F62" s="102"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="107"/>
+      <c r="E62" s="49">
+        <v>1</v>
+      </c>
+      <c r="F62" s="98"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="86"/>
     </row>
     <row r="63" spans="1:8" ht="18">
-      <c r="A63" s="113"/>
+      <c r="A63" s="106"/>
       <c r="B63" s="1">
         <v>62</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="36" t="s">
+      <c r="C63" s="15"/>
+      <c r="D63" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="E63" s="80">
-        <v>1</v>
-      </c>
-      <c r="F63" s="109" t="s">
+      <c r="E63" s="77">
+        <v>1</v>
+      </c>
+      <c r="F63" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="G63" s="102">
+      <c r="G63" s="98">
         <v>4</v>
       </c>
-      <c r="H63" s="107" t="s">
+      <c r="H63" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A64" s="113"/>
+      <c r="A64" s="106"/>
       <c r="B64" s="1">
         <v>63</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="15">
         <v>13</v>
       </c>
-      <c r="D64" s="37" t="s">
+      <c r="D64" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="81">
-        <v>1</v>
-      </c>
-      <c r="F64" s="110"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="107"/>
+      <c r="E64" s="78">
+        <v>1</v>
+      </c>
+      <c r="F64" s="112"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="86"/>
     </row>
     <row r="65" spans="1:10" ht="18">
-      <c r="A65" s="113"/>
+      <c r="A65" s="106"/>
       <c r="B65" s="1">
         <v>64</v>
       </c>
-      <c r="C65" s="16">
-        <v>1</v>
-      </c>
-      <c r="D65" s="31" t="s">
+      <c r="C65" s="15">
+        <v>1</v>
+      </c>
+      <c r="D65" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="80">
-        <v>1</v>
-      </c>
-      <c r="F65" s="110"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="107"/>
+      <c r="E65" s="77">
+        <v>1</v>
+      </c>
+      <c r="F65" s="112"/>
+      <c r="G65" s="98"/>
+      <c r="H65" s="86"/>
     </row>
     <row r="66" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A66" s="113"/>
+      <c r="A66" s="106"/>
       <c r="B66" s="1">
         <v>65</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="15">
         <v>2</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="81">
-        <v>1</v>
-      </c>
-      <c r="F66" s="111"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="107"/>
+      <c r="E66" s="78">
+        <v>1</v>
+      </c>
+      <c r="F66" s="113"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="86"/>
     </row>
     <row r="67" spans="1:10" ht="18">
-      <c r="A67" s="113"/>
+      <c r="A67" s="106"/>
       <c r="B67" s="1">
         <v>66</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="15">
         <v>3</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="68">
-        <v>1</v>
-      </c>
-      <c r="F67" s="102" t="s">
+      <c r="E67" s="65">
+        <v>1</v>
+      </c>
+      <c r="F67" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="G67" s="102">
+      <c r="G67" s="98">
         <v>4</v>
       </c>
-      <c r="H67" s="107" t="s">
+      <c r="H67" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10" ht="18">
-      <c r="A68" s="113"/>
+      <c r="A68" s="106"/>
       <c r="B68" s="1">
         <v>67</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="31" t="s">
+      <c r="C68" s="15"/>
+      <c r="D68" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="E68" s="13">
-        <v>1</v>
-      </c>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="107"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
+      <c r="E68" s="12">
+        <v>1</v>
+      </c>
+      <c r="F68" s="98"/>
+      <c r="G68" s="98"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" ht="18">
-      <c r="A69" s="113"/>
+      <c r="A69" s="106"/>
       <c r="B69" s="1">
         <v>68</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="31" t="s">
+      <c r="C69" s="15"/>
+      <c r="D69" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="E69" s="13">
-        <v>1</v>
-      </c>
-      <c r="F69" s="102"/>
-      <c r="G69" s="102"/>
-      <c r="H69" s="107"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
+      <c r="E69" s="12">
+        <v>1</v>
+      </c>
+      <c r="F69" s="98"/>
+      <c r="G69" s="98"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A70" s="113"/>
+      <c r="A70" s="106"/>
       <c r="B70" s="1">
         <v>69</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="15">
         <v>4</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="D70" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E70" s="13">
-        <v>1</v>
-      </c>
-      <c r="F70" s="102"/>
-      <c r="G70" s="102"/>
-      <c r="H70" s="107"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
+      <c r="E70" s="12">
+        <v>1</v>
+      </c>
+      <c r="F70" s="98"/>
+      <c r="G70" s="98"/>
+      <c r="H70" s="86"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" ht="18">
-      <c r="A71" s="113"/>
+      <c r="A71" s="106"/>
       <c r="B71" s="1">
         <v>70</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="15">
         <v>5</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E71" s="13">
-        <v>1</v>
-      </c>
-      <c r="F71" s="102" t="s">
+      <c r="E71" s="12">
+        <v>1</v>
+      </c>
+      <c r="F71" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="G71" s="102">
+      <c r="G71" s="98">
         <v>4</v>
       </c>
-      <c r="H71" s="107" t="s">
+      <c r="H71" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
     </row>
     <row r="72" spans="1:10" ht="18">
-      <c r="A72" s="113"/>
+      <c r="A72" s="106"/>
       <c r="B72" s="1">
         <v>71</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="15">
         <v>6</v>
       </c>
-      <c r="D72" s="31" t="s">
+      <c r="D72" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E72" s="13">
-        <v>1</v>
-      </c>
-      <c r="F72" s="102"/>
-      <c r="G72" s="102"/>
-      <c r="H72" s="107"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
+      <c r="E72" s="12">
+        <v>1</v>
+      </c>
+      <c r="F72" s="98"/>
+      <c r="G72" s="98"/>
+      <c r="H72" s="86"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10" ht="18">
-      <c r="A73" s="113"/>
+      <c r="A73" s="106"/>
       <c r="B73" s="1">
         <v>72</v>
       </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="31" t="s">
+      <c r="C73" s="15"/>
+      <c r="D73" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E73" s="13">
-        <v>1</v>
-      </c>
-      <c r="F73" s="102"/>
-      <c r="G73" s="102"/>
-      <c r="H73" s="107"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
+      <c r="E73" s="12">
+        <v>1</v>
+      </c>
+      <c r="F73" s="98"/>
+      <c r="G73" s="98"/>
+      <c r="H73" s="86"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A74" s="117"/>
+      <c r="A74" s="108"/>
       <c r="B74" s="1">
         <v>73</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="15">
         <v>7</v>
       </c>
-      <c r="D74" s="32" t="s">
+      <c r="D74" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="E74" s="13">
-        <v>1</v>
-      </c>
-      <c r="F74" s="102"/>
-      <c r="G74" s="102"/>
-      <c r="H74" s="107"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
+      <c r="E74" s="12">
+        <v>1</v>
+      </c>
+      <c r="F74" s="98"/>
+      <c r="G74" s="98"/>
+      <c r="H74" s="86"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
     </row>
     <row r="75" spans="1:10" ht="18">
-      <c r="A75" s="112" t="s">
+      <c r="A75" s="105" t="s">
         <v>142</v>
       </c>
       <c r="B75" s="1">
         <v>74</v>
       </c>
-      <c r="C75" s="16">
-        <v>1</v>
-      </c>
-      <c r="D75" s="39" t="s">
+      <c r="C75" s="15">
+        <v>1</v>
+      </c>
+      <c r="D75" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E75" s="13">
-        <v>1</v>
-      </c>
-      <c r="F75" s="102" t="s">
+      <c r="E75" s="12">
+        <v>1</v>
+      </c>
+      <c r="F75" s="98" t="s">
         <v>223</v>
       </c>
-      <c r="G75" s="102">
+      <c r="G75" s="98">
         <v>4</v>
       </c>
-      <c r="H75" s="107" t="s">
+      <c r="H75" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" ht="18">
-      <c r="A76" s="113"/>
+      <c r="A76" s="106"/>
       <c r="B76" s="1">
         <v>75</v>
       </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="40" t="s">
+      <c r="C76" s="15"/>
+      <c r="D76" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="E76" s="13">
-        <v>1</v>
-      </c>
-      <c r="F76" s="102"/>
-      <c r="G76" s="102"/>
-      <c r="H76" s="107"/>
+      <c r="E76" s="12">
+        <v>1</v>
+      </c>
+      <c r="F76" s="98"/>
+      <c r="G76" s="98"/>
+      <c r="H76" s="86"/>
     </row>
     <row r="77" spans="1:10" ht="18">
-      <c r="A77" s="113"/>
+      <c r="A77" s="106"/>
       <c r="B77" s="1">
         <v>76</v>
       </c>
-      <c r="C77" s="16">
+      <c r="C77" s="15">
         <v>2</v>
       </c>
-      <c r="D77" s="40" t="s">
+      <c r="D77" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E77" s="13">
-        <v>1</v>
-      </c>
-      <c r="F77" s="102"/>
-      <c r="G77" s="102"/>
-      <c r="H77" s="107"/>
+      <c r="E77" s="12">
+        <v>1</v>
+      </c>
+      <c r="F77" s="98"/>
+      <c r="G77" s="98"/>
+      <c r="H77" s="86"/>
     </row>
     <row r="78" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A78" s="113"/>
+      <c r="A78" s="106"/>
       <c r="B78" s="1">
         <v>77</v>
       </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="41" t="s">
+      <c r="C78" s="15"/>
+      <c r="D78" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="E78" s="13">
-        <v>1</v>
-      </c>
-      <c r="F78" s="102"/>
-      <c r="G78" s="102"/>
-      <c r="H78" s="107"/>
+      <c r="E78" s="12">
+        <v>1</v>
+      </c>
+      <c r="F78" s="98"/>
+      <c r="G78" s="98"/>
+      <c r="H78" s="86"/>
     </row>
     <row r="79" spans="1:10" ht="18">
-      <c r="A79" s="113"/>
+      <c r="A79" s="106"/>
       <c r="B79" s="1">
         <v>78</v>
       </c>
-      <c r="C79" s="16">
+      <c r="C79" s="15">
         <v>3</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="12">
         <v>2</v>
       </c>
-      <c r="F79" s="102" t="s">
+      <c r="F79" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="G79" s="102">
+      <c r="G79" s="98">
         <v>4</v>
       </c>
-      <c r="H79" s="107" t="s">
+      <c r="H79" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="18">
-      <c r="A80" s="113"/>
+      <c r="A80" s="106"/>
       <c r="B80" s="1">
         <v>79</v>
       </c>
-      <c r="C80" s="16">
+      <c r="C80" s="15">
         <v>4</v>
       </c>
-      <c r="D80" s="40" t="s">
+      <c r="D80" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="E80" s="13">
-        <v>1</v>
-      </c>
-      <c r="F80" s="102"/>
-      <c r="G80" s="102"/>
-      <c r="H80" s="107"/>
+      <c r="E80" s="12">
+        <v>1</v>
+      </c>
+      <c r="F80" s="98"/>
+      <c r="G80" s="98"/>
+      <c r="H80" s="86"/>
     </row>
     <row r="81" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A81" s="113"/>
+      <c r="A81" s="106"/>
       <c r="B81" s="1">
         <v>80</v>
       </c>
-      <c r="C81" s="16">
+      <c r="C81" s="15">
         <v>5</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="E81" s="13">
-        <v>1</v>
-      </c>
-      <c r="F81" s="102"/>
-      <c r="G81" s="102"/>
-      <c r="H81" s="107"/>
+      <c r="E81" s="12">
+        <v>1</v>
+      </c>
+      <c r="F81" s="98"/>
+      <c r="G81" s="98"/>
+      <c r="H81" s="86"/>
     </row>
     <row r="82" spans="1:15" ht="18">
-      <c r="A82" s="113"/>
+      <c r="A82" s="106"/>
       <c r="B82" s="1">
         <v>81</v>
       </c>
-      <c r="C82" s="16">
+      <c r="C82" s="15">
         <v>6</v>
       </c>
-      <c r="D82" s="39" t="s">
+      <c r="D82" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="12">
         <v>2</v>
       </c>
-      <c r="F82" s="102" t="s">
+      <c r="F82" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="G82" s="102">
+      <c r="G82" s="98">
         <v>4</v>
       </c>
-      <c r="H82" s="107" t="s">
+      <c r="H82" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A83" s="113"/>
+      <c r="A83" s="106"/>
       <c r="B83" s="1">
         <v>82</v>
       </c>
-      <c r="C83" s="16">
+      <c r="C83" s="15">
         <v>7</v>
       </c>
-      <c r="D83" s="41" t="s">
+      <c r="D83" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E83" s="12">
         <v>2</v>
       </c>
-      <c r="F83" s="102"/>
-      <c r="G83" s="102"/>
-      <c r="H83" s="107"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="98"/>
+      <c r="H83" s="86"/>
     </row>
     <row r="84" spans="1:15" ht="18">
-      <c r="A84" s="113"/>
+      <c r="A84" s="106"/>
       <c r="B84" s="1">
         <v>83</v>
       </c>
-      <c r="C84" s="16">
+      <c r="C84" s="15">
         <v>8</v>
       </c>
-      <c r="D84" s="39" t="s">
+      <c r="D84" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="E84" s="13">
-        <v>1</v>
-      </c>
-      <c r="F84" s="102" t="s">
+      <c r="E84" s="12">
+        <v>1</v>
+      </c>
+      <c r="F84" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="G84" s="102">
+      <c r="G84" s="98">
         <v>4</v>
       </c>
-      <c r="H84" s="107" t="s">
+      <c r="H84" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="18">
-      <c r="A85" s="113"/>
+      <c r="A85" s="106"/>
       <c r="B85" s="1">
         <v>84</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="40" t="s">
+      <c r="C85" s="15"/>
+      <c r="D85" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="12">
         <v>2</v>
       </c>
-      <c r="F85" s="102"/>
-      <c r="G85" s="102"/>
-      <c r="H85" s="107"/>
+      <c r="F85" s="98"/>
+      <c r="G85" s="98"/>
+      <c r="H85" s="86"/>
     </row>
     <row r="86" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A86" s="113"/>
+      <c r="A86" s="106"/>
       <c r="B86" s="1">
         <v>85</v>
       </c>
-      <c r="C86" s="16">
+      <c r="C86" s="15">
         <v>9</v>
       </c>
-      <c r="D86" s="41" t="s">
+      <c r="D86" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E86" s="13">
-        <v>1</v>
-      </c>
-      <c r="F86" s="102"/>
-      <c r="G86" s="102"/>
-      <c r="H86" s="107"/>
+      <c r="E86" s="12">
+        <v>1</v>
+      </c>
+      <c r="F86" s="98"/>
+      <c r="G86" s="98"/>
+      <c r="H86" s="86"/>
     </row>
     <row r="87" spans="1:15" ht="18">
-      <c r="A87" s="113"/>
+      <c r="A87" s="106"/>
       <c r="B87" s="1">
         <v>86</v>
       </c>
-      <c r="C87" s="16">
+      <c r="C87" s="15">
         <v>10</v>
       </c>
-      <c r="D87" s="39" t="s">
+      <c r="D87" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="E87" s="13">
-        <v>1</v>
-      </c>
-      <c r="F87" s="102" t="s">
+      <c r="E87" s="12">
+        <v>1</v>
+      </c>
+      <c r="F87" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="G87" s="102">
+      <c r="G87" s="98">
         <v>4</v>
       </c>
-      <c r="H87" s="107" t="s">
+      <c r="H87" s="86" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="18">
-      <c r="A88" s="113"/>
+      <c r="A88" s="106"/>
       <c r="B88" s="1">
         <v>87</v>
       </c>
-      <c r="C88" s="16">
+      <c r="C88" s="15">
         <v>11</v>
       </c>
-      <c r="D88" s="40" t="s">
+      <c r="D88" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E88" s="13">
-        <v>1</v>
-      </c>
-      <c r="F88" s="102"/>
-      <c r="G88" s="102"/>
-      <c r="H88" s="107"/>
+      <c r="E88" s="12">
+        <v>1</v>
+      </c>
+      <c r="F88" s="98"/>
+      <c r="G88" s="98"/>
+      <c r="H88" s="86"/>
     </row>
     <row r="89" spans="1:15" ht="18">
-      <c r="A89" s="113"/>
+      <c r="A89" s="106"/>
       <c r="B89" s="1">
         <v>88</v>
       </c>
-      <c r="C89" s="16">
+      <c r="C89" s="15">
         <v>12</v>
       </c>
-      <c r="D89" s="40" t="s">
+      <c r="D89" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E89" s="13">
-        <v>1</v>
-      </c>
-      <c r="F89" s="102"/>
-      <c r="G89" s="102"/>
-      <c r="H89" s="107"/>
+      <c r="E89" s="12">
+        <v>1</v>
+      </c>
+      <c r="F89" s="98"/>
+      <c r="G89" s="98"/>
+      <c r="H89" s="86"/>
     </row>
     <row r="90" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A90" s="113"/>
+      <c r="A90" s="106"/>
       <c r="B90" s="1">
         <v>89</v>
       </c>
-      <c r="C90" s="16">
+      <c r="C90" s="15">
         <v>13</v>
       </c>
-      <c r="D90" s="41" t="s">
+      <c r="D90" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E90" s="13">
-        <v>1</v>
-      </c>
-      <c r="F90" s="102"/>
-      <c r="G90" s="102"/>
-      <c r="H90" s="107"/>
+      <c r="E90" s="12">
+        <v>1</v>
+      </c>
+      <c r="F90" s="98"/>
+      <c r="G90" s="98"/>
+      <c r="H90" s="86"/>
     </row>
     <row r="91" spans="1:15" ht="18">
-      <c r="A91" s="113"/>
+      <c r="A91" s="106"/>
       <c r="B91" s="1">
         <v>90</v>
       </c>
-      <c r="C91" s="16">
+      <c r="C91" s="15">
         <v>14</v>
       </c>
-      <c r="D91" s="39" t="s">
+      <c r="D91" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E91" s="12">
         <v>2</v>
       </c>
-      <c r="F91" s="119" t="s">
+      <c r="F91" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="G91" s="103">
+      <c r="G91" s="114">
         <v>6</v>
       </c>
-      <c r="H91" s="132" t="s">
+      <c r="H91" s="87" t="s">
         <v>256</v>
       </c>
       <c r="J91" t="s">
         <v>243</v>
       </c>
-      <c r="K91" s="72" t="s">
+      <c r="K91" s="69" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="18">
-      <c r="A92" s="113"/>
+      <c r="A92" s="106"/>
       <c r="B92" s="1">
         <v>91</v>
       </c>
-      <c r="C92" s="16">
+      <c r="C92" s="15">
         <v>15</v>
       </c>
-      <c r="D92" s="40" t="s">
+      <c r="D92" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="E92" s="13">
-        <v>1</v>
-      </c>
-      <c r="F92" s="119"/>
-      <c r="G92" s="103"/>
-      <c r="H92" s="132"/>
+      <c r="E92" s="12">
+        <v>1</v>
+      </c>
+      <c r="F92" s="110"/>
+      <c r="G92" s="114"/>
+      <c r="H92" s="87"/>
       <c r="J92" t="s">
         <v>236</v>
       </c>
@@ -4160,22 +4329,22 @@
       </c>
     </row>
     <row r="93" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A93" s="113"/>
+      <c r="A93" s="106"/>
       <c r="B93" s="1">
         <v>92</v>
       </c>
-      <c r="C93" s="16">
+      <c r="C93" s="15">
         <v>16</v>
       </c>
-      <c r="D93" s="41" t="s">
+      <c r="D93" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="E93" s="13">
-        <v>1</v>
-      </c>
-      <c r="F93" s="119"/>
-      <c r="G93" s="103"/>
-      <c r="H93" s="132"/>
+      <c r="E93" s="12">
+        <v>1</v>
+      </c>
+      <c r="F93" s="110"/>
+      <c r="G93" s="114"/>
+      <c r="H93" s="87"/>
       <c r="J93" t="s">
         <v>237</v>
       </c>
@@ -4184,1873 +4353,1940 @@
       </c>
     </row>
     <row r="94" spans="1:15" ht="18">
-      <c r="A94" s="113"/>
+      <c r="A94" s="106"/>
       <c r="B94" s="1">
         <v>93</v>
       </c>
-      <c r="C94" s="16">
+      <c r="C94" s="15">
         <v>17</v>
       </c>
-      <c r="D94" s="39" t="s">
+      <c r="D94" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="E94" s="13">
-        <v>1</v>
-      </c>
-      <c r="F94" s="102" t="s">
+      <c r="E94" s="12">
+        <v>1</v>
+      </c>
+      <c r="F94" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="G94" s="104"/>
-      <c r="H94" s="133"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5" t="s">
+      <c r="G94" s="115"/>
+      <c r="H94" s="88"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="K94" s="5" t="s">
+      <c r="K94" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
     </row>
     <row r="95" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A95" s="117"/>
+      <c r="A95" s="108"/>
       <c r="B95" s="1">
         <v>94</v>
       </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="41" t="s">
+      <c r="C95" s="15"/>
+      <c r="D95" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="E95" s="13">
-        <v>1</v>
-      </c>
-      <c r="F95" s="102"/>
-      <c r="G95" s="104"/>
-      <c r="H95" s="133"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5" t="s">
+      <c r="E95" s="12">
+        <v>1</v>
+      </c>
+      <c r="F95" s="98"/>
+      <c r="G95" s="115"/>
+      <c r="H95" s="88"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="K95" s="57" t="s">
+      <c r="K95" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
     </row>
     <row r="96" spans="1:15" ht="18">
-      <c r="A96" s="112" t="s">
+      <c r="A96" s="105" t="s">
         <v>143</v>
       </c>
       <c r="B96" s="1">
         <v>95</v>
       </c>
-      <c r="C96" s="16">
-        <v>1</v>
-      </c>
-      <c r="D96" s="36" t="s">
+      <c r="C96" s="15">
+        <v>1</v>
+      </c>
+      <c r="D96" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E96" s="13">
-        <v>1</v>
-      </c>
-      <c r="F96" s="102" t="s">
+      <c r="E96" s="12">
+        <v>1</v>
+      </c>
+      <c r="F96" s="98" t="s">
         <v>229</v>
       </c>
-      <c r="G96" s="102">
+      <c r="G96" s="98">
         <v>4</v>
       </c>
-      <c r="H96" s="107" t="s">
+      <c r="H96" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5" t="s">
+      <c r="I96" s="4"/>
+      <c r="J96" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="K96" s="57" t="s">
+      <c r="K96" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
     </row>
     <row r="97" spans="1:15" ht="18">
-      <c r="A97" s="113"/>
+      <c r="A97" s="106"/>
       <c r="B97" s="1">
         <v>96</v>
       </c>
-      <c r="C97" s="16">
+      <c r="C97" s="15">
         <v>2</v>
       </c>
-      <c r="D97" s="37" t="s">
+      <c r="D97" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="E97" s="13">
-        <v>1</v>
-      </c>
-      <c r="F97" s="102"/>
-      <c r="G97" s="102"/>
-      <c r="H97" s="107"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="57"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
+      <c r="E97" s="12">
+        <v>1</v>
+      </c>
+      <c r="F97" s="98"/>
+      <c r="G97" s="98"/>
+      <c r="H97" s="86"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="54"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
     </row>
     <row r="98" spans="1:15" ht="18">
-      <c r="A98" s="113"/>
+      <c r="A98" s="106"/>
       <c r="B98" s="1">
         <v>97</v>
       </c>
-      <c r="C98" s="16">
+      <c r="C98" s="15">
         <v>3</v>
       </c>
-      <c r="D98" s="37" t="s">
+      <c r="D98" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E98" s="13">
-        <v>1</v>
-      </c>
-      <c r="F98" s="102"/>
-      <c r="G98" s="102"/>
-      <c r="H98" s="107"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="57"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
+      <c r="E98" s="12">
+        <v>1</v>
+      </c>
+      <c r="F98" s="98"/>
+      <c r="G98" s="98"/>
+      <c r="H98" s="86"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="54"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
     </row>
     <row r="99" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A99" s="113"/>
+      <c r="A99" s="106"/>
       <c r="B99" s="1">
         <v>98</v>
       </c>
-      <c r="C99" s="16">
+      <c r="C99" s="15">
         <v>4</v>
       </c>
-      <c r="D99" s="38" t="s">
+      <c r="D99" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E99" s="13">
-        <v>1</v>
-      </c>
-      <c r="F99" s="102"/>
-      <c r="G99" s="102"/>
-      <c r="H99" s="107"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="57"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
+      <c r="E99" s="12">
+        <v>1</v>
+      </c>
+      <c r="F99" s="98"/>
+      <c r="G99" s="98"/>
+      <c r="H99" s="86"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="54"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
     </row>
     <row r="100" spans="1:15" ht="18">
-      <c r="A100" s="113"/>
+      <c r="A100" s="106"/>
       <c r="B100" s="1">
         <v>99</v>
       </c>
-      <c r="C100" s="16">
+      <c r="C100" s="15">
         <v>5</v>
       </c>
-      <c r="D100" s="36" t="s">
+      <c r="D100" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E100" s="13">
-        <v>1</v>
-      </c>
-      <c r="F100" s="102" t="s">
+      <c r="E100" s="12">
+        <v>1</v>
+      </c>
+      <c r="F100" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="G100" s="102">
+      <c r="G100" s="98">
         <v>4</v>
       </c>
-      <c r="H100" s="107" t="s">
+      <c r="H100" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="I100" s="5"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="57"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="54"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
     </row>
     <row r="101" spans="1:15" ht="18">
-      <c r="A101" s="113"/>
+      <c r="A101" s="106"/>
       <c r="B101" s="1">
         <v>100</v>
       </c>
-      <c r="C101" s="16">
+      <c r="C101" s="15">
         <v>6</v>
       </c>
-      <c r="D101" s="37" t="s">
+      <c r="D101" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E101" s="13">
-        <v>1</v>
-      </c>
-      <c r="F101" s="102"/>
-      <c r="G101" s="102"/>
-      <c r="H101" s="107"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="57"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
+      <c r="E101" s="12">
+        <v>1</v>
+      </c>
+      <c r="F101" s="98"/>
+      <c r="G101" s="98"/>
+      <c r="H101" s="86"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="54"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
     </row>
     <row r="102" spans="1:15" ht="18">
-      <c r="A102" s="113"/>
+      <c r="A102" s="106"/>
       <c r="B102" s="1">
         <v>101</v>
       </c>
-      <c r="C102" s="16">
+      <c r="C102" s="15">
         <v>7</v>
       </c>
-      <c r="D102" s="37" t="s">
+      <c r="D102" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="E102" s="13">
-        <v>1</v>
-      </c>
-      <c r="F102" s="102"/>
-      <c r="G102" s="102"/>
-      <c r="H102" s="107"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
+      <c r="E102" s="12">
+        <v>1</v>
+      </c>
+      <c r="F102" s="98"/>
+      <c r="G102" s="98"/>
+      <c r="H102" s="86"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
     </row>
     <row r="103" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A103" s="113"/>
+      <c r="A103" s="106"/>
       <c r="B103" s="1">
         <v>102</v>
       </c>
-      <c r="C103" s="16">
+      <c r="C103" s="15">
         <v>8</v>
       </c>
-      <c r="D103" s="38" t="s">
+      <c r="D103" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E103" s="13">
-        <v>1</v>
-      </c>
-      <c r="F103" s="102"/>
-      <c r="G103" s="102"/>
-      <c r="H103" s="107"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
+      <c r="E103" s="12">
+        <v>1</v>
+      </c>
+      <c r="F103" s="98"/>
+      <c r="G103" s="98"/>
+      <c r="H103" s="86"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
     </row>
     <row r="104" spans="1:15" ht="18">
-      <c r="A104" s="113"/>
+      <c r="A104" s="106"/>
       <c r="B104" s="1">
         <v>103</v>
       </c>
-      <c r="C104" s="16">
+      <c r="C104" s="15">
         <v>9</v>
       </c>
-      <c r="D104" s="36" t="s">
+      <c r="D104" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="E104" s="13">
-        <v>1</v>
-      </c>
-      <c r="F104" s="102" t="s">
+      <c r="E104" s="12">
+        <v>1</v>
+      </c>
+      <c r="F104" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="G104" s="102">
+      <c r="G104" s="98">
         <v>5</v>
       </c>
-      <c r="H104" s="107" t="s">
+      <c r="H104" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="I104" s="4"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
     </row>
     <row r="105" spans="1:15" ht="18">
-      <c r="A105" s="113"/>
+      <c r="A105" s="106"/>
       <c r="B105" s="1">
         <v>104</v>
       </c>
-      <c r="C105" s="16"/>
-      <c r="D105" s="37" t="s">
+      <c r="C105" s="15"/>
+      <c r="D105" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="E105" s="13">
-        <v>1</v>
-      </c>
-      <c r="F105" s="102"/>
-      <c r="G105" s="102"/>
-      <c r="H105" s="107"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
+      <c r="E105" s="12">
+        <v>1</v>
+      </c>
+      <c r="F105" s="98"/>
+      <c r="G105" s="98"/>
+      <c r="H105" s="86"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
     </row>
     <row r="106" spans="1:15" ht="18">
-      <c r="A106" s="113"/>
+      <c r="A106" s="106"/>
       <c r="B106" s="1">
         <v>105</v>
       </c>
-      <c r="C106" s="16">
+      <c r="C106" s="15">
         <v>10</v>
       </c>
-      <c r="D106" s="37" t="s">
+      <c r="D106" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E106" s="13">
+      <c r="E106" s="12">
         <v>2</v>
       </c>
-      <c r="F106" s="102"/>
-      <c r="G106" s="102"/>
-      <c r="H106" s="107"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
+      <c r="F106" s="98"/>
+      <c r="G106" s="98"/>
+      <c r="H106" s="86"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
     </row>
     <row r="107" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A107" s="117"/>
+      <c r="A107" s="108"/>
       <c r="B107" s="1">
         <v>106</v>
       </c>
-      <c r="C107" s="16">
+      <c r="C107" s="15">
         <v>11</v>
       </c>
-      <c r="D107" s="38" t="s">
+      <c r="D107" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E107" s="13">
-        <v>1</v>
-      </c>
-      <c r="F107" s="102"/>
-      <c r="G107" s="102"/>
-      <c r="H107" s="107"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
+      <c r="E107" s="12">
+        <v>1</v>
+      </c>
+      <c r="F107" s="98"/>
+      <c r="G107" s="98"/>
+      <c r="H107" s="86"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
     </row>
     <row r="108" spans="1:15" ht="18">
-      <c r="A108" s="112" t="s">
+      <c r="A108" s="105" t="s">
         <v>144</v>
       </c>
       <c r="B108" s="1">
         <v>107</v>
       </c>
-      <c r="C108" s="16">
-        <v>1</v>
-      </c>
-      <c r="D108" s="30" t="s">
+      <c r="C108" s="15">
+        <v>1</v>
+      </c>
+      <c r="D108" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E108" s="13">
-        <v>1</v>
-      </c>
-      <c r="F108" s="59" t="s">
+      <c r="E108" s="12">
+        <v>1</v>
+      </c>
+      <c r="F108" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="H108" s="59"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="5"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
     </row>
     <row r="109" spans="1:15" ht="18" customHeight="1">
-      <c r="A109" s="113"/>
+      <c r="A109" s="106"/>
       <c r="B109" s="1">
         <v>108</v>
       </c>
-      <c r="C109" s="16">
+      <c r="C109" s="15">
         <v>2</v>
       </c>
-      <c r="D109" s="31" t="s">
+      <c r="D109" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E109" s="13">
-        <v>1</v>
-      </c>
-      <c r="F109" s="59" t="s">
+      <c r="E109" s="12">
+        <v>1</v>
+      </c>
+      <c r="F109" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="H109" s="59"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
-      <c r="O109" s="5"/>
+      <c r="H109" s="56"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
     </row>
     <row r="110" spans="1:15" ht="18">
-      <c r="A110" s="113"/>
+      <c r="A110" s="106"/>
       <c r="B110" s="1">
         <v>109</v>
       </c>
-      <c r="C110" s="16">
+      <c r="C110" s="15">
         <v>3</v>
       </c>
-      <c r="D110" s="31" t="s">
+      <c r="D110" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="E110" s="13">
-        <v>1</v>
-      </c>
-      <c r="F110" s="59" t="s">
+      <c r="E110" s="12">
+        <v>1</v>
+      </c>
+      <c r="F110" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="H110" s="59"/>
+      <c r="H110" s="56"/>
     </row>
     <row r="111" spans="1:15" ht="18.75" thickBot="1">
-      <c r="A111" s="113"/>
+      <c r="A111" s="106"/>
       <c r="B111" s="1">
         <v>110</v>
       </c>
-      <c r="C111" s="16">
+      <c r="C111" s="15">
         <v>4</v>
       </c>
-      <c r="D111" s="32" t="s">
+      <c r="D111" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="E111" s="13">
+      <c r="E111" s="12">
         <v>2</v>
       </c>
-      <c r="F111" s="59" t="s">
+      <c r="F111" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="H111" s="59"/>
+      <c r="H111" s="56"/>
     </row>
     <row r="112" spans="1:15" ht="18">
-      <c r="A112" s="113"/>
+      <c r="A112" s="106"/>
       <c r="B112" s="1">
         <v>111</v>
       </c>
-      <c r="C112" s="16">
+      <c r="C112" s="15">
         <v>5</v>
       </c>
-      <c r="D112" s="30" t="s">
+      <c r="D112" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E112" s="13">
-        <v>1</v>
-      </c>
-      <c r="F112" s="59" t="s">
+      <c r="E112" s="12">
+        <v>1</v>
+      </c>
+      <c r="F112" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="H112" s="59"/>
+      <c r="H112" s="56"/>
     </row>
     <row r="113" spans="1:8" ht="18">
-      <c r="A113" s="113"/>
+      <c r="A113" s="106"/>
       <c r="B113" s="1">
         <v>112</v>
       </c>
-      <c r="C113" s="16">
+      <c r="C113" s="15">
         <v>6</v>
       </c>
-      <c r="D113" s="31" t="s">
+      <c r="D113" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E113" s="13">
-        <v>1</v>
-      </c>
-      <c r="F113" s="59" t="s">
+      <c r="E113" s="12">
+        <v>1</v>
+      </c>
+      <c r="F113" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="H113" s="59"/>
+      <c r="H113" s="56"/>
     </row>
     <row r="114" spans="1:8" ht="18">
-      <c r="A114" s="113"/>
+      <c r="A114" s="106"/>
       <c r="B114" s="1">
         <v>113</v>
       </c>
-      <c r="C114" s="16">
+      <c r="C114" s="15">
         <v>7</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D114" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="E114" s="13">
-        <v>1</v>
-      </c>
-      <c r="F114" s="59" t="s">
+      <c r="E114" s="12">
+        <v>1</v>
+      </c>
+      <c r="F114" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="H114" s="59"/>
+      <c r="H114" s="56"/>
     </row>
     <row r="115" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A115" s="113"/>
+      <c r="A115" s="106"/>
       <c r="B115" s="1">
         <v>114</v>
       </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="32" t="s">
+      <c r="C115" s="5"/>
+      <c r="D115" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="E115" s="13">
-        <v>1</v>
-      </c>
-      <c r="F115" s="59" t="s">
+      <c r="E115" s="12">
+        <v>1</v>
+      </c>
+      <c r="F115" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="H115" s="59"/>
+      <c r="H115" s="56"/>
     </row>
     <row r="116" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A116" s="14"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="45">
+      <c r="A116" s="13"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="43">
         <f>SUM(E1:E115)</f>
         <v>133</v>
       </c>
-      <c r="H116" s="59"/>
+      <c r="H116" s="56"/>
     </row>
     <row r="117" spans="1:8" ht="18">
-      <c r="A117" s="115" t="s">
+      <c r="A117" s="102" t="s">
         <v>145</v>
       </c>
       <c r="B117" s="1">
         <v>108</v>
       </c>
-      <c r="C117" s="3">
-        <v>1</v>
-      </c>
-      <c r="D117" s="42">
+      <c r="C117" s="2">
+        <v>1</v>
+      </c>
+      <c r="D117" s="41">
         <v>0</v>
       </c>
-      <c r="E117" s="66">
-        <v>1</v>
-      </c>
-      <c r="F117" s="105" t="s">
+      <c r="E117" s="153">
+        <v>1</v>
+      </c>
+      <c r="F117" s="158" t="s">
         <v>232</v>
       </c>
-      <c r="G117" s="105">
+      <c r="G117" s="159">
         <v>6</v>
       </c>
-      <c r="H117" s="134" t="s">
+      <c r="H117" s="160" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="18" customHeight="1">
-      <c r="A118" s="116"/>
+      <c r="A118" s="103"/>
       <c r="B118" s="1">
         <v>109</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="2">
         <v>2</v>
       </c>
-      <c r="D118" s="43">
-        <v>1</v>
-      </c>
-      <c r="E118" s="66">
-        <v>1</v>
-      </c>
-      <c r="F118" s="91"/>
-      <c r="G118" s="91"/>
-      <c r="H118" s="94"/>
+      <c r="D118" s="42">
+        <v>1</v>
+      </c>
+      <c r="E118" s="153">
+        <v>1</v>
+      </c>
+      <c r="F118" s="161"/>
+      <c r="G118" s="93"/>
+      <c r="H118" s="135"/>
     </row>
     <row r="119" spans="1:8" ht="18">
-      <c r="A119" s="116"/>
+      <c r="A119" s="103"/>
       <c r="B119" s="1">
         <v>110</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="2">
         <v>3</v>
       </c>
-      <c r="D119" s="43">
+      <c r="D119" s="42">
         <v>2</v>
       </c>
-      <c r="E119" s="66">
-        <v>1</v>
-      </c>
-      <c r="F119" s="91"/>
-      <c r="G119" s="91"/>
-      <c r="H119" s="94"/>
+      <c r="E119" s="153">
+        <v>1</v>
+      </c>
+      <c r="F119" s="161"/>
+      <c r="G119" s="93"/>
+      <c r="H119" s="135"/>
     </row>
     <row r="120" spans="1:8" ht="18">
-      <c r="A120" s="116"/>
+      <c r="A120" s="103"/>
       <c r="B120" s="1">
         <v>111</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="2">
         <v>4</v>
       </c>
-      <c r="D120" s="43">
+      <c r="D120" s="42">
         <v>3</v>
       </c>
-      <c r="E120" s="66">
-        <v>1</v>
-      </c>
-      <c r="F120" s="91"/>
-      <c r="G120" s="91"/>
-      <c r="H120" s="94"/>
+      <c r="E120" s="153">
+        <v>1</v>
+      </c>
+      <c r="F120" s="161"/>
+      <c r="G120" s="93"/>
+      <c r="H120" s="135"/>
     </row>
     <row r="121" spans="1:8" ht="18">
-      <c r="A121" s="116"/>
+      <c r="A121" s="103"/>
       <c r="B121" s="1">
         <v>112</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="2">
         <v>5</v>
       </c>
-      <c r="D121" s="43">
+      <c r="D121" s="42">
         <v>4</v>
       </c>
-      <c r="E121" s="66">
-        <v>1</v>
-      </c>
-      <c r="F121" s="91"/>
-      <c r="G121" s="91"/>
-      <c r="H121" s="94"/>
+      <c r="E121" s="153">
+        <v>1</v>
+      </c>
+      <c r="F121" s="161"/>
+      <c r="G121" s="93"/>
+      <c r="H121" s="135"/>
     </row>
     <row r="122" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A122" s="116"/>
+      <c r="A122" s="103"/>
       <c r="B122" s="1">
         <v>113</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="2">
         <v>6</v>
       </c>
-      <c r="D122" s="51">
+      <c r="D122" s="48">
         <v>5</v>
       </c>
-      <c r="E122" s="66">
-        <v>1</v>
-      </c>
-      <c r="F122" s="106"/>
-      <c r="G122" s="106"/>
-      <c r="H122" s="135"/>
-    </row>
-    <row r="123" spans="1:8" ht="18.75" thickTop="1">
-      <c r="A123" s="116"/>
+      <c r="E122" s="153">
+        <v>1</v>
+      </c>
+      <c r="F122" s="162"/>
+      <c r="G122" s="163"/>
+      <c r="H122" s="136"/>
+    </row>
+    <row r="123" spans="1:8" ht="18">
+      <c r="A123" s="103"/>
       <c r="B123" s="1">
         <v>114</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="2">
         <v>7</v>
       </c>
-      <c r="D123" s="42">
+      <c r="D123" s="41">
         <v>6</v>
       </c>
-      <c r="E123" s="66">
-        <v>1</v>
-      </c>
-      <c r="F123" s="90" t="s">
+      <c r="E123" s="153">
+        <v>1</v>
+      </c>
+      <c r="F123" s="158" t="s">
         <v>233</v>
       </c>
-      <c r="G123" s="90">
+      <c r="G123" s="159">
         <v>5</v>
       </c>
-      <c r="H123" s="93" t="s">
+      <c r="H123" s="160" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="18">
-      <c r="A124" s="116"/>
+      <c r="A124" s="103"/>
       <c r="B124" s="1">
         <v>115</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="2">
         <v>8</v>
       </c>
-      <c r="D124" s="43">
+      <c r="D124" s="42">
         <v>7</v>
       </c>
-      <c r="E124" s="66">
-        <v>1</v>
-      </c>
-      <c r="F124" s="91"/>
-      <c r="G124" s="91"/>
-      <c r="H124" s="94"/>
+      <c r="E124" s="153">
+        <v>1</v>
+      </c>
+      <c r="F124" s="161"/>
+      <c r="G124" s="93"/>
+      <c r="H124" s="135"/>
     </row>
     <row r="125" spans="1:8" ht="18">
-      <c r="A125" s="116"/>
+      <c r="A125" s="103"/>
       <c r="B125" s="1">
         <v>116</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="2">
         <v>9</v>
       </c>
-      <c r="D125" s="43">
+      <c r="D125" s="42">
         <v>8</v>
       </c>
-      <c r="E125" s="66">
-        <v>1</v>
-      </c>
-      <c r="F125" s="91"/>
-      <c r="G125" s="91"/>
-      <c r="H125" s="94"/>
+      <c r="E125" s="153">
+        <v>1</v>
+      </c>
+      <c r="F125" s="161"/>
+      <c r="G125" s="93"/>
+      <c r="H125" s="135"/>
     </row>
     <row r="126" spans="1:8" ht="18">
-      <c r="A126" s="116"/>
+      <c r="A126" s="103"/>
       <c r="B126" s="1">
         <v>117</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="2">
         <v>10</v>
       </c>
-      <c r="D126" s="43">
+      <c r="D126" s="42">
         <v>9</v>
       </c>
-      <c r="E126" s="66">
-        <v>1</v>
-      </c>
-      <c r="F126" s="91"/>
-      <c r="G126" s="91"/>
-      <c r="H126" s="94"/>
+      <c r="E126" s="153">
+        <v>1</v>
+      </c>
+      <c r="F126" s="161"/>
+      <c r="G126" s="93"/>
+      <c r="H126" s="135"/>
     </row>
     <row r="127" spans="1:8" ht="18.75" thickBot="1">
-      <c r="A127" s="116"/>
+      <c r="A127" s="103"/>
       <c r="B127" s="1">
         <v>118</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="2">
         <v>11</v>
       </c>
-      <c r="D127" s="44">
+      <c r="D127" s="48">
         <v>10</v>
       </c>
-      <c r="E127" s="82">
-        <v>1</v>
-      </c>
-      <c r="F127" s="92"/>
-      <c r="G127" s="92"/>
-      <c r="H127" s="95"/>
-    </row>
-    <row r="128" spans="1:8" ht="18.75" thickTop="1">
-      <c r="A128" s="55"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="83">
+      <c r="E127" s="154">
+        <v>1</v>
+      </c>
+      <c r="F127" s="162"/>
+      <c r="G127" s="163"/>
+      <c r="H127" s="136"/>
+    </row>
+    <row r="128" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A128" s="52"/>
+      <c r="B128" s="142"/>
+      <c r="C128" s="143">
         <v>12</v>
       </c>
-      <c r="D128" s="84" t="s">
+      <c r="D128" s="146" t="s">
         <v>255</v>
       </c>
-      <c r="E128" s="85" t="s">
+      <c r="E128" s="150" t="s">
         <v>254</v>
       </c>
-      <c r="F128" s="96" t="s">
+      <c r="F128" s="155" t="s">
         <v>234</v>
       </c>
-      <c r="G128" s="96">
+      <c r="G128" s="156">
         <v>5</v>
       </c>
-      <c r="H128" s="99" t="s">
+      <c r="H128" s="157" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="18">
-      <c r="A129" s="55"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="83">
+    <row r="129" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A129" s="52"/>
+      <c r="B129" s="142"/>
+      <c r="C129" s="143">
         <v>13</v>
       </c>
-      <c r="D129" s="84" t="s">
+      <c r="D129" s="147" t="s">
         <v>255</v>
       </c>
-      <c r="E129" s="85" t="s">
+      <c r="E129" s="151" t="s">
         <v>254</v>
       </c>
-      <c r="F129" s="97"/>
-      <c r="G129" s="97"/>
-      <c r="H129" s="100"/>
-    </row>
-    <row r="130" spans="1:8" ht="18">
-      <c r="A130" s="55"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="83">
+      <c r="F129" s="149"/>
+      <c r="G129" s="144"/>
+      <c r="H129" s="145"/>
+    </row>
+    <row r="130" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A130" s="52"/>
+      <c r="B130" s="142"/>
+      <c r="C130" s="143">
         <v>14</v>
       </c>
-      <c r="D130" s="84" t="s">
+      <c r="D130" s="147" t="s">
         <v>255</v>
       </c>
-      <c r="E130" s="85" t="s">
+      <c r="E130" s="151" t="s">
         <v>254</v>
       </c>
-      <c r="F130" s="97"/>
-      <c r="G130" s="97"/>
-      <c r="H130" s="100"/>
-    </row>
-    <row r="131" spans="1:8" ht="18">
-      <c r="A131" s="55"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="83">
+      <c r="F130" s="149"/>
+      <c r="G130" s="144"/>
+      <c r="H130" s="145"/>
+    </row>
+    <row r="131" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A131" s="52"/>
+      <c r="B131" s="142"/>
+      <c r="C131" s="143">
         <v>15</v>
       </c>
-      <c r="D131" s="84" t="s">
+      <c r="D131" s="147" t="s">
         <v>255</v>
       </c>
-      <c r="E131" s="85" t="s">
+      <c r="E131" s="151" t="s">
         <v>254</v>
       </c>
-      <c r="F131" s="97"/>
-      <c r="G131" s="97"/>
-      <c r="H131" s="100"/>
-    </row>
-    <row r="132" spans="1:8" ht="18">
-      <c r="A132" s="55"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="83">
+      <c r="F131" s="149"/>
+      <c r="G131" s="144"/>
+      <c r="H131" s="145"/>
+    </row>
+    <row r="132" spans="1:8" ht="18.75" thickBot="1">
+      <c r="A132" s="52"/>
+      <c r="B132" s="142"/>
+      <c r="C132" s="143">
         <v>16</v>
       </c>
-      <c r="D132" s="84" t="s">
+      <c r="D132" s="148" t="s">
         <v>255</v>
       </c>
-      <c r="E132" s="85" t="s">
+      <c r="E132" s="152" t="s">
         <v>254</v>
       </c>
-      <c r="F132" s="98"/>
-      <c r="G132" s="98"/>
-      <c r="H132" s="101"/>
+      <c r="F132" s="149"/>
+      <c r="G132" s="144"/>
+      <c r="H132" s="145"/>
     </row>
     <row r="133" spans="1:8" ht="18">
-      <c r="A133" s="55"/>
+      <c r="A133" s="52"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="53"/>
-      <c r="E133" s="49"/>
-      <c r="F133" s="60"/>
-      <c r="G133" s="60"/>
-      <c r="H133" s="60"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="46"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="57"/>
+      <c r="H133" s="57"/>
     </row>
     <row r="134" spans="1:8" ht="18">
-      <c r="A134" s="55"/>
+      <c r="A134" s="52"/>
       <c r="B134" s="1"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="53"/>
-      <c r="E134" s="49"/>
-      <c r="F134" s="60"/>
-      <c r="G134" s="60"/>
-      <c r="H134" s="60"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="50"/>
+      <c r="E134" s="46"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="57"/>
+      <c r="H134" s="57"/>
     </row>
     <row r="135" spans="1:8" ht="18">
-      <c r="A135" s="55"/>
+      <c r="A135" s="52"/>
       <c r="B135" s="1"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="60"/>
-      <c r="G135" s="60"/>
-      <c r="H135" s="60"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="46"/>
+      <c r="F135" s="57"/>
+      <c r="G135" s="57"/>
+      <c r="H135" s="57"/>
     </row>
     <row r="136" spans="1:8" ht="18">
-      <c r="A136" s="55"/>
+      <c r="A136" s="52"/>
       <c r="B136" s="1"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="53"/>
-      <c r="E136" s="49"/>
-      <c r="F136" s="60"/>
-      <c r="G136" s="60"/>
-      <c r="H136" s="60"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="50"/>
+      <c r="E136" s="46"/>
+      <c r="F136" s="57"/>
+      <c r="G136" s="57"/>
+      <c r="H136" s="57"/>
     </row>
     <row r="137" spans="1:8" ht="18">
-      <c r="A137" s="55"/>
+      <c r="A137" s="52"/>
       <c r="B137" s="1"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="53"/>
-      <c r="E137" s="49"/>
-      <c r="F137" s="60"/>
-      <c r="G137" s="60"/>
-      <c r="H137" s="60"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="46"/>
+      <c r="F137" s="57"/>
+      <c r="G137" s="57"/>
+      <c r="H137" s="57"/>
     </row>
     <row r="138" spans="1:8" ht="18">
-      <c r="A138" s="55"/>
+      <c r="A138" s="52"/>
       <c r="B138" s="1"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="53"/>
-      <c r="E138" s="49"/>
-      <c r="F138" s="60"/>
-      <c r="G138" s="60"/>
-      <c r="H138" s="60"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="50"/>
+      <c r="E138" s="46"/>
+      <c r="F138" s="57"/>
+      <c r="G138" s="57"/>
+      <c r="H138" s="57"/>
     </row>
     <row r="139" spans="1:8" ht="18">
-      <c r="A139" s="55"/>
+      <c r="A139" s="52"/>
       <c r="B139" s="1"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="53"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="60"/>
-      <c r="G139" s="60"/>
-      <c r="H139" s="60"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="46"/>
+      <c r="F139" s="57"/>
+      <c r="G139" s="57"/>
+      <c r="H139" s="57"/>
     </row>
     <row r="140" spans="1:8" ht="18">
-      <c r="A140" s="55"/>
+      <c r="A140" s="52"/>
       <c r="B140" s="1"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="53"/>
-      <c r="E140" s="49"/>
-      <c r="F140" s="60"/>
-      <c r="G140" s="60"/>
-      <c r="H140" s="60"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="46"/>
+      <c r="F140" s="57"/>
+      <c r="G140" s="57"/>
+      <c r="H140" s="57"/>
     </row>
     <row r="141" spans="1:8" ht="18">
-      <c r="A141" s="55"/>
+      <c r="A141" s="52"/>
       <c r="B141" s="1"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="53"/>
-      <c r="E141" s="49"/>
-      <c r="F141" s="60"/>
-      <c r="G141" s="60"/>
-      <c r="H141" s="60"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="46"/>
+      <c r="F141" s="57"/>
+      <c r="G141" s="57"/>
+      <c r="H141" s="57"/>
     </row>
     <row r="142" spans="1:8" ht="18">
-      <c r="A142" s="55"/>
+      <c r="A142" s="52"/>
       <c r="B142" s="1"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="53"/>
-      <c r="E142" s="49"/>
-      <c r="F142" s="60"/>
-      <c r="G142" s="60"/>
-      <c r="H142" s="60"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="57"/>
+      <c r="G142" s="57"/>
+      <c r="H142" s="57"/>
     </row>
     <row r="143" spans="1:8" ht="18">
-      <c r="A143" s="55"/>
+      <c r="A143" s="52"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="53"/>
-      <c r="E143" s="49"/>
-      <c r="F143" s="60"/>
-      <c r="G143" s="60"/>
-      <c r="H143" s="60"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="50"/>
+      <c r="E143" s="46"/>
+      <c r="F143" s="57"/>
+      <c r="G143" s="57"/>
+      <c r="H143" s="57"/>
     </row>
     <row r="144" spans="1:8" ht="18">
-      <c r="A144" s="55"/>
+      <c r="A144" s="52"/>
       <c r="B144" s="1"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="53"/>
-      <c r="E144" s="49"/>
-      <c r="F144" s="60"/>
-      <c r="G144" s="60"/>
-      <c r="H144" s="60"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="46"/>
+      <c r="F144" s="57"/>
+      <c r="G144" s="57"/>
+      <c r="H144" s="57"/>
     </row>
     <row r="145" spans="1:8" ht="18">
-      <c r="A145" s="55"/>
+      <c r="A145" s="52"/>
       <c r="B145" s="1"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="53"/>
-      <c r="E145" s="49"/>
-      <c r="F145" s="60"/>
-      <c r="G145" s="60"/>
-      <c r="H145" s="60"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="50"/>
+      <c r="E145" s="46"/>
+      <c r="F145" s="57"/>
+      <c r="G145" s="57"/>
+      <c r="H145" s="57"/>
     </row>
     <row r="146" spans="1:8" ht="18">
-      <c r="A146" s="55"/>
+      <c r="A146" s="52"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="53"/>
-      <c r="E146" s="49"/>
-      <c r="F146" s="60"/>
-      <c r="G146" s="60"/>
-      <c r="H146" s="60"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="46"/>
+      <c r="F146" s="57"/>
+      <c r="G146" s="57"/>
+      <c r="H146" s="57"/>
     </row>
     <row r="147" spans="1:8" ht="18">
-      <c r="A147" s="55"/>
+      <c r="A147" s="52"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="53"/>
-      <c r="E147" s="49"/>
-      <c r="F147" s="60"/>
-      <c r="G147" s="60"/>
-      <c r="H147" s="60"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="46"/>
+      <c r="F147" s="57"/>
+      <c r="G147" s="57"/>
+      <c r="H147" s="57"/>
     </row>
     <row r="148" spans="1:8" ht="18">
-      <c r="A148" s="55"/>
+      <c r="A148" s="52"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="53"/>
-      <c r="E148" s="49"/>
-      <c r="F148" s="60"/>
-      <c r="G148" s="60"/>
-      <c r="H148" s="60"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="50"/>
+      <c r="E148" s="46"/>
+      <c r="F148" s="57"/>
+      <c r="G148" s="57"/>
+      <c r="H148" s="57"/>
     </row>
     <row r="149" spans="1:8" ht="18">
-      <c r="A149" s="55"/>
+      <c r="A149" s="52"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="53"/>
-      <c r="E149" s="49"/>
-      <c r="F149" s="60"/>
-      <c r="G149" s="60"/>
-      <c r="H149" s="60"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="50"/>
+      <c r="E149" s="46"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="57"/>
+      <c r="H149" s="57"/>
     </row>
     <row r="150" spans="1:8" ht="18">
-      <c r="A150" s="55"/>
+      <c r="A150" s="52"/>
       <c r="B150" s="1"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="54"/>
-      <c r="E150" s="49"/>
-      <c r="F150" s="60"/>
-      <c r="G150" s="60"/>
-      <c r="H150" s="60"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="51"/>
+      <c r="E150" s="46"/>
+      <c r="F150" s="57"/>
+      <c r="G150" s="57"/>
+      <c r="H150" s="57"/>
     </row>
     <row r="151" spans="1:8" ht="18">
-      <c r="A151" s="55"/>
+      <c r="A151" s="52"/>
       <c r="B151" s="1"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="54"/>
-      <c r="E151" s="49"/>
-      <c r="F151" s="60"/>
-      <c r="G151" s="60"/>
-      <c r="H151" s="60"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="51"/>
+      <c r="E151" s="46"/>
+      <c r="F151" s="57"/>
+      <c r="G151" s="57"/>
+      <c r="H151" s="57"/>
     </row>
     <row r="152" spans="1:8" ht="18">
-      <c r="A152" s="56"/>
+      <c r="A152" s="53"/>
       <c r="B152" s="1"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="53"/>
-      <c r="E152" s="49"/>
-      <c r="F152" s="60"/>
-      <c r="G152" s="60"/>
-      <c r="H152" s="60"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="46"/>
+      <c r="F152" s="57"/>
+      <c r="G152" s="57"/>
+      <c r="H152" s="57"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="14"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="49">
+      <c r="A153" s="13"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="46">
         <f>SUM(E117:E152)</f>
         <v>11</v>
       </c>
-      <c r="F153" s="60"/>
-      <c r="G153" s="60"/>
-      <c r="H153" s="60"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="57"/>
+      <c r="H153" s="57"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="14"/>
-      <c r="B154" s="48"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="49"/>
-      <c r="F154" s="60"/>
-      <c r="G154" s="60"/>
-      <c r="H154" s="60"/>
+      <c r="A154" s="13"/>
+      <c r="B154" s="45"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="46"/>
+      <c r="F154" s="57"/>
+      <c r="G154" s="57"/>
+      <c r="H154" s="57"/>
     </row>
     <row r="155" spans="1:8" ht="18">
-      <c r="A155" s="50"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="49"/>
-      <c r="F155" s="60"/>
-      <c r="G155" s="60"/>
-      <c r="H155" s="60"/>
+      <c r="A155" s="47"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="46"/>
+      <c r="F155" s="57"/>
+      <c r="G155" s="57"/>
+      <c r="H155" s="57"/>
     </row>
     <row r="156" spans="1:8" ht="18">
-      <c r="A156" s="50"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="49"/>
-      <c r="F156" s="60"/>
-      <c r="G156" s="60"/>
-      <c r="H156" s="60"/>
+      <c r="A156" s="47"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="46"/>
+      <c r="F156" s="57"/>
+      <c r="G156" s="57"/>
+      <c r="H156" s="57"/>
     </row>
     <row r="157" spans="1:8" ht="18">
-      <c r="A157" s="50"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="49"/>
-      <c r="F157" s="60"/>
-      <c r="G157" s="60"/>
-      <c r="H157" s="60"/>
+      <c r="A157" s="47"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="46"/>
+      <c r="F157" s="57"/>
+      <c r="G157" s="57"/>
+      <c r="H157" s="57"/>
     </row>
     <row r="158" spans="1:8" ht="18">
-      <c r="A158" s="50"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="49"/>
-      <c r="F158" s="60"/>
-      <c r="G158" s="60"/>
-      <c r="H158" s="60"/>
+      <c r="A158" s="47"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="46"/>
+      <c r="F158" s="57"/>
+      <c r="G158" s="57"/>
+      <c r="H158" s="57"/>
     </row>
     <row r="159" spans="1:8" ht="18">
-      <c r="A159" s="50"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="49"/>
-      <c r="F159" s="60"/>
-      <c r="G159" s="60"/>
-      <c r="H159" s="60"/>
+      <c r="A159" s="47"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="46"/>
+      <c r="F159" s="57"/>
+      <c r="G159" s="57"/>
+      <c r="H159" s="57"/>
     </row>
     <row r="160" spans="1:8" ht="18">
-      <c r="A160" s="50"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="49"/>
-      <c r="F160" s="60"/>
-      <c r="G160" s="60"/>
-      <c r="H160" s="60"/>
+      <c r="A160" s="47"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="46"/>
+      <c r="F160" s="57"/>
+      <c r="G160" s="57"/>
+      <c r="H160" s="57"/>
     </row>
     <row r="161" spans="1:8" ht="18">
-      <c r="A161" s="50"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="49"/>
-      <c r="F161" s="60"/>
-      <c r="G161" s="60"/>
-      <c r="H161" s="60"/>
+      <c r="A161" s="47"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="46"/>
+      <c r="F161" s="57"/>
+      <c r="G161" s="57"/>
+      <c r="H161" s="57"/>
     </row>
     <row r="162" spans="1:8" ht="18">
-      <c r="A162" s="50"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="49"/>
-      <c r="F162" s="60"/>
-      <c r="G162" s="60"/>
-      <c r="H162" s="60"/>
+      <c r="A162" s="47"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="46"/>
+      <c r="F162" s="57"/>
+      <c r="G162" s="57"/>
+      <c r="H162" s="57"/>
     </row>
     <row r="163" spans="1:8" ht="18">
-      <c r="A163" s="50"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="49"/>
-      <c r="F163" s="60"/>
-      <c r="G163" s="60"/>
-      <c r="H163" s="60"/>
+      <c r="A163" s="47"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="46"/>
+      <c r="F163" s="57"/>
+      <c r="G163" s="57"/>
+      <c r="H163" s="57"/>
     </row>
     <row r="164" spans="1:8" ht="18">
-      <c r="A164" s="50"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="49"/>
-      <c r="F164" s="60"/>
-      <c r="G164" s="60"/>
-      <c r="H164" s="60"/>
+      <c r="A164" s="47"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="46"/>
+      <c r="F164" s="57"/>
+      <c r="G164" s="57"/>
+      <c r="H164" s="57"/>
     </row>
     <row r="165" spans="1:8" ht="18">
-      <c r="A165" s="50"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="49"/>
-      <c r="F165" s="60"/>
-      <c r="G165" s="60"/>
-      <c r="H165" s="60"/>
+      <c r="A165" s="47"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="46"/>
+      <c r="F165" s="57"/>
+      <c r="G165" s="57"/>
+      <c r="H165" s="57"/>
     </row>
     <row r="166" spans="1:8" ht="18">
-      <c r="A166" s="50"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="49"/>
-      <c r="F166" s="60"/>
-      <c r="G166" s="60"/>
-      <c r="H166" s="60"/>
+      <c r="A166" s="47"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="46"/>
+      <c r="F166" s="57"/>
+      <c r="G166" s="57"/>
+      <c r="H166" s="57"/>
     </row>
     <row r="167" spans="1:8" ht="18">
-      <c r="A167" s="50"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="49"/>
-      <c r="F167" s="60"/>
-      <c r="G167" s="60"/>
-      <c r="H167" s="60"/>
+      <c r="A167" s="47"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="46"/>
+      <c r="F167" s="57"/>
+      <c r="G167" s="57"/>
+      <c r="H167" s="57"/>
     </row>
     <row r="168" spans="1:8" ht="18">
-      <c r="A168" s="50"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="49"/>
-      <c r="F168" s="60"/>
-      <c r="G168" s="60"/>
-      <c r="H168" s="60"/>
+      <c r="A168" s="47"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="46"/>
+      <c r="F168" s="57"/>
+      <c r="G168" s="57"/>
+      <c r="H168" s="57"/>
     </row>
     <row r="169" spans="1:8" ht="18">
-      <c r="A169" s="50"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="49"/>
-      <c r="F169" s="60"/>
-      <c r="G169" s="60"/>
-      <c r="H169" s="60"/>
+      <c r="A169" s="47"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="46"/>
+      <c r="F169" s="57"/>
+      <c r="G169" s="57"/>
+      <c r="H169" s="57"/>
     </row>
     <row r="170" spans="1:8" ht="18">
-      <c r="A170" s="50"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="49"/>
-      <c r="F170" s="60"/>
-      <c r="G170" s="60"/>
-      <c r="H170" s="60"/>
+      <c r="A170" s="47"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="46"/>
+      <c r="F170" s="57"/>
+      <c r="G170" s="57"/>
+      <c r="H170" s="57"/>
     </row>
     <row r="171" spans="1:8" ht="18">
-      <c r="A171" s="50"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="49"/>
-      <c r="F171" s="60"/>
-      <c r="G171" s="60"/>
-      <c r="H171" s="60"/>
+      <c r="A171" s="47"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="46"/>
+      <c r="F171" s="57"/>
+      <c r="G171" s="57"/>
+      <c r="H171" s="57"/>
     </row>
     <row r="172" spans="1:8" ht="18">
-      <c r="A172" s="50"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="49"/>
-      <c r="F172" s="60"/>
-      <c r="G172" s="60"/>
-      <c r="H172" s="60"/>
+      <c r="A172" s="47"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="46"/>
+      <c r="F172" s="57"/>
+      <c r="G172" s="57"/>
+      <c r="H172" s="57"/>
     </row>
     <row r="173" spans="1:8" ht="18">
-      <c r="A173" s="50"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="49"/>
-      <c r="F173" s="60"/>
-      <c r="G173" s="60"/>
-      <c r="H173" s="60"/>
+      <c r="A173" s="47"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="46"/>
+      <c r="F173" s="57"/>
+      <c r="G173" s="57"/>
+      <c r="H173" s="57"/>
     </row>
     <row r="174" spans="1:8" ht="18">
-      <c r="A174" s="50"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="49"/>
-      <c r="F174" s="60"/>
-      <c r="G174" s="60"/>
-      <c r="H174" s="7"/>
+      <c r="A174" s="47"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="46"/>
+      <c r="F174" s="57"/>
+      <c r="G174" s="57"/>
+      <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:8" ht="18">
-      <c r="A175" s="50"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="49"/>
-      <c r="F175" s="60"/>
-      <c r="G175" s="60"/>
-      <c r="H175" s="7"/>
+      <c r="A175" s="47"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="46"/>
+      <c r="F175" s="57"/>
+      <c r="G175" s="57"/>
+      <c r="H175" s="6"/>
     </row>
     <row r="176" spans="1:8" ht="18">
-      <c r="A176" s="50"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="49"/>
-      <c r="F176" s="60"/>
-      <c r="G176" s="60"/>
-      <c r="H176" s="7"/>
+      <c r="A176" s="47"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="46"/>
+      <c r="F176" s="57"/>
+      <c r="G176" s="57"/>
+      <c r="H176" s="6"/>
     </row>
     <row r="177" spans="1:8" ht="18">
-      <c r="A177" s="50"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="49"/>
-      <c r="F177" s="60"/>
-      <c r="G177" s="60"/>
-      <c r="H177" s="7"/>
+      <c r="A177" s="47"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="46"/>
+      <c r="F177" s="57"/>
+      <c r="G177" s="57"/>
+      <c r="H177" s="6"/>
     </row>
     <row r="178" spans="1:8" ht="18">
-      <c r="A178" s="50"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="49"/>
-      <c r="F178" s="60"/>
-      <c r="G178" s="60"/>
-      <c r="H178" s="7"/>
+      <c r="A178" s="47"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="46"/>
+      <c r="F178" s="57"/>
+      <c r="G178" s="57"/>
+      <c r="H178" s="6"/>
     </row>
     <row r="179" spans="1:8" ht="18">
-      <c r="A179" s="50"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="49"/>
-      <c r="F179" s="60"/>
-      <c r="G179" s="60"/>
-      <c r="H179" s="7"/>
+      <c r="A179" s="47"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="46"/>
+      <c r="F179" s="57"/>
+      <c r="G179" s="57"/>
+      <c r="H179" s="6"/>
     </row>
     <row r="180" spans="1:8" ht="18">
-      <c r="A180" s="50"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="49"/>
-      <c r="F180" s="60"/>
-      <c r="G180" s="60"/>
-      <c r="H180" s="7"/>
+      <c r="A180" s="47"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="46"/>
+      <c r="F180" s="57"/>
+      <c r="G180" s="57"/>
+      <c r="H180" s="6"/>
     </row>
     <row r="181" spans="1:8" ht="18">
-      <c r="A181" s="50"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="49"/>
-      <c r="F181" s="60"/>
-      <c r="G181" s="60"/>
-      <c r="H181" s="7"/>
+      <c r="A181" s="47"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="46"/>
+      <c r="F181" s="57"/>
+      <c r="G181" s="57"/>
+      <c r="H181" s="6"/>
     </row>
     <row r="182" spans="1:8" ht="18">
-      <c r="A182" s="50"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="49"/>
-      <c r="F182" s="60"/>
-      <c r="G182" s="60"/>
-      <c r="H182" s="7"/>
+      <c r="A182" s="47"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="46"/>
+      <c r="F182" s="57"/>
+      <c r="G182" s="57"/>
+      <c r="H182" s="6"/>
     </row>
     <row r="183" spans="1:8" ht="18">
-      <c r="A183" s="50"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="49"/>
-      <c r="F183" s="60"/>
-      <c r="G183" s="60"/>
-      <c r="H183" s="7"/>
+      <c r="A183" s="47"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="46"/>
+      <c r="F183" s="57"/>
+      <c r="G183" s="57"/>
+      <c r="H183" s="6"/>
     </row>
     <row r="184" spans="1:8" ht="18">
-      <c r="A184" s="50"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="49"/>
-      <c r="F184" s="60"/>
-      <c r="G184" s="60"/>
-      <c r="H184" s="7"/>
+      <c r="A184" s="47"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="46"/>
+      <c r="F184" s="57"/>
+      <c r="G184" s="57"/>
+      <c r="H184" s="6"/>
     </row>
     <row r="185" spans="1:8" ht="18">
-      <c r="A185" s="50"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="49"/>
-      <c r="F185" s="60"/>
-      <c r="G185" s="60"/>
-      <c r="H185" s="7"/>
+      <c r="A185" s="47"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="46"/>
+      <c r="F185" s="57"/>
+      <c r="G185" s="57"/>
+      <c r="H185" s="6"/>
     </row>
     <row r="186" spans="1:8" ht="18">
-      <c r="A186" s="50"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="49"/>
-      <c r="F186" s="60"/>
-      <c r="G186" s="60"/>
-      <c r="H186" s="7"/>
+      <c r="A186" s="47"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="46"/>
+      <c r="F186" s="57"/>
+      <c r="G186" s="57"/>
+      <c r="H186" s="6"/>
     </row>
     <row r="187" spans="1:8" ht="18">
-      <c r="A187" s="50"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="49"/>
-      <c r="F187" s="60"/>
-      <c r="G187" s="60"/>
-      <c r="H187" s="7"/>
+      <c r="A187" s="47"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="46"/>
+      <c r="F187" s="57"/>
+      <c r="G187" s="57"/>
+      <c r="H187" s="6"/>
     </row>
     <row r="188" spans="1:8" ht="18">
-      <c r="A188" s="50"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="49"/>
-      <c r="F188" s="60"/>
-      <c r="G188" s="60"/>
-      <c r="H188" s="7"/>
+      <c r="A188" s="47"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="46"/>
+      <c r="F188" s="57"/>
+      <c r="G188" s="57"/>
+      <c r="H188" s="6"/>
     </row>
     <row r="189" spans="1:8" ht="18">
-      <c r="A189" s="50"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="49"/>
-      <c r="F189" s="60"/>
-      <c r="G189" s="60"/>
-      <c r="H189" s="7"/>
+      <c r="A189" s="47"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="46"/>
+      <c r="F189" s="57"/>
+      <c r="G189" s="57"/>
+      <c r="H189" s="6"/>
     </row>
     <row r="190" spans="1:8" ht="18">
-      <c r="A190" s="50"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="49"/>
-      <c r="F190" s="60"/>
-      <c r="G190" s="60"/>
-      <c r="H190" s="7"/>
+      <c r="A190" s="47"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="46"/>
+      <c r="F190" s="57"/>
+      <c r="G190" s="57"/>
+      <c r="H190" s="6"/>
     </row>
     <row r="191" spans="1:8" ht="18">
-      <c r="A191" s="50"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="49"/>
-      <c r="F191" s="60"/>
-      <c r="G191" s="60"/>
-      <c r="H191" s="7"/>
+      <c r="A191" s="47"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="46"/>
+      <c r="F191" s="57"/>
+      <c r="G191" s="57"/>
+      <c r="H191" s="6"/>
     </row>
     <row r="192" spans="1:8" ht="18">
-      <c r="A192" s="50"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="49"/>
-      <c r="F192" s="60"/>
-      <c r="G192" s="60"/>
-      <c r="H192" s="7"/>
+      <c r="A192" s="47"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="46"/>
+      <c r="F192" s="57"/>
+      <c r="G192" s="57"/>
+      <c r="H192" s="6"/>
     </row>
     <row r="193" spans="1:8" ht="18">
-      <c r="A193" s="7"/>
-      <c r="B193" s="7"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="49"/>
-      <c r="F193" s="60"/>
-      <c r="G193" s="60"/>
-      <c r="H193" s="7"/>
+      <c r="A193" s="6"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="46"/>
+      <c r="F193" s="57"/>
+      <c r="G193" s="57"/>
+      <c r="H193" s="6"/>
     </row>
     <row r="194" spans="1:8" ht="18">
-      <c r="A194" s="7"/>
-      <c r="B194" s="7"/>
-      <c r="C194" s="7"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="49"/>
-      <c r="F194" s="60"/>
-      <c r="G194" s="60"/>
-      <c r="H194" s="7"/>
+      <c r="A194" s="6"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="46"/>
+      <c r="F194" s="57"/>
+      <c r="G194" s="57"/>
+      <c r="H194" s="6"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="7"/>
-      <c r="B195" s="7"/>
-      <c r="C195" s="7"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="49"/>
-      <c r="F195" s="60"/>
-      <c r="G195" s="60"/>
-      <c r="H195" s="7"/>
+      <c r="A195" s="6"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="46"/>
+      <c r="F195" s="57"/>
+      <c r="G195" s="57"/>
+      <c r="H195" s="6"/>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="7"/>
-      <c r="B196" s="7"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="49"/>
-      <c r="F196" s="60"/>
-      <c r="G196" s="60"/>
-      <c r="H196" s="7"/>
+      <c r="A196" s="6"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="46"/>
+      <c r="F196" s="57"/>
+      <c r="G196" s="57"/>
+      <c r="H196" s="6"/>
     </row>
     <row r="197" spans="1:8" ht="18">
-      <c r="A197" s="114"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="4"/>
-      <c r="E197" s="29"/>
-      <c r="F197" s="60"/>
-      <c r="G197" s="60"/>
-      <c r="H197" s="7"/>
+      <c r="A197" s="107"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="28"/>
+      <c r="F197" s="57"/>
+      <c r="G197" s="57"/>
+      <c r="H197" s="6"/>
     </row>
     <row r="198" spans="1:8" ht="18">
-      <c r="A198" s="114"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="4"/>
-      <c r="E198" s="29"/>
-      <c r="F198" s="61"/>
+      <c r="A198" s="107"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="28"/>
+      <c r="F198" s="58"/>
     </row>
     <row r="199" spans="1:8" ht="18">
-      <c r="A199" s="114"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="29"/>
-      <c r="F199" s="61"/>
+      <c r="A199" s="107"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="28"/>
+      <c r="F199" s="58"/>
     </row>
     <row r="200" spans="1:8" ht="18">
-      <c r="A200" s="114"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="4"/>
-      <c r="E200" s="29"/>
-      <c r="F200" s="61"/>
+      <c r="A200" s="107"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="28"/>
+      <c r="F200" s="58"/>
     </row>
     <row r="201" spans="1:8" ht="18">
-      <c r="A201" s="114"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="29"/>
-      <c r="F201" s="61"/>
+      <c r="A201" s="107"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="28"/>
+      <c r="F201" s="58"/>
     </row>
     <row r="202" spans="1:8" ht="18">
-      <c r="A202" s="114"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="29"/>
-      <c r="F202" s="61"/>
+      <c r="A202" s="107"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="28"/>
+      <c r="F202" s="58"/>
     </row>
     <row r="203" spans="1:8" ht="18">
-      <c r="A203" s="114"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="29"/>
-      <c r="F203" s="61"/>
+      <c r="A203" s="107"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="28"/>
+      <c r="F203" s="58"/>
     </row>
     <row r="204" spans="1:8" ht="18">
-      <c r="A204" s="114"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="29"/>
-      <c r="F204" s="61"/>
+      <c r="A204" s="107"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="28"/>
+      <c r="F204" s="58"/>
     </row>
     <row r="205" spans="1:8" ht="18">
-      <c r="A205" s="114"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="29"/>
-      <c r="F205" s="61"/>
+      <c r="A205" s="107"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="28"/>
+      <c r="F205" s="58"/>
     </row>
     <row r="206" spans="1:8" ht="18">
-      <c r="A206" s="114"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="29"/>
-      <c r="F206" s="61"/>
+      <c r="A206" s="107"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="28"/>
+      <c r="F206" s="58"/>
     </row>
     <row r="207" spans="1:8" ht="18">
-      <c r="A207" s="114"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="4"/>
-      <c r="E207" s="29"/>
-      <c r="F207" s="61"/>
+      <c r="A207" s="107"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="28"/>
+      <c r="F207" s="58"/>
     </row>
     <row r="208" spans="1:8" ht="18">
-      <c r="A208" s="114"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="4"/>
-      <c r="E208" s="29"/>
-      <c r="F208" s="61"/>
+      <c r="A208" s="107"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="28"/>
+      <c r="F208" s="58"/>
     </row>
     <row r="209" spans="1:6" ht="18">
-      <c r="A209" s="114"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="4"/>
-      <c r="E209" s="29"/>
-      <c r="F209" s="61"/>
+      <c r="A209" s="107"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="28"/>
+      <c r="F209" s="58"/>
     </row>
     <row r="210" spans="1:6" ht="18">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="4"/>
-      <c r="E210" s="29"/>
-      <c r="F210" s="61"/>
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="28"/>
+      <c r="F210" s="58"/>
     </row>
     <row r="211" spans="1:6" ht="18">
-      <c r="A211" s="114"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="4"/>
-      <c r="E211" s="29"/>
-      <c r="F211" s="61"/>
+      <c r="A211" s="107"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="28"/>
+      <c r="F211" s="58"/>
     </row>
     <row r="212" spans="1:6" ht="18">
-      <c r="A212" s="114"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="4"/>
-      <c r="E212" s="29"/>
-      <c r="F212" s="61"/>
+      <c r="A212" s="107"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="28"/>
+      <c r="F212" s="58"/>
     </row>
     <row r="213" spans="1:6" ht="18">
-      <c r="A213" s="114"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="29"/>
-      <c r="F213" s="61"/>
+      <c r="A213" s="107"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="28"/>
+      <c r="F213" s="58"/>
     </row>
     <row r="214" spans="1:6" ht="18">
-      <c r="A214" s="114"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="29"/>
-      <c r="F214" s="61"/>
+      <c r="A214" s="107"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="28"/>
+      <c r="F214" s="58"/>
     </row>
     <row r="215" spans="1:6" ht="18">
-      <c r="A215" s="114"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="4"/>
-      <c r="E215" s="29"/>
-      <c r="F215" s="61"/>
+      <c r="A215" s="107"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="28"/>
+      <c r="F215" s="58"/>
     </row>
     <row r="216" spans="1:6" ht="18">
-      <c r="A216" s="114"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="29"/>
-      <c r="F216" s="61"/>
+      <c r="A216" s="107"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="28"/>
+      <c r="F216" s="58"/>
     </row>
     <row r="217" spans="1:6" ht="18">
-      <c r="A217" s="114"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="29"/>
-      <c r="F217" s="61"/>
+      <c r="A217" s="107"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="28"/>
+      <c r="F217" s="58"/>
     </row>
     <row r="218" spans="1:6" ht="18">
-      <c r="A218" s="114"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="29"/>
-      <c r="F218" s="61"/>
+      <c r="A218" s="107"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="28"/>
+      <c r="F218" s="58"/>
     </row>
     <row r="219" spans="1:6" ht="18">
-      <c r="A219" s="114"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="4"/>
-      <c r="E219" s="29"/>
-      <c r="F219" s="61"/>
+      <c r="A219" s="107"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="3"/>
+      <c r="E219" s="28"/>
+      <c r="F219" s="58"/>
     </row>
     <row r="220" spans="1:6" ht="18">
-      <c r="A220" s="114"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="29"/>
-      <c r="F220" s="61"/>
+      <c r="A220" s="107"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="28"/>
+      <c r="F220" s="58"/>
     </row>
     <row r="221" spans="1:6" ht="18">
-      <c r="A221" s="114"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="29"/>
-      <c r="F221" s="61"/>
+      <c r="A221" s="107"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="28"/>
+      <c r="F221" s="58"/>
     </row>
     <row r="222" spans="1:6" ht="18">
-      <c r="A222" s="114"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="29"/>
-      <c r="F222" s="61"/>
+      <c r="A222" s="107"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="28"/>
+      <c r="F222" s="58"/>
     </row>
     <row r="223" spans="1:6" ht="18">
-      <c r="A223" s="114"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="4"/>
-      <c r="E223" s="29"/>
-      <c r="F223" s="61"/>
+      <c r="A223" s="107"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="28"/>
+      <c r="F223" s="58"/>
     </row>
     <row r="224" spans="1:6" ht="18">
-      <c r="A224" s="114"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="29"/>
-      <c r="F224" s="61"/>
+      <c r="A224" s="107"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="28"/>
+      <c r="F224" s="58"/>
     </row>
     <row r="225" spans="1:6" ht="18">
-      <c r="A225" s="114"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="29"/>
-      <c r="F225" s="61"/>
+      <c r="A225" s="107"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="28"/>
+      <c r="F225" s="58"/>
     </row>
     <row r="226" spans="1:6" ht="18">
-      <c r="A226" s="114"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="4"/>
-      <c r="E226" s="29"/>
-      <c r="F226" s="61"/>
+      <c r="A226" s="107"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="28"/>
+      <c r="F226" s="58"/>
     </row>
     <row r="227" spans="1:6" ht="18">
-      <c r="A227" s="114"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="29"/>
-      <c r="F227" s="61"/>
+      <c r="A227" s="107"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="28"/>
+      <c r="F227" s="58"/>
     </row>
     <row r="228" spans="1:6" ht="18">
-      <c r="A228" s="114"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="29"/>
-      <c r="F228" s="61"/>
+      <c r="A228" s="107"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="28"/>
+      <c r="F228" s="58"/>
     </row>
     <row r="229" spans="1:6" ht="18">
-      <c r="A229" s="114"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="29"/>
-      <c r="F229" s="61"/>
+      <c r="A229" s="107"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="28"/>
+      <c r="F229" s="58"/>
     </row>
     <row r="230" spans="1:6" ht="18">
-      <c r="A230" s="114"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="29"/>
-      <c r="F230" s="61"/>
+      <c r="A230" s="107"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="3"/>
+      <c r="E230" s="28"/>
+      <c r="F230" s="58"/>
     </row>
     <row r="231" spans="1:6" ht="18">
-      <c r="A231" s="114"/>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="29"/>
-      <c r="F231" s="61"/>
+      <c r="A231" s="107"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="28"/>
+      <c r="F231" s="58"/>
     </row>
     <row r="232" spans="1:6" ht="18">
-      <c r="A232" s="114"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="4"/>
-      <c r="E232" s="29"/>
-      <c r="F232" s="61"/>
+      <c r="A232" s="107"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="3"/>
+      <c r="E232" s="28"/>
+      <c r="F232" s="58"/>
     </row>
     <row r="233" spans="1:6" ht="18">
-      <c r="A233" s="114"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="29"/>
-      <c r="F233" s="61"/>
+      <c r="A233" s="107"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="28"/>
+      <c r="F233" s="58"/>
     </row>
     <row r="234" spans="1:6" ht="18">
-      <c r="A234" s="114"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="4"/>
-      <c r="E234" s="29"/>
-      <c r="F234" s="61"/>
+      <c r="A234" s="107"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="28"/>
+      <c r="F234" s="58"/>
     </row>
     <row r="235" spans="1:6" ht="18">
-      <c r="A235" s="114"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="4"/>
-      <c r="E235" s="29"/>
-      <c r="F235" s="61"/>
+      <c r="A235" s="107"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="28"/>
+      <c r="F235" s="58"/>
     </row>
     <row r="236" spans="1:6">
-      <c r="A236" s="5"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="5"/>
-      <c r="D236" s="5"/>
-      <c r="E236" s="29"/>
-      <c r="F236" s="61"/>
+      <c r="A236" s="4"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="28"/>
+      <c r="F236" s="58"/>
     </row>
     <row r="237" spans="1:6">
-      <c r="A237" s="5"/>
-      <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="29"/>
-      <c r="F237" s="61"/>
+      <c r="A237" s="4"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="28"/>
+      <c r="F237" s="58"/>
     </row>
     <row r="238" spans="1:6">
-      <c r="A238" s="5"/>
-      <c r="B238" s="5"/>
-      <c r="C238" s="5"/>
-      <c r="D238" s="5"/>
-      <c r="E238" s="29"/>
-      <c r="F238" s="61"/>
+      <c r="A238" s="4"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="28"/>
+      <c r="F238" s="58"/>
     </row>
     <row r="239" spans="1:6">
-      <c r="A239" s="5"/>
-      <c r="B239" s="5"/>
-      <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="29"/>
-      <c r="F239" s="61"/>
+      <c r="A239" s="4"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="28"/>
+      <c r="F239" s="58"/>
     </row>
     <row r="240" spans="1:6">
-      <c r="A240" s="5"/>
-      <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
-      <c r="D240" s="5"/>
-      <c r="E240" s="29"/>
-      <c r="F240" s="61"/>
+      <c r="A240" s="4"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="28"/>
+      <c r="F240" s="58"/>
     </row>
     <row r="241" spans="6:6">
-      <c r="F241" s="61"/>
+      <c r="F241" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="H79:H81"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="H87:H90"/>
-    <mergeCell ref="H91:H95"/>
-    <mergeCell ref="H117:H122"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="F123:F127"/>
+    <mergeCell ref="G123:G127"/>
+    <mergeCell ref="H123:H127"/>
+    <mergeCell ref="F128:F132"/>
+    <mergeCell ref="G128:G132"/>
+    <mergeCell ref="H128:H132"/>
+    <mergeCell ref="G104:G107"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="G91:G95"/>
+    <mergeCell ref="G117:G122"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="F104:F107"/>
+    <mergeCell ref="F117:F122"/>
+    <mergeCell ref="G87:G90"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="H100:H103"/>
+    <mergeCell ref="H104:H107"/>
+    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="A108:A115"/>
+    <mergeCell ref="A197:A209"/>
+    <mergeCell ref="A211:A235"/>
+    <mergeCell ref="A117:A127"/>
+    <mergeCell ref="A96:A107"/>
+    <mergeCell ref="A47:A74"/>
+    <mergeCell ref="A75:A95"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="G79:G81"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="A29:A46"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H37:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H46"/>
     <mergeCell ref="H47:H50"/>
     <mergeCell ref="H51:H53"/>
     <mergeCell ref="H54:H56"/>
@@ -6075,84 +6311,17 @@
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="A29:A46"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="A108:A115"/>
-    <mergeCell ref="A197:A209"/>
-    <mergeCell ref="A211:A235"/>
-    <mergeCell ref="A117:A127"/>
-    <mergeCell ref="A96:A107"/>
-    <mergeCell ref="A47:A74"/>
-    <mergeCell ref="A75:A95"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="G79:G81"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F87:F90"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="F123:F127"/>
-    <mergeCell ref="G123:G127"/>
-    <mergeCell ref="H123:H127"/>
-    <mergeCell ref="F128:F132"/>
-    <mergeCell ref="G128:G132"/>
-    <mergeCell ref="H128:H132"/>
-    <mergeCell ref="G104:G107"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="G91:G95"/>
-    <mergeCell ref="G117:G122"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="F104:F107"/>
-    <mergeCell ref="F117:F122"/>
-    <mergeCell ref="G87:G90"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="H96:H99"/>
-    <mergeCell ref="H100:H103"/>
-    <mergeCell ref="H104:H107"/>
-    <mergeCell ref="H75:H78"/>
+    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="H87:H90"/>
+    <mergeCell ref="H91:H95"/>
+    <mergeCell ref="H117:H122"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="H63:H66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6164,266 +6333,467 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="167" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A1" s="141" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="141" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="81" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
-      <c r="A2">
+      <c r="A2" s="164">
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="124" t="s">
         <v>259</v>
       </c>
-      <c r="D2" s="136">
+      <c r="D2" s="125">
         <v>8</v>
       </c>
-      <c r="E2" s="136">
+      <c r="E2" s="134" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18">
+      <c r="A3" s="165">
+        <v>1</v>
+      </c>
+      <c r="B3" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="126"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="135"/>
+    </row>
+    <row r="4" spans="1:5" ht="18">
+      <c r="A4" s="165">
+        <v>2</v>
+      </c>
+      <c r="B4" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="126"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="135"/>
+    </row>
+    <row r="5" spans="1:5" ht="18">
+      <c r="A5" s="165">
+        <v>3</v>
+      </c>
+      <c r="B5" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="126"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="135"/>
+    </row>
+    <row r="6" spans="1:5" ht="18">
+      <c r="A6" s="165">
+        <v>4</v>
+      </c>
+      <c r="B6" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="126"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="135"/>
+    </row>
+    <row r="7" spans="1:5" ht="18">
+      <c r="A7" s="165">
+        <v>5</v>
+      </c>
+      <c r="B7" s="120" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="126"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="135"/>
+    </row>
+    <row r="8" spans="1:5" ht="18">
+      <c r="A8" s="165">
+        <v>6</v>
+      </c>
+      <c r="B8" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="126"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="135"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" thickBot="1">
+      <c r="A9" s="166">
+        <v>7</v>
+      </c>
+      <c r="B9" s="121" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="130"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="136"/>
+    </row>
+    <row r="10" spans="1:5" ht="18">
+      <c r="A10" s="164">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-    </row>
-    <row r="4" spans="1:5" ht="18">
-      <c r="A4">
+      <c r="B10" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="125">
+        <v>8</v>
+      </c>
+      <c r="E10" s="134" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18">
+      <c r="A11" s="165">
+        <v>1</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="126"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="135"/>
+    </row>
+    <row r="12" spans="1:5" ht="18">
+      <c r="A12" s="165">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-    </row>
-    <row r="5" spans="1:5" ht="18">
-      <c r="A5">
+      <c r="B12" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="126"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="135"/>
+    </row>
+    <row r="13" spans="1:5" ht="18">
+      <c r="A13" s="165">
         <v>3</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-    </row>
-    <row r="6" spans="1:5" ht="18">
-      <c r="A6">
+      <c r="B13" s="120" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="126"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="135"/>
+    </row>
+    <row r="14" spans="1:5" ht="18">
+      <c r="A14" s="165">
         <v>4</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-    </row>
-    <row r="7" spans="1:5" ht="18">
-      <c r="A7">
+      <c r="B14" s="120" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="126"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="135"/>
+    </row>
+    <row r="15" spans="1:5" ht="18">
+      <c r="A15" s="165">
         <v>5</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-    </row>
-    <row r="8" spans="1:5" ht="18">
-      <c r="A8">
+      <c r="B15" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="126"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="135"/>
+    </row>
+    <row r="16" spans="1:5" ht="18">
+      <c r="A16" s="165">
         <v>6</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-    </row>
-    <row r="9" spans="1:5" ht="18">
-      <c r="A9">
+      <c r="B16" s="120" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="126"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="135"/>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" thickBot="1">
+      <c r="A17" s="166">
         <v>7</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-    </row>
-    <row r="10" spans="1:5" ht="18">
-      <c r="B10" s="88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18">
-      <c r="B11" s="43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18">
-      <c r="B12" s="43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" thickBot="1">
-      <c r="B13" s="44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="B14" s="42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="B15" s="43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18">
-      <c r="B16" s="43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="18.75" thickBot="1">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="121" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" ht="18">
-      <c r="B18" s="42" t="s">
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="136"/>
+    </row>
+    <row r="18" spans="1:5" ht="18">
+      <c r="A18" s="164">
+        <v>0</v>
+      </c>
+      <c r="B18" s="119" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" ht="18">
-      <c r="B19" s="43" t="s">
+      <c r="C18" s="124" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="125">
+        <v>8</v>
+      </c>
+      <c r="E18" s="134" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18">
+      <c r="A19" s="165">
+        <v>1</v>
+      </c>
+      <c r="B19" s="120" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" ht="18">
-      <c r="B20" s="43" t="s">
+      <c r="C19" s="126"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="135"/>
+    </row>
+    <row r="20" spans="1:5" ht="18">
+      <c r="A20" s="165">
+        <v>2</v>
+      </c>
+      <c r="B20" s="120" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" ht="18.75" thickBot="1">
-      <c r="B21" s="44" t="s">
+      <c r="C20" s="126"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="135"/>
+    </row>
+    <row r="21" spans="1:5" ht="18">
+      <c r="A21" s="165">
+        <v>3</v>
+      </c>
+      <c r="B21" s="120" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" ht="18">
-      <c r="B22" s="42" t="s">
+      <c r="C21" s="126"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="135"/>
+    </row>
+    <row r="22" spans="1:5" ht="18">
+      <c r="A22" s="165">
+        <v>4</v>
+      </c>
+      <c r="B22" s="120" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" ht="18">
-      <c r="B23" s="43" t="s">
+      <c r="C22" s="126"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="135"/>
+    </row>
+    <row r="23" spans="1:5" ht="18">
+      <c r="A23" s="165">
+        <v>5</v>
+      </c>
+      <c r="B23" s="120" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" ht="18">
-      <c r="B24" s="43" t="s">
+      <c r="C23" s="126"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="135"/>
+    </row>
+    <row r="24" spans="1:5" ht="18">
+      <c r="A24" s="165">
+        <v>6</v>
+      </c>
+      <c r="B24" s="120" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" ht="18.75" thickBot="1">
-      <c r="B25" s="44" t="s">
+      <c r="C24" s="126"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="135"/>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" thickBot="1">
+      <c r="A25" s="166">
+        <v>7</v>
+      </c>
+      <c r="B25" s="121" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" ht="18">
-      <c r="B26" s="42" t="s">
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="136"/>
+    </row>
+    <row r="26" spans="1:5" ht="18">
+      <c r="A26" s="164">
+        <v>0</v>
+      </c>
+      <c r="B26" s="119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" ht="18">
-      <c r="B27" s="43" t="s">
+      <c r="C26" s="132" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" s="133">
+        <v>10</v>
+      </c>
+      <c r="E26" s="137" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18">
+      <c r="A27" s="165">
+        <v>1</v>
+      </c>
+      <c r="B27" s="120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" ht="18.75" thickBot="1">
-      <c r="B28" s="44" t="s">
+      <c r="C27" s="127"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="138"/>
+    </row>
+    <row r="28" spans="1:5" ht="18">
+      <c r="A28" s="165">
+        <v>2</v>
+      </c>
+      <c r="B28" s="120" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" ht="18">
-      <c r="B29" s="42" t="s">
+      <c r="C28" s="127"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="138"/>
+    </row>
+    <row r="29" spans="1:5" ht="18">
+      <c r="A29" s="165">
+        <v>3</v>
+      </c>
+      <c r="B29" s="120" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" ht="18">
-      <c r="B30" s="43" t="s">
+      <c r="C29" s="127"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="138"/>
+    </row>
+    <row r="30" spans="1:5" ht="18">
+      <c r="A30" s="165">
+        <v>4</v>
+      </c>
+      <c r="B30" s="120" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" ht="18.75" thickBot="1">
-      <c r="B31" s="44" t="s">
+      <c r="C30" s="127"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="138"/>
+    </row>
+    <row r="31" spans="1:5" ht="18">
+      <c r="A31" s="165">
+        <v>5</v>
+      </c>
+      <c r="B31" s="120" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" ht="18">
-      <c r="B32" s="42" t="s">
+      <c r="C31" s="127"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="138"/>
+    </row>
+    <row r="32" spans="1:5" ht="18">
+      <c r="A32" s="165">
+        <v>6</v>
+      </c>
+      <c r="B32" s="120" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" ht="18">
-      <c r="B33" s="43" t="s">
+      <c r="C32" s="127"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="138"/>
+    </row>
+    <row r="33" spans="1:5" ht="18">
+      <c r="A33" s="165">
+        <v>7</v>
+      </c>
+      <c r="B33" s="120" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" ht="18">
-      <c r="B34" s="43" t="s">
+      <c r="C33" s="127"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="138"/>
+    </row>
+    <row r="34" spans="1:5" ht="18">
+      <c r="A34" s="165">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" ht="18.75" thickBot="1">
-      <c r="B35" s="47" t="s">
+      <c r="B34" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="127"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="138"/>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" thickBot="1">
+      <c r="A35" s="166">
+        <v>9</v>
+      </c>
+      <c r="B35" s="122" t="s">
         <v>138</v>
       </c>
+      <c r="C35" s="128"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="139"/>
+    </row>
+    <row r="37" spans="1:5" ht="15">
+      <c r="A37" s="140" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15">
+      <c r="A38" s="140" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15">
+      <c r="A39" s="140" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15">
+      <c r="A40" s="140"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="12">
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="E26:E35"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="E2:E9"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="E10:E17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6437,7 +6807,7 @@
   <dimension ref="A2:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:E47"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6447,161 +6817,161 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="15.75">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:2" ht="15.75">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" ht="15.75">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2" ht="15.75">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>10</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="27"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="28"/>
+      <c r="B27" s="27"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="27"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="27"/>
+      <c r="B29" s="26"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="27"/>
+      <c r="B30" s="26"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="27"/>
+      <c r="B31" s="26"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="27"/>
+      <c r="B32" s="26"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="27"/>
+      <c r="B33" s="26"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="27"/>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="27"/>
+      <c r="B35" s="26"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="27"/>
+      <c r="B36" s="26"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="27"/>
+      <c r="B37" s="26"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="27"/>
+      <c r="B38" s="26"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="27"/>
+      <c r="B39" s="26"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="27"/>
+      <c r="B40" s="26"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="27"/>
+      <c r="B41" s="26"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="28"/>
+      <c r="B42" s="27"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="27"/>
+      <c r="B43" s="26"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="27"/>
+      <c r="B44" s="26"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -6617,7 +6987,7 @@
   <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A33"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6626,173 +6996,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18">
-      <c r="A1" s="18"/>
+      <c r="A1" s="17"/>
     </row>
     <row r="2" spans="1:1" ht="18">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18">
-      <c r="A30" s="25"/>
+      <c r="A30" s="24"/>
     </row>
     <row r="31" spans="1:1" ht="18">
-      <c r="A31" s="21"/>
+      <c r="A31" s="20"/>
     </row>
     <row r="32" spans="1:1" ht="18">
-      <c r="A32" s="21"/>
+      <c r="A32" s="20"/>
     </row>
     <row r="33" spans="1:1" ht="18">
-      <c r="A33" s="21"/>
+      <c r="A33" s="20"/>
     </row>
     <row r="34" spans="1:1" ht="18">
-      <c r="A34" s="21"/>
+      <c r="A34" s="20"/>
     </row>
     <row r="35" spans="1:1" ht="18">
-      <c r="A35" s="21"/>
+      <c r="A35" s="20"/>
     </row>
     <row r="39" spans="1:1" ht="18">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="22" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="23" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="22" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6809,123 +7179,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="89" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" thickBot="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="85" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.5" thickTop="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="82" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="79" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="117" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="B4" s="141"/>
+      <c r="B4" s="117"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="116" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="139"/>
+      <c r="B6" s="116"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="139"/>
+      <c r="B7" s="116"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B8" s="139"/>
+      <c r="B8" s="116"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="B9" s="139"/>
+      <c r="B9" s="116"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="139"/>
+      <c r="B10" s="116"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="79" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="139" t="s">
+      <c r="B13" s="116" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B14" s="139"/>
+      <c r="B14" s="116"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="B15" s="139"/>
+      <c r="B15" s="116"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="B16" s="139"/>
+      <c r="B16" s="116"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="83" t="s">
         <v>264</v>
       </c>
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="84" t="s">
         <v>265</v>
       </c>
     </row>
